--- a/DCR_MODS_templates/ExceltoMODSWF/RLA-MODS-template.xlsx
+++ b/DCR_MODS_templates/ExceltoMODSWF/RLA-MODS-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\ExceltoMODSWF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B46AE3A-418C-4B75-93A8-164417DB8760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721571C7-E94E-4EE3-B4CD-F76C1B2DCC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="555" windowWidth="25845" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,10 @@
     <t>&lt;/mods:title&gt;&lt;/mods:titleInfo&gt;</t>
   </si>
   <si>
-    <t>&lt;/mods:mods&gt;&lt;/update&gt;&lt;/object&gt;</t>
+    <t>"&gt;&lt;datastream type="md_descriptive" operation="update"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;</t>
   </si>
   <si>
-    <t>"&gt;&lt;update type="MODS"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;</t>
+    <t>&lt;/mods:mods&gt;&lt;/datastream&gt;&lt;/object&gt;</t>
   </si>
 </sst>
 </file>
@@ -531,26 +531,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BF1" sqref="BF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
-    <col min="3" max="3" width="22.796875" customWidth="1"/>
-    <col min="4" max="4" width="89.19921875" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="89.25" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="14" width="10.796875" customWidth="1"/>
+    <col min="6" max="14" width="10.75" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="27.69921875" customWidth="1"/>
-    <col min="17" max="27" width="10.796875" customWidth="1"/>
+    <col min="16" max="16" width="27.75" customWidth="1"/>
+    <col min="17" max="27" width="10.75" customWidth="1"/>
     <col min="28" max="28" width="102" customWidth="1"/>
-    <col min="29" max="58" width="10.796875" customWidth="1"/>
+    <col min="29" max="58" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="str">
         <f>CONCATENATE("&lt;mods:subject displayLabel=",CHAR(34),"RLA Site Code",CHAR(34)," xlink:href=",CHAR(34),"https://rla.lib.unc.edu/rla/cdr/",SUBSTITUTE(E1," ","%20"),"/context/site",CHAR(34),"&gt;&lt;mods:geographic&gt;")</f>
@@ -725,10 +725,10 @@
         <v>43</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -786,7 +786,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
@@ -846,7 +846,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1"/>
@@ -906,7 +906,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1"/>
@@ -966,7 +966,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1"/>
@@ -1026,7 +1026,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1"/>
@@ -1086,7 +1086,7 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
@@ -1146,7 +1146,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
@@ -1206,7 +1206,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
@@ -1266,7 +1266,7 @@
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
     </row>
-    <row r="11" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
@@ -1326,7 +1326,7 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
@@ -1386,7 +1386,7 @@
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
     </row>
-    <row r="13" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
     </row>
-    <row r="14" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="1"/>
@@ -1506,7 +1506,7 @@
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
     </row>
-    <row r="15" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="1"/>
@@ -1566,7 +1566,7 @@
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
     </row>
-    <row r="16" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1"/>
@@ -1626,7 +1626,7 @@
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
     </row>
-    <row r="17" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1"/>
@@ -1686,7 +1686,7 @@
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
     </row>
-    <row r="18" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1"/>
@@ -1746,7 +1746,7 @@
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
     </row>
-    <row r="19" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1"/>
@@ -1806,7 +1806,7 @@
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
     </row>
-    <row r="20" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1866,7 +1866,7 @@
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
     </row>
-    <row r="21" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1926,7 +1926,7 @@
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
     </row>
-    <row r="22" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1986,7 +1986,7 @@
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
     </row>
-    <row r="23" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2046,7 +2046,7 @@
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
     </row>
-    <row r="24" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2106,7 +2106,7 @@
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
     </row>
-    <row r="25" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2166,7 +2166,7 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
-    <row r="26" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2226,7 +2226,7 @@
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
     </row>
-    <row r="27" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2286,7 +2286,7 @@
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
     </row>
-    <row r="28" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2346,7 +2346,7 @@
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
     </row>
-    <row r="29" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2406,7 +2406,7 @@
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
     </row>
-    <row r="30" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2466,7 +2466,7 @@
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
     </row>
-    <row r="31" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2526,7 +2526,7 @@
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
     </row>
-    <row r="32" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2586,7 +2586,7 @@
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
     </row>
-    <row r="33" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2646,7 +2646,7 @@
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
     </row>
-    <row r="34" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2706,7 +2706,7 @@
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
     </row>
-    <row r="35" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2766,7 +2766,7 @@
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
     </row>
-    <row r="36" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2826,7 +2826,7 @@
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
     </row>
-    <row r="37" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2886,7 +2886,7 @@
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
     </row>
-    <row r="38" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2946,7 +2946,7 @@
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
     </row>
-    <row r="39" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3006,7 +3006,7 @@
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
     </row>
-    <row r="40" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3066,7 +3066,7 @@
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
     </row>
-    <row r="41" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3126,7 +3126,7 @@
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
     </row>
-    <row r="42" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3186,7 +3186,7 @@
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
     </row>
-    <row r="43" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3246,7 +3246,7 @@
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
     </row>
-    <row r="44" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3306,7 +3306,7 @@
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
     </row>
-    <row r="45" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3366,7 +3366,7 @@
       <c r="BE45" s="1"/>
       <c r="BF45" s="1"/>
     </row>
-    <row r="46" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3426,7 +3426,7 @@
       <c r="BE46" s="1"/>
       <c r="BF46" s="1"/>
     </row>
-    <row r="47" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3486,7 +3486,7 @@
       <c r="BE47" s="1"/>
       <c r="BF47" s="1"/>
     </row>
-    <row r="48" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3546,7 +3546,7 @@
       <c r="BE48" s="1"/>
       <c r="BF48" s="1"/>
     </row>
-    <row r="49" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3606,7 +3606,7 @@
       <c r="BE49" s="1"/>
       <c r="BF49" s="1"/>
     </row>
-    <row r="50" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3666,7 +3666,7 @@
       <c r="BE50" s="1"/>
       <c r="BF50" s="1"/>
     </row>
-    <row r="51" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3726,7 +3726,7 @@
       <c r="BE51" s="1"/>
       <c r="BF51" s="1"/>
     </row>
-    <row r="52" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3786,7 +3786,7 @@
       <c r="BE52" s="1"/>
       <c r="BF52" s="1"/>
     </row>
-    <row r="53" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3846,7 +3846,7 @@
       <c r="BE53" s="1"/>
       <c r="BF53" s="1"/>
     </row>
-    <row r="54" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3906,7 +3906,7 @@
       <c r="BE54" s="1"/>
       <c r="BF54" s="1"/>
     </row>
-    <row r="55" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3966,7 +3966,7 @@
       <c r="BE55" s="1"/>
       <c r="BF55" s="1"/>
     </row>
-    <row r="56" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4026,7 +4026,7 @@
       <c r="BE56" s="1"/>
       <c r="BF56" s="1"/>
     </row>
-    <row r="57" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4086,7 +4086,7 @@
       <c r="BE57" s="1"/>
       <c r="BF57" s="1"/>
     </row>
-    <row r="58" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4146,7 +4146,7 @@
       <c r="BE58" s="1"/>
       <c r="BF58" s="1"/>
     </row>
-    <row r="59" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4206,7 +4206,7 @@
       <c r="BE59" s="1"/>
       <c r="BF59" s="1"/>
     </row>
-    <row r="60" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4266,7 +4266,7 @@
       <c r="BE60" s="1"/>
       <c r="BF60" s="1"/>
     </row>
-    <row r="61" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4326,7 +4326,7 @@
       <c r="BE61" s="1"/>
       <c r="BF61" s="1"/>
     </row>
-    <row r="62" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4386,7 +4386,7 @@
       <c r="BE62" s="1"/>
       <c r="BF62" s="1"/>
     </row>
-    <row r="63" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4446,7 +4446,7 @@
       <c r="BE63" s="1"/>
       <c r="BF63" s="1"/>
     </row>
-    <row r="64" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4506,7 +4506,7 @@
       <c r="BE64" s="1"/>
       <c r="BF64" s="1"/>
     </row>
-    <row r="65" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4566,7 +4566,7 @@
       <c r="BE65" s="1"/>
       <c r="BF65" s="1"/>
     </row>
-    <row r="66" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4626,7 +4626,7 @@
       <c r="BE66" s="1"/>
       <c r="BF66" s="1"/>
     </row>
-    <row r="67" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4686,7 +4686,7 @@
       <c r="BE67" s="1"/>
       <c r="BF67" s="1"/>
     </row>
-    <row r="68" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4746,7 +4746,7 @@
       <c r="BE68" s="1"/>
       <c r="BF68" s="1"/>
     </row>
-    <row r="69" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4806,7 +4806,7 @@
       <c r="BE69" s="1"/>
       <c r="BF69" s="1"/>
     </row>
-    <row r="70" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4866,7 +4866,7 @@
       <c r="BE70" s="1"/>
       <c r="BF70" s="1"/>
     </row>
-    <row r="71" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4926,7 +4926,7 @@
       <c r="BE71" s="1"/>
       <c r="BF71" s="1"/>
     </row>
-    <row r="72" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4986,7 +4986,7 @@
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
     </row>
-    <row r="73" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5046,7 +5046,7 @@
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
     </row>
-    <row r="74" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5106,7 +5106,7 @@
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
     </row>
-    <row r="75" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5166,7 +5166,7 @@
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
     </row>
-    <row r="76" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5226,7 +5226,7 @@
       <c r="BE76" s="1"/>
       <c r="BF76" s="1"/>
     </row>
-    <row r="77" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5286,7 +5286,7 @@
       <c r="BE77" s="1"/>
       <c r="BF77" s="1"/>
     </row>
-    <row r="78" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5346,7 +5346,7 @@
       <c r="BE78" s="1"/>
       <c r="BF78" s="1"/>
     </row>
-    <row r="79" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5406,7 +5406,7 @@
       <c r="BE79" s="1"/>
       <c r="BF79" s="1"/>
     </row>
-    <row r="80" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5466,7 +5466,7 @@
       <c r="BE80" s="1"/>
       <c r="BF80" s="1"/>
     </row>
-    <row r="81" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5526,7 +5526,7 @@
       <c r="BE81" s="1"/>
       <c r="BF81" s="1"/>
     </row>
-    <row r="82" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5586,7 +5586,7 @@
       <c r="BE82" s="1"/>
       <c r="BF82" s="1"/>
     </row>
-    <row r="83" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5646,7 +5646,7 @@
       <c r="BE83" s="1"/>
       <c r="BF83" s="1"/>
     </row>
-    <row r="84" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5706,7 +5706,7 @@
       <c r="BE84" s="1"/>
       <c r="BF84" s="1"/>
     </row>
-    <row r="85" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5766,7 +5766,7 @@
       <c r="BE85" s="1"/>
       <c r="BF85" s="1"/>
     </row>
-    <row r="86" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5826,7 +5826,7 @@
       <c r="BE86" s="1"/>
       <c r="BF86" s="1"/>
     </row>
-    <row r="87" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5886,7 +5886,7 @@
       <c r="BE87" s="1"/>
       <c r="BF87" s="1"/>
     </row>
-    <row r="88" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5946,7 +5946,7 @@
       <c r="BE88" s="1"/>
       <c r="BF88" s="1"/>
     </row>
-    <row r="89" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6006,7 +6006,7 @@
       <c r="BE89" s="1"/>
       <c r="BF89" s="1"/>
     </row>
-    <row r="90" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6066,7 +6066,7 @@
       <c r="BE90" s="1"/>
       <c r="BF90" s="1"/>
     </row>
-    <row r="91" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6126,7 +6126,7 @@
       <c r="BE91" s="1"/>
       <c r="BF91" s="1"/>
     </row>
-    <row r="92" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6186,7 +6186,7 @@
       <c r="BE92" s="1"/>
       <c r="BF92" s="1"/>
     </row>
-    <row r="93" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6246,7 +6246,7 @@
       <c r="BE93" s="1"/>
       <c r="BF93" s="1"/>
     </row>
-    <row r="94" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6306,7 +6306,7 @@
       <c r="BE94" s="1"/>
       <c r="BF94" s="1"/>
     </row>
-    <row r="95" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6366,7 +6366,7 @@
       <c r="BE95" s="1"/>
       <c r="BF95" s="1"/>
     </row>
-    <row r="96" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6426,7 +6426,7 @@
       <c r="BE96" s="1"/>
       <c r="BF96" s="1"/>
     </row>
-    <row r="97" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6486,7 +6486,7 @@
       <c r="BE97" s="1"/>
       <c r="BF97" s="1"/>
     </row>
-    <row r="98" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6546,7 +6546,7 @@
       <c r="BE98" s="1"/>
       <c r="BF98" s="1"/>
     </row>
-    <row r="99" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6606,7 +6606,7 @@
       <c r="BE99" s="1"/>
       <c r="BF99" s="1"/>
     </row>
-    <row r="100" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6666,7 +6666,7 @@
       <c r="BE100" s="1"/>
       <c r="BF100" s="1"/>
     </row>
-    <row r="101" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6726,7 +6726,7 @@
       <c r="BE101" s="1"/>
       <c r="BF101" s="1"/>
     </row>
-    <row r="102" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6786,7 +6786,7 @@
       <c r="BE102" s="1"/>
       <c r="BF102" s="1"/>
     </row>
-    <row r="103" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6846,7 +6846,7 @@
       <c r="BE103" s="1"/>
       <c r="BF103" s="1"/>
     </row>
-    <row r="104" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6906,7 +6906,7 @@
       <c r="BE104" s="1"/>
       <c r="BF104" s="1"/>
     </row>
-    <row r="105" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6966,7 +6966,7 @@
       <c r="BE105" s="1"/>
       <c r="BF105" s="1"/>
     </row>
-    <row r="106" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7026,7 +7026,7 @@
       <c r="BE106" s="1"/>
       <c r="BF106" s="1"/>
     </row>
-    <row r="107" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7086,7 +7086,7 @@
       <c r="BE107" s="1"/>
       <c r="BF107" s="1"/>
     </row>
-    <row r="108" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7146,7 +7146,7 @@
       <c r="BE108" s="1"/>
       <c r="BF108" s="1"/>
     </row>
-    <row r="109" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7206,7 +7206,7 @@
       <c r="BE109" s="1"/>
       <c r="BF109" s="1"/>
     </row>
-    <row r="110" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7266,7 +7266,7 @@
       <c r="BE110" s="1"/>
       <c r="BF110" s="1"/>
     </row>
-    <row r="111" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7326,7 +7326,7 @@
       <c r="BE111" s="1"/>
       <c r="BF111" s="1"/>
     </row>
-    <row r="112" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7386,7 +7386,7 @@
       <c r="BE112" s="1"/>
       <c r="BF112" s="1"/>
     </row>
-    <row r="113" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7446,7 +7446,7 @@
       <c r="BE113" s="1"/>
       <c r="BF113" s="1"/>
     </row>
-    <row r="114" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7506,7 +7506,7 @@
       <c r="BE114" s="1"/>
       <c r="BF114" s="1"/>
     </row>
-    <row r="115" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7566,7 +7566,7 @@
       <c r="BE115" s="1"/>
       <c r="BF115" s="1"/>
     </row>
-    <row r="116" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7626,7 +7626,7 @@
       <c r="BE116" s="1"/>
       <c r="BF116" s="1"/>
     </row>
-    <row r="117" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7686,7 +7686,7 @@
       <c r="BE117" s="1"/>
       <c r="BF117" s="1"/>
     </row>
-    <row r="118" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7746,7 +7746,7 @@
       <c r="BE118" s="1"/>
       <c r="BF118" s="1"/>
     </row>
-    <row r="119" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7806,7 +7806,7 @@
       <c r="BE119" s="1"/>
       <c r="BF119" s="1"/>
     </row>
-    <row r="120" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7866,7 +7866,7 @@
       <c r="BE120" s="1"/>
       <c r="BF120" s="1"/>
     </row>
-    <row r="121" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7926,7 +7926,7 @@
       <c r="BE121" s="1"/>
       <c r="BF121" s="1"/>
     </row>
-    <row r="122" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7986,7 +7986,7 @@
       <c r="BE122" s="1"/>
       <c r="BF122" s="1"/>
     </row>
-    <row r="123" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8046,7 +8046,7 @@
       <c r="BE123" s="1"/>
       <c r="BF123" s="1"/>
     </row>
-    <row r="124" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8106,7 +8106,7 @@
       <c r="BE124" s="1"/>
       <c r="BF124" s="1"/>
     </row>
-    <row r="125" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8166,7 +8166,7 @@
       <c r="BE125" s="1"/>
       <c r="BF125" s="1"/>
     </row>
-    <row r="126" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8226,7 +8226,7 @@
       <c r="BE126" s="1"/>
       <c r="BF126" s="1"/>
     </row>
-    <row r="127" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8286,7 +8286,7 @@
       <c r="BE127" s="1"/>
       <c r="BF127" s="1"/>
     </row>
-    <row r="128" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8346,7 +8346,7 @@
       <c r="BE128" s="1"/>
       <c r="BF128" s="1"/>
     </row>
-    <row r="129" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8406,7 +8406,7 @@
       <c r="BE129" s="1"/>
       <c r="BF129" s="1"/>
     </row>
-    <row r="130" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8466,7 +8466,7 @@
       <c r="BE130" s="1"/>
       <c r="BF130" s="1"/>
     </row>
-    <row r="131" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8526,7 +8526,7 @@
       <c r="BE131" s="1"/>
       <c r="BF131" s="1"/>
     </row>
-    <row r="132" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8586,7 +8586,7 @@
       <c r="BE132" s="1"/>
       <c r="BF132" s="1"/>
     </row>
-    <row r="133" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8646,7 +8646,7 @@
       <c r="BE133" s="1"/>
       <c r="BF133" s="1"/>
     </row>
-    <row r="134" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8706,7 +8706,7 @@
       <c r="BE134" s="1"/>
       <c r="BF134" s="1"/>
     </row>
-    <row r="135" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8766,7 +8766,7 @@
       <c r="BE135" s="1"/>
       <c r="BF135" s="1"/>
     </row>
-    <row r="136" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8826,7 +8826,7 @@
       <c r="BE136" s="1"/>
       <c r="BF136" s="1"/>
     </row>
-    <row r="137" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8886,7 +8886,7 @@
       <c r="BE137" s="1"/>
       <c r="BF137" s="1"/>
     </row>
-    <row r="138" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8946,7 +8946,7 @@
       <c r="BE138" s="1"/>
       <c r="BF138" s="1"/>
     </row>
-    <row r="139" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9006,7 +9006,7 @@
       <c r="BE139" s="1"/>
       <c r="BF139" s="1"/>
     </row>
-    <row r="140" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9066,7 +9066,7 @@
       <c r="BE140" s="1"/>
       <c r="BF140" s="1"/>
     </row>
-    <row r="141" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -9126,7 +9126,7 @@
       <c r="BE141" s="1"/>
       <c r="BF141" s="1"/>
     </row>
-    <row r="142" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9186,7 +9186,7 @@
       <c r="BE142" s="1"/>
       <c r="BF142" s="1"/>
     </row>
-    <row r="143" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9246,7 +9246,7 @@
       <c r="BE143" s="1"/>
       <c r="BF143" s="1"/>
     </row>
-    <row r="144" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9306,7 +9306,7 @@
       <c r="BE144" s="1"/>
       <c r="BF144" s="1"/>
     </row>
-    <row r="145" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9366,7 +9366,7 @@
       <c r="BE145" s="1"/>
       <c r="BF145" s="1"/>
     </row>
-    <row r="146" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9426,7 +9426,7 @@
       <c r="BE146" s="1"/>
       <c r="BF146" s="1"/>
     </row>
-    <row r="147" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9486,7 +9486,7 @@
       <c r="BE147" s="1"/>
       <c r="BF147" s="1"/>
     </row>
-    <row r="148" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9546,7 +9546,7 @@
       <c r="BE148" s="1"/>
       <c r="BF148" s="1"/>
     </row>
-    <row r="149" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9606,7 +9606,7 @@
       <c r="BE149" s="1"/>
       <c r="BF149" s="1"/>
     </row>
-    <row r="150" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9666,7 +9666,7 @@
       <c r="BE150" s="1"/>
       <c r="BF150" s="1"/>
     </row>
-    <row r="151" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9726,7 +9726,7 @@
       <c r="BE151" s="1"/>
       <c r="BF151" s="1"/>
     </row>
-    <row r="152" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9786,7 +9786,7 @@
       <c r="BE152" s="1"/>
       <c r="BF152" s="1"/>
     </row>
-    <row r="153" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9846,7 +9846,7 @@
       <c r="BE153" s="1"/>
       <c r="BF153" s="1"/>
     </row>
-    <row r="154" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9906,7 +9906,7 @@
       <c r="BE154" s="1"/>
       <c r="BF154" s="1"/>
     </row>
-    <row r="155" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9966,7 +9966,7 @@
       <c r="BE155" s="1"/>
       <c r="BF155" s="1"/>
     </row>
-    <row r="156" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -10026,7 +10026,7 @@
       <c r="BE156" s="1"/>
       <c r="BF156" s="1"/>
     </row>
-    <row r="157" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -10086,7 +10086,7 @@
       <c r="BE157" s="1"/>
       <c r="BF157" s="1"/>
     </row>
-    <row r="158" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -10146,7 +10146,7 @@
       <c r="BE158" s="1"/>
       <c r="BF158" s="1"/>
     </row>
-    <row r="159" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -10206,7 +10206,7 @@
       <c r="BE159" s="1"/>
       <c r="BF159" s="1"/>
     </row>
-    <row r="160" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -10266,7 +10266,7 @@
       <c r="BE160" s="1"/>
       <c r="BF160" s="1"/>
     </row>
-    <row r="161" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10326,7 +10326,7 @@
       <c r="BE161" s="1"/>
       <c r="BF161" s="1"/>
     </row>
-    <row r="162" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10386,7 +10386,7 @@
       <c r="BE162" s="1"/>
       <c r="BF162" s="1"/>
     </row>
-    <row r="163" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10446,7 +10446,7 @@
       <c r="BE163" s="1"/>
       <c r="BF163" s="1"/>
     </row>
-    <row r="164" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10506,7 +10506,7 @@
       <c r="BE164" s="1"/>
       <c r="BF164" s="1"/>
     </row>
-    <row r="165" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -10566,7 +10566,7 @@
       <c r="BE165" s="1"/>
       <c r="BF165" s="1"/>
     </row>
-    <row r="166" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10626,7 +10626,7 @@
       <c r="BE166" s="1"/>
       <c r="BF166" s="1"/>
     </row>
-    <row r="167" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10686,7 +10686,7 @@
       <c r="BE167" s="1"/>
       <c r="BF167" s="1"/>
     </row>
-    <row r="168" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10746,7 +10746,7 @@
       <c r="BE168" s="1"/>
       <c r="BF168" s="1"/>
     </row>
-    <row r="169" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10806,7 +10806,7 @@
       <c r="BE169" s="1"/>
       <c r="BF169" s="1"/>
     </row>
-    <row r="170" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10866,7 +10866,7 @@
       <c r="BE170" s="1"/>
       <c r="BF170" s="1"/>
     </row>
-    <row r="171" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10926,7 +10926,7 @@
       <c r="BE171" s="1"/>
       <c r="BF171" s="1"/>
     </row>
-    <row r="172" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10986,7 +10986,7 @@
       <c r="BE172" s="1"/>
       <c r="BF172" s="1"/>
     </row>
-    <row r="173" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -11046,7 +11046,7 @@
       <c r="BE173" s="1"/>
       <c r="BF173" s="1"/>
     </row>
-    <row r="174" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -11106,7 +11106,7 @@
       <c r="BE174" s="1"/>
       <c r="BF174" s="1"/>
     </row>
-    <row r="175" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -11166,7 +11166,7 @@
       <c r="BE175" s="1"/>
       <c r="BF175" s="1"/>
     </row>
-    <row r="176" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -11226,7 +11226,7 @@
       <c r="BE176" s="1"/>
       <c r="BF176" s="1"/>
     </row>
-    <row r="177" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -11286,7 +11286,7 @@
       <c r="BE177" s="1"/>
       <c r="BF177" s="1"/>
     </row>
-    <row r="178" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -11346,7 +11346,7 @@
       <c r="BE178" s="1"/>
       <c r="BF178" s="1"/>
     </row>
-    <row r="179" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -11406,7 +11406,7 @@
       <c r="BE179" s="1"/>
       <c r="BF179" s="1"/>
     </row>
-    <row r="180" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -11466,7 +11466,7 @@
       <c r="BE180" s="1"/>
       <c r="BF180" s="1"/>
     </row>
-    <row r="181" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -11526,7 +11526,7 @@
       <c r="BE181" s="1"/>
       <c r="BF181" s="1"/>
     </row>
-    <row r="182" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -11586,7 +11586,7 @@
       <c r="BE182" s="1"/>
       <c r="BF182" s="1"/>
     </row>
-    <row r="183" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -11646,7 +11646,7 @@
       <c r="BE183" s="1"/>
       <c r="BF183" s="1"/>
     </row>
-    <row r="184" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -11706,7 +11706,7 @@
       <c r="BE184" s="1"/>
       <c r="BF184" s="1"/>
     </row>
-    <row r="185" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -11766,7 +11766,7 @@
       <c r="BE185" s="1"/>
       <c r="BF185" s="1"/>
     </row>
-    <row r="186" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -11826,7 +11826,7 @@
       <c r="BE186" s="1"/>
       <c r="BF186" s="1"/>
     </row>
-    <row r="187" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -11886,7 +11886,7 @@
       <c r="BE187" s="1"/>
       <c r="BF187" s="1"/>
     </row>
-    <row r="188" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -11946,7 +11946,7 @@
       <c r="BE188" s="1"/>
       <c r="BF188" s="1"/>
     </row>
-    <row r="189" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -12006,7 +12006,7 @@
       <c r="BE189" s="1"/>
       <c r="BF189" s="1"/>
     </row>
-    <row r="190" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -12066,7 +12066,7 @@
       <c r="BE190" s="1"/>
       <c r="BF190" s="1"/>
     </row>
-    <row r="191" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -12126,7 +12126,7 @@
       <c r="BE191" s="1"/>
       <c r="BF191" s="1"/>
     </row>
-    <row r="192" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -12186,7 +12186,7 @@
       <c r="BE192" s="1"/>
       <c r="BF192" s="1"/>
     </row>
-    <row r="193" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -12246,7 +12246,7 @@
       <c r="BE193" s="1"/>
       <c r="BF193" s="1"/>
     </row>
-    <row r="194" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -12306,7 +12306,7 @@
       <c r="BE194" s="1"/>
       <c r="BF194" s="1"/>
     </row>
-    <row r="195" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -12366,7 +12366,7 @@
       <c r="BE195" s="1"/>
       <c r="BF195" s="1"/>
     </row>
-    <row r="196" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -12426,7 +12426,7 @@
       <c r="BE196" s="1"/>
       <c r="BF196" s="1"/>
     </row>
-    <row r="197" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -12486,7 +12486,7 @@
       <c r="BE197" s="1"/>
       <c r="BF197" s="1"/>
     </row>
-    <row r="198" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -12546,7 +12546,7 @@
       <c r="BE198" s="1"/>
       <c r="BF198" s="1"/>
     </row>
-    <row r="199" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -12606,7 +12606,7 @@
       <c r="BE199" s="1"/>
       <c r="BF199" s="1"/>
     </row>
-    <row r="200" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -12666,7 +12666,7 @@
       <c r="BE200" s="1"/>
       <c r="BF200" s="1"/>
     </row>
-    <row r="201" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -12726,7 +12726,7 @@
       <c r="BE201" s="1"/>
       <c r="BF201" s="1"/>
     </row>
-    <row r="202" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -12786,7 +12786,7 @@
       <c r="BE202" s="1"/>
       <c r="BF202" s="1"/>
     </row>
-    <row r="203" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -12846,7 +12846,7 @@
       <c r="BE203" s="1"/>
       <c r="BF203" s="1"/>
     </row>
-    <row r="204" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -12906,7 +12906,7 @@
       <c r="BE204" s="1"/>
       <c r="BF204" s="1"/>
     </row>
-    <row r="205" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -12966,7 +12966,7 @@
       <c r="BE205" s="1"/>
       <c r="BF205" s="1"/>
     </row>
-    <row r="206" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -13026,7 +13026,7 @@
       <c r="BE206" s="1"/>
       <c r="BF206" s="1"/>
     </row>
-    <row r="207" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -13086,7 +13086,7 @@
       <c r="BE207" s="1"/>
       <c r="BF207" s="1"/>
     </row>
-    <row r="208" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -13146,7 +13146,7 @@
       <c r="BE208" s="1"/>
       <c r="BF208" s="1"/>
     </row>
-    <row r="209" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -13206,7 +13206,7 @@
       <c r="BE209" s="1"/>
       <c r="BF209" s="1"/>
     </row>
-    <row r="210" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -13266,7 +13266,7 @@
       <c r="BE210" s="1"/>
       <c r="BF210" s="1"/>
     </row>
-    <row r="211" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -13326,7 +13326,7 @@
       <c r="BE211" s="1"/>
       <c r="BF211" s="1"/>
     </row>
-    <row r="212" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -13386,7 +13386,7 @@
       <c r="BE212" s="1"/>
       <c r="BF212" s="1"/>
     </row>
-    <row r="213" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -13446,7 +13446,7 @@
       <c r="BE213" s="1"/>
       <c r="BF213" s="1"/>
     </row>
-    <row r="214" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -13506,7 +13506,7 @@
       <c r="BE214" s="1"/>
       <c r="BF214" s="1"/>
     </row>
-    <row r="215" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -13566,7 +13566,7 @@
       <c r="BE215" s="1"/>
       <c r="BF215" s="1"/>
     </row>
-    <row r="216" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -13626,7 +13626,7 @@
       <c r="BE216" s="1"/>
       <c r="BF216" s="1"/>
     </row>
-    <row r="217" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -13686,7 +13686,7 @@
       <c r="BE217" s="1"/>
       <c r="BF217" s="1"/>
     </row>
-    <row r="218" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -13746,7 +13746,7 @@
       <c r="BE218" s="1"/>
       <c r="BF218" s="1"/>
     </row>
-    <row r="219" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -13806,7 +13806,7 @@
       <c r="BE219" s="1"/>
       <c r="BF219" s="1"/>
     </row>
-    <row r="220" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -13866,7 +13866,7 @@
       <c r="BE220" s="1"/>
       <c r="BF220" s="1"/>
     </row>
-    <row r="221" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -13926,7 +13926,7 @@
       <c r="BE221" s="1"/>
       <c r="BF221" s="1"/>
     </row>
-    <row r="222" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -13986,7 +13986,7 @@
       <c r="BE222" s="1"/>
       <c r="BF222" s="1"/>
     </row>
-    <row r="223" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -14046,7 +14046,7 @@
       <c r="BE223" s="1"/>
       <c r="BF223" s="1"/>
     </row>
-    <row r="224" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -14106,7 +14106,7 @@
       <c r="BE224" s="1"/>
       <c r="BF224" s="1"/>
     </row>
-    <row r="225" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -14166,7 +14166,7 @@
       <c r="BE225" s="1"/>
       <c r="BF225" s="1"/>
     </row>
-    <row r="226" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -14226,7 +14226,7 @@
       <c r="BE226" s="1"/>
       <c r="BF226" s="1"/>
     </row>
-    <row r="227" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -14286,7 +14286,7 @@
       <c r="BE227" s="1"/>
       <c r="BF227" s="1"/>
     </row>
-    <row r="228" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -14346,7 +14346,7 @@
       <c r="BE228" s="1"/>
       <c r="BF228" s="1"/>
     </row>
-    <row r="229" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -14406,7 +14406,7 @@
       <c r="BE229" s="1"/>
       <c r="BF229" s="1"/>
     </row>
-    <row r="230" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -14466,7 +14466,7 @@
       <c r="BE230" s="1"/>
       <c r="BF230" s="1"/>
     </row>
-    <row r="231" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -14526,7 +14526,7 @@
       <c r="BE231" s="1"/>
       <c r="BF231" s="1"/>
     </row>
-    <row r="232" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -14586,7 +14586,7 @@
       <c r="BE232" s="1"/>
       <c r="BF232" s="1"/>
     </row>
-    <row r="233" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -14646,7 +14646,7 @@
       <c r="BE233" s="1"/>
       <c r="BF233" s="1"/>
     </row>
-    <row r="234" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -14706,7 +14706,7 @@
       <c r="BE234" s="1"/>
       <c r="BF234" s="1"/>
     </row>
-    <row r="235" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -14766,7 +14766,7 @@
       <c r="BE235" s="1"/>
       <c r="BF235" s="1"/>
     </row>
-    <row r="236" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -14826,7 +14826,7 @@
       <c r="BE236" s="1"/>
       <c r="BF236" s="1"/>
     </row>
-    <row r="237" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -14886,7 +14886,7 @@
       <c r="BE237" s="1"/>
       <c r="BF237" s="1"/>
     </row>
-    <row r="238" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -14946,7 +14946,7 @@
       <c r="BE238" s="1"/>
       <c r="BF238" s="1"/>
     </row>
-    <row r="239" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -15006,7 +15006,7 @@
       <c r="BE239" s="1"/>
       <c r="BF239" s="1"/>
     </row>
-    <row r="240" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -15066,7 +15066,7 @@
       <c r="BE240" s="1"/>
       <c r="BF240" s="1"/>
     </row>
-    <row r="241" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -15126,7 +15126,7 @@
       <c r="BE241" s="1"/>
       <c r="BF241" s="1"/>
     </row>
-    <row r="242" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -15186,7 +15186,7 @@
       <c r="BE242" s="1"/>
       <c r="BF242" s="1"/>
     </row>
-    <row r="243" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -15246,7 +15246,7 @@
       <c r="BE243" s="1"/>
       <c r="BF243" s="1"/>
     </row>
-    <row r="244" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -15306,7 +15306,7 @@
       <c r="BE244" s="1"/>
       <c r="BF244" s="1"/>
     </row>
-    <row r="245" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -15366,7 +15366,7 @@
       <c r="BE245" s="1"/>
       <c r="BF245" s="1"/>
     </row>
-    <row r="246" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -15426,7 +15426,7 @@
       <c r="BE246" s="1"/>
       <c r="BF246" s="1"/>
     </row>
-    <row r="247" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -15486,7 +15486,7 @@
       <c r="BE247" s="1"/>
       <c r="BF247" s="1"/>
     </row>
-    <row r="248" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -15546,7 +15546,7 @@
       <c r="BE248" s="1"/>
       <c r="BF248" s="1"/>
     </row>
-    <row r="249" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -15606,7 +15606,7 @@
       <c r="BE249" s="1"/>
       <c r="BF249" s="1"/>
     </row>
-    <row r="250" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -15666,7 +15666,7 @@
       <c r="BE250" s="1"/>
       <c r="BF250" s="1"/>
     </row>
-    <row r="251" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -15726,7 +15726,7 @@
       <c r="BE251" s="1"/>
       <c r="BF251" s="1"/>
     </row>
-    <row r="252" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -15786,7 +15786,7 @@
       <c r="BE252" s="1"/>
       <c r="BF252" s="1"/>
     </row>
-    <row r="253" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -15846,7 +15846,7 @@
       <c r="BE253" s="1"/>
       <c r="BF253" s="1"/>
     </row>
-    <row r="254" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -15906,7 +15906,7 @@
       <c r="BE254" s="1"/>
       <c r="BF254" s="1"/>
     </row>
-    <row r="255" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -15966,7 +15966,7 @@
       <c r="BE255" s="1"/>
       <c r="BF255" s="1"/>
     </row>
-    <row r="256" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -16026,7 +16026,7 @@
       <c r="BE256" s="1"/>
       <c r="BF256" s="1"/>
     </row>
-    <row r="257" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -16086,7 +16086,7 @@
       <c r="BE257" s="1"/>
       <c r="BF257" s="1"/>
     </row>
-    <row r="258" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -16146,7 +16146,7 @@
       <c r="BE258" s="1"/>
       <c r="BF258" s="1"/>
     </row>
-    <row r="259" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -16206,7 +16206,7 @@
       <c r="BE259" s="1"/>
       <c r="BF259" s="1"/>
     </row>
-    <row r="260" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -16266,7 +16266,7 @@
       <c r="BE260" s="1"/>
       <c r="BF260" s="1"/>
     </row>
-    <row r="261" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -16326,7 +16326,7 @@
       <c r="BE261" s="1"/>
       <c r="BF261" s="1"/>
     </row>
-    <row r="262" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -16386,7 +16386,7 @@
       <c r="BE262" s="1"/>
       <c r="BF262" s="1"/>
     </row>
-    <row r="263" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -16446,7 +16446,7 @@
       <c r="BE263" s="1"/>
       <c r="BF263" s="1"/>
     </row>
-    <row r="264" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -16506,7 +16506,7 @@
       <c r="BE264" s="1"/>
       <c r="BF264" s="1"/>
     </row>
-    <row r="265" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -16566,7 +16566,7 @@
       <c r="BE265" s="1"/>
       <c r="BF265" s="1"/>
     </row>
-    <row r="266" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -16626,7 +16626,7 @@
       <c r="BE266" s="1"/>
       <c r="BF266" s="1"/>
     </row>
-    <row r="267" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -16686,7 +16686,7 @@
       <c r="BE267" s="1"/>
       <c r="BF267" s="1"/>
     </row>
-    <row r="268" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -16746,7 +16746,7 @@
       <c r="BE268" s="1"/>
       <c r="BF268" s="1"/>
     </row>
-    <row r="269" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -16806,7 +16806,7 @@
       <c r="BE269" s="1"/>
       <c r="BF269" s="1"/>
     </row>
-    <row r="270" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -16866,7 +16866,7 @@
       <c r="BE270" s="1"/>
       <c r="BF270" s="1"/>
     </row>
-    <row r="271" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -16926,7 +16926,7 @@
       <c r="BE271" s="1"/>
       <c r="BF271" s="1"/>
     </row>
-    <row r="272" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -16986,7 +16986,7 @@
       <c r="BE272" s="1"/>
       <c r="BF272" s="1"/>
     </row>
-    <row r="273" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -17046,7 +17046,7 @@
       <c r="BE273" s="1"/>
       <c r="BF273" s="1"/>
     </row>
-    <row r="274" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -17106,7 +17106,7 @@
       <c r="BE274" s="1"/>
       <c r="BF274" s="1"/>
     </row>
-    <row r="275" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -17166,7 +17166,7 @@
       <c r="BE275" s="1"/>
       <c r="BF275" s="1"/>
     </row>
-    <row r="276" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -17226,7 +17226,7 @@
       <c r="BE276" s="1"/>
       <c r="BF276" s="1"/>
     </row>
-    <row r="277" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -17286,7 +17286,7 @@
       <c r="BE277" s="1"/>
       <c r="BF277" s="1"/>
     </row>
-    <row r="278" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -17346,7 +17346,7 @@
       <c r="BE278" s="1"/>
       <c r="BF278" s="1"/>
     </row>
-    <row r="279" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -17406,7 +17406,7 @@
       <c r="BE279" s="1"/>
       <c r="BF279" s="1"/>
     </row>
-    <row r="280" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -17466,7 +17466,7 @@
       <c r="BE280" s="1"/>
       <c r="BF280" s="1"/>
     </row>
-    <row r="281" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -17526,7 +17526,7 @@
       <c r="BE281" s="1"/>
       <c r="BF281" s="1"/>
     </row>
-    <row r="282" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -17586,7 +17586,7 @@
       <c r="BE282" s="1"/>
       <c r="BF282" s="1"/>
     </row>
-    <row r="283" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -17646,7 +17646,7 @@
       <c r="BE283" s="1"/>
       <c r="BF283" s="1"/>
     </row>
-    <row r="284" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -17706,7 +17706,7 @@
       <c r="BE284" s="1"/>
       <c r="BF284" s="1"/>
     </row>
-    <row r="285" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -17766,7 +17766,7 @@
       <c r="BE285" s="1"/>
       <c r="BF285" s="1"/>
     </row>
-    <row r="286" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -17826,7 +17826,7 @@
       <c r="BE286" s="1"/>
       <c r="BF286" s="1"/>
     </row>
-    <row r="287" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -17886,7 +17886,7 @@
       <c r="BE287" s="1"/>
       <c r="BF287" s="1"/>
     </row>
-    <row r="288" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -17946,7 +17946,7 @@
       <c r="BE288" s="1"/>
       <c r="BF288" s="1"/>
     </row>
-    <row r="289" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -18006,7 +18006,7 @@
       <c r="BE289" s="1"/>
       <c r="BF289" s="1"/>
     </row>
-    <row r="290" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -18066,7 +18066,7 @@
       <c r="BE290" s="1"/>
       <c r="BF290" s="1"/>
     </row>
-    <row r="291" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -18126,7 +18126,7 @@
       <c r="BE291" s="1"/>
       <c r="BF291" s="1"/>
     </row>
-    <row r="292" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -18186,7 +18186,7 @@
       <c r="BE292" s="1"/>
       <c r="BF292" s="1"/>
     </row>
-    <row r="293" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -18246,7 +18246,7 @@
       <c r="BE293" s="1"/>
       <c r="BF293" s="1"/>
     </row>
-    <row r="294" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -18306,7 +18306,7 @@
       <c r="BE294" s="1"/>
       <c r="BF294" s="1"/>
     </row>
-    <row r="295" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -18366,7 +18366,7 @@
       <c r="BE295" s="1"/>
       <c r="BF295" s="1"/>
     </row>
-    <row r="296" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -18426,7 +18426,7 @@
       <c r="BE296" s="1"/>
       <c r="BF296" s="1"/>
     </row>
-    <row r="297" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -18486,7 +18486,7 @@
       <c r="BE297" s="1"/>
       <c r="BF297" s="1"/>
     </row>
-    <row r="298" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -18546,7 +18546,7 @@
       <c r="BE298" s="1"/>
       <c r="BF298" s="1"/>
     </row>
-    <row r="299" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -18606,7 +18606,7 @@
       <c r="BE299" s="1"/>
       <c r="BF299" s="1"/>
     </row>
-    <row r="300" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -18666,7 +18666,7 @@
       <c r="BE300" s="1"/>
       <c r="BF300" s="1"/>
     </row>
-    <row r="301" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -18726,7 +18726,7 @@
       <c r="BE301" s="1"/>
       <c r="BF301" s="1"/>
     </row>
-    <row r="302" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -18786,7 +18786,7 @@
       <c r="BE302" s="1"/>
       <c r="BF302" s="1"/>
     </row>
-    <row r="303" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -18846,7 +18846,7 @@
       <c r="BE303" s="1"/>
       <c r="BF303" s="1"/>
     </row>
-    <row r="304" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -18906,7 +18906,7 @@
       <c r="BE304" s="1"/>
       <c r="BF304" s="1"/>
     </row>
-    <row r="305" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -18966,7 +18966,7 @@
       <c r="BE305" s="1"/>
       <c r="BF305" s="1"/>
     </row>
-    <row r="306" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -19026,7 +19026,7 @@
       <c r="BE306" s="1"/>
       <c r="BF306" s="1"/>
     </row>
-    <row r="307" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -19086,7 +19086,7 @@
       <c r="BE307" s="1"/>
       <c r="BF307" s="1"/>
     </row>
-    <row r="308" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -19146,7 +19146,7 @@
       <c r="BE308" s="1"/>
       <c r="BF308" s="1"/>
     </row>
-    <row r="309" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -19206,7 +19206,7 @@
       <c r="BE309" s="1"/>
       <c r="BF309" s="1"/>
     </row>
-    <row r="310" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -19266,7 +19266,7 @@
       <c r="BE310" s="1"/>
       <c r="BF310" s="1"/>
     </row>
-    <row r="311" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -19326,7 +19326,7 @@
       <c r="BE311" s="1"/>
       <c r="BF311" s="1"/>
     </row>
-    <row r="312" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -19386,7 +19386,7 @@
       <c r="BE312" s="1"/>
       <c r="BF312" s="1"/>
     </row>
-    <row r="313" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -19446,7 +19446,7 @@
       <c r="BE313" s="1"/>
       <c r="BF313" s="1"/>
     </row>
-    <row r="314" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -19506,7 +19506,7 @@
       <c r="BE314" s="1"/>
       <c r="BF314" s="1"/>
     </row>
-    <row r="315" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -19566,7 +19566,7 @@
       <c r="BE315" s="1"/>
       <c r="BF315" s="1"/>
     </row>
-    <row r="316" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -19626,7 +19626,7 @@
       <c r="BE316" s="1"/>
       <c r="BF316" s="1"/>
     </row>
-    <row r="317" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -19686,7 +19686,7 @@
       <c r="BE317" s="1"/>
       <c r="BF317" s="1"/>
     </row>
-    <row r="318" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -19746,7 +19746,7 @@
       <c r="BE318" s="1"/>
       <c r="BF318" s="1"/>
     </row>
-    <row r="319" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -19806,7 +19806,7 @@
       <c r="BE319" s="1"/>
       <c r="BF319" s="1"/>
     </row>
-    <row r="320" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -19866,7 +19866,7 @@
       <c r="BE320" s="1"/>
       <c r="BF320" s="1"/>
     </row>
-    <row r="321" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -19926,7 +19926,7 @@
       <c r="BE321" s="1"/>
       <c r="BF321" s="1"/>
     </row>
-    <row r="322" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -19986,7 +19986,7 @@
       <c r="BE322" s="1"/>
       <c r="BF322" s="1"/>
     </row>
-    <row r="323" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -20046,7 +20046,7 @@
       <c r="BE323" s="1"/>
       <c r="BF323" s="1"/>
     </row>
-    <row r="324" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -20106,7 +20106,7 @@
       <c r="BE324" s="1"/>
       <c r="BF324" s="1"/>
     </row>
-    <row r="325" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -20166,7 +20166,7 @@
       <c r="BE325" s="1"/>
       <c r="BF325" s="1"/>
     </row>
-    <row r="326" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -20226,7 +20226,7 @@
       <c r="BE326" s="1"/>
       <c r="BF326" s="1"/>
     </row>
-    <row r="327" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -20286,7 +20286,7 @@
       <c r="BE327" s="1"/>
       <c r="BF327" s="1"/>
     </row>
-    <row r="328" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -20346,7 +20346,7 @@
       <c r="BE328" s="1"/>
       <c r="BF328" s="1"/>
     </row>
-    <row r="329" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -20406,7 +20406,7 @@
       <c r="BE329" s="1"/>
       <c r="BF329" s="1"/>
     </row>
-    <row r="330" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -20466,7 +20466,7 @@
       <c r="BE330" s="1"/>
       <c r="BF330" s="1"/>
     </row>
-    <row r="331" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -20526,7 +20526,7 @@
       <c r="BE331" s="1"/>
       <c r="BF331" s="1"/>
     </row>
-    <row r="332" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -20586,7 +20586,7 @@
       <c r="BE332" s="1"/>
       <c r="BF332" s="1"/>
     </row>
-    <row r="333" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -20646,7 +20646,7 @@
       <c r="BE333" s="1"/>
       <c r="BF333" s="1"/>
     </row>
-    <row r="334" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -20706,7 +20706,7 @@
       <c r="BE334" s="1"/>
       <c r="BF334" s="1"/>
     </row>
-    <row r="335" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -20766,7 +20766,7 @@
       <c r="BE335" s="1"/>
       <c r="BF335" s="1"/>
     </row>
-    <row r="336" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -20826,7 +20826,7 @@
       <c r="BE336" s="1"/>
       <c r="BF336" s="1"/>
     </row>
-    <row r="337" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -20886,7 +20886,7 @@
       <c r="BE337" s="1"/>
       <c r="BF337" s="1"/>
     </row>
-    <row r="338" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -20946,7 +20946,7 @@
       <c r="BE338" s="1"/>
       <c r="BF338" s="1"/>
     </row>
-    <row r="339" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -21006,7 +21006,7 @@
       <c r="BE339" s="1"/>
       <c r="BF339" s="1"/>
     </row>
-    <row r="340" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -21066,7 +21066,7 @@
       <c r="BE340" s="1"/>
       <c r="BF340" s="1"/>
     </row>
-    <row r="341" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -21126,7 +21126,7 @@
       <c r="BE341" s="1"/>
       <c r="BF341" s="1"/>
     </row>
-    <row r="342" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -21186,7 +21186,7 @@
       <c r="BE342" s="1"/>
       <c r="BF342" s="1"/>
     </row>
-    <row r="343" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -21246,7 +21246,7 @@
       <c r="BE343" s="1"/>
       <c r="BF343" s="1"/>
     </row>
-    <row r="344" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -21306,7 +21306,7 @@
       <c r="BE344" s="1"/>
       <c r="BF344" s="1"/>
     </row>
-    <row r="345" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -21366,7 +21366,7 @@
       <c r="BE345" s="1"/>
       <c r="BF345" s="1"/>
     </row>
-    <row r="346" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -21426,7 +21426,7 @@
       <c r="BE346" s="1"/>
       <c r="BF346" s="1"/>
     </row>
-    <row r="347" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -21486,7 +21486,7 @@
       <c r="BE347" s="1"/>
       <c r="BF347" s="1"/>
     </row>
-    <row r="348" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -21546,7 +21546,7 @@
       <c r="BE348" s="1"/>
       <c r="BF348" s="1"/>
     </row>
-    <row r="349" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -21606,7 +21606,7 @@
       <c r="BE349" s="1"/>
       <c r="BF349" s="1"/>
     </row>
-    <row r="350" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -21666,7 +21666,7 @@
       <c r="BE350" s="1"/>
       <c r="BF350" s="1"/>
     </row>
-    <row r="351" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -21726,7 +21726,7 @@
       <c r="BE351" s="1"/>
       <c r="BF351" s="1"/>
     </row>
-    <row r="352" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -21786,7 +21786,7 @@
       <c r="BE352" s="1"/>
       <c r="BF352" s="1"/>
     </row>
-    <row r="353" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -21846,7 +21846,7 @@
       <c r="BE353" s="1"/>
       <c r="BF353" s="1"/>
     </row>
-    <row r="354" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -21906,7 +21906,7 @@
       <c r="BE354" s="1"/>
       <c r="BF354" s="1"/>
     </row>
-    <row r="355" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -21966,7 +21966,7 @@
       <c r="BE355" s="1"/>
       <c r="BF355" s="1"/>
     </row>
-    <row r="356" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -22026,7 +22026,7 @@
       <c r="BE356" s="1"/>
       <c r="BF356" s="1"/>
     </row>
-    <row r="357" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -22086,7 +22086,7 @@
       <c r="BE357" s="1"/>
       <c r="BF357" s="1"/>
     </row>
-    <row r="358" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -22146,7 +22146,7 @@
       <c r="BE358" s="1"/>
       <c r="BF358" s="1"/>
     </row>
-    <row r="359" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -22206,7 +22206,7 @@
       <c r="BE359" s="1"/>
       <c r="BF359" s="1"/>
     </row>
-    <row r="360" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -22266,7 +22266,7 @@
       <c r="BE360" s="1"/>
       <c r="BF360" s="1"/>
     </row>
-    <row r="361" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -22326,7 +22326,7 @@
       <c r="BE361" s="1"/>
       <c r="BF361" s="1"/>
     </row>
-    <row r="362" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -22386,7 +22386,7 @@
       <c r="BE362" s="1"/>
       <c r="BF362" s="1"/>
     </row>
-    <row r="363" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -22446,7 +22446,7 @@
       <c r="BE363" s="1"/>
       <c r="BF363" s="1"/>
     </row>
-    <row r="364" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -22506,7 +22506,7 @@
       <c r="BE364" s="1"/>
       <c r="BF364" s="1"/>
     </row>
-    <row r="365" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -22566,7 +22566,7 @@
       <c r="BE365" s="1"/>
       <c r="BF365" s="1"/>
     </row>
-    <row r="366" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -22626,7 +22626,7 @@
       <c r="BE366" s="1"/>
       <c r="BF366" s="1"/>
     </row>
-    <row r="367" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -22686,7 +22686,7 @@
       <c r="BE367" s="1"/>
       <c r="BF367" s="1"/>
     </row>
-    <row r="368" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -22746,7 +22746,7 @@
       <c r="BE368" s="1"/>
       <c r="BF368" s="1"/>
     </row>
-    <row r="369" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -22806,7 +22806,7 @@
       <c r="BE369" s="1"/>
       <c r="BF369" s="1"/>
     </row>
-    <row r="370" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -22866,7 +22866,7 @@
       <c r="BE370" s="1"/>
       <c r="BF370" s="1"/>
     </row>
-    <row r="371" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -22926,7 +22926,7 @@
       <c r="BE371" s="1"/>
       <c r="BF371" s="1"/>
     </row>
-    <row r="372" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -22986,7 +22986,7 @@
       <c r="BE372" s="1"/>
       <c r="BF372" s="1"/>
     </row>
-    <row r="373" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -23046,7 +23046,7 @@
       <c r="BE373" s="1"/>
       <c r="BF373" s="1"/>
     </row>
-    <row r="374" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -23106,7 +23106,7 @@
       <c r="BE374" s="1"/>
       <c r="BF374" s="1"/>
     </row>
-    <row r="375" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -23166,7 +23166,7 @@
       <c r="BE375" s="1"/>
       <c r="BF375" s="1"/>
     </row>
-    <row r="376" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -23226,7 +23226,7 @@
       <c r="BE376" s="1"/>
       <c r="BF376" s="1"/>
     </row>
-    <row r="377" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -23286,7 +23286,7 @@
       <c r="BE377" s="1"/>
       <c r="BF377" s="1"/>
     </row>
-    <row r="378" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -23346,7 +23346,7 @@
       <c r="BE378" s="1"/>
       <c r="BF378" s="1"/>
     </row>
-    <row r="379" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -23406,7 +23406,7 @@
       <c r="BE379" s="1"/>
       <c r="BF379" s="1"/>
     </row>
-    <row r="380" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -23466,7 +23466,7 @@
       <c r="BE380" s="1"/>
       <c r="BF380" s="1"/>
     </row>
-    <row r="381" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -23526,7 +23526,7 @@
       <c r="BE381" s="1"/>
       <c r="BF381" s="1"/>
     </row>
-    <row r="382" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -23586,7 +23586,7 @@
       <c r="BE382" s="1"/>
       <c r="BF382" s="1"/>
     </row>
-    <row r="383" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -23646,7 +23646,7 @@
       <c r="BE383" s="1"/>
       <c r="BF383" s="1"/>
     </row>
-    <row r="384" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -23706,7 +23706,7 @@
       <c r="BE384" s="1"/>
       <c r="BF384" s="1"/>
     </row>
-    <row r="385" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -23766,7 +23766,7 @@
       <c r="BE385" s="1"/>
       <c r="BF385" s="1"/>
     </row>
-    <row r="386" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -23826,7 +23826,7 @@
       <c r="BE386" s="1"/>
       <c r="BF386" s="1"/>
     </row>
-    <row r="387" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -23886,7 +23886,7 @@
       <c r="BE387" s="1"/>
       <c r="BF387" s="1"/>
     </row>
-    <row r="388" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -23946,7 +23946,7 @@
       <c r="BE388" s="1"/>
       <c r="BF388" s="1"/>
     </row>
-    <row r="389" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -24006,7 +24006,7 @@
       <c r="BE389" s="1"/>
       <c r="BF389" s="1"/>
     </row>
-    <row r="390" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -24066,7 +24066,7 @@
       <c r="BE390" s="1"/>
       <c r="BF390" s="1"/>
     </row>
-    <row r="391" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -24126,7 +24126,7 @@
       <c r="BE391" s="1"/>
       <c r="BF391" s="1"/>
     </row>
-    <row r="392" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -24186,7 +24186,7 @@
       <c r="BE392" s="1"/>
       <c r="BF392" s="1"/>
     </row>
-    <row r="393" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -24246,7 +24246,7 @@
       <c r="BE393" s="1"/>
       <c r="BF393" s="1"/>
     </row>
-    <row r="394" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -24306,7 +24306,7 @@
       <c r="BE394" s="1"/>
       <c r="BF394" s="1"/>
     </row>
-    <row r="395" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -24366,7 +24366,7 @@
       <c r="BE395" s="1"/>
       <c r="BF395" s="1"/>
     </row>
-    <row r="396" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -24426,7 +24426,7 @@
       <c r="BE396" s="1"/>
       <c r="BF396" s="1"/>
     </row>
-    <row r="397" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -24486,7 +24486,7 @@
       <c r="BE397" s="1"/>
       <c r="BF397" s="1"/>
     </row>
-    <row r="398" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -24546,7 +24546,7 @@
       <c r="BE398" s="1"/>
       <c r="BF398" s="1"/>
     </row>
-    <row r="399" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -24606,7 +24606,7 @@
       <c r="BE399" s="1"/>
       <c r="BF399" s="1"/>
     </row>
-    <row r="400" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -24666,7 +24666,7 @@
       <c r="BE400" s="1"/>
       <c r="BF400" s="1"/>
     </row>
-    <row r="401" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -24726,7 +24726,7 @@
       <c r="BE401" s="1"/>
       <c r="BF401" s="1"/>
     </row>
-    <row r="402" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -24786,7 +24786,7 @@
       <c r="BE402" s="1"/>
       <c r="BF402" s="1"/>
     </row>
-    <row r="403" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -24846,7 +24846,7 @@
       <c r="BE403" s="1"/>
       <c r="BF403" s="1"/>
     </row>
-    <row r="404" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -24906,7 +24906,7 @@
       <c r="BE404" s="1"/>
       <c r="BF404" s="1"/>
     </row>
-    <row r="405" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -24966,7 +24966,7 @@
       <c r="BE405" s="1"/>
       <c r="BF405" s="1"/>
     </row>
-    <row r="406" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -25026,7 +25026,7 @@
       <c r="BE406" s="1"/>
       <c r="BF406" s="1"/>
     </row>
-    <row r="407" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -25086,7 +25086,7 @@
       <c r="BE407" s="1"/>
       <c r="BF407" s="1"/>
     </row>
-    <row r="408" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -25146,7 +25146,7 @@
       <c r="BE408" s="1"/>
       <c r="BF408" s="1"/>
     </row>
-    <row r="409" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -25206,7 +25206,7 @@
       <c r="BE409" s="1"/>
       <c r="BF409" s="1"/>
     </row>
-    <row r="410" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -25266,7 +25266,7 @@
       <c r="BE410" s="1"/>
       <c r="BF410" s="1"/>
     </row>
-    <row r="411" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -25326,7 +25326,7 @@
       <c r="BE411" s="1"/>
       <c r="BF411" s="1"/>
     </row>
-    <row r="412" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -25386,7 +25386,7 @@
       <c r="BE412" s="1"/>
       <c r="BF412" s="1"/>
     </row>
-    <row r="413" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -25446,7 +25446,7 @@
       <c r="BE413" s="1"/>
       <c r="BF413" s="1"/>
     </row>
-    <row r="414" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -25506,7 +25506,7 @@
       <c r="BE414" s="1"/>
       <c r="BF414" s="1"/>
     </row>
-    <row r="415" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -25566,7 +25566,7 @@
       <c r="BE415" s="1"/>
       <c r="BF415" s="1"/>
     </row>
-    <row r="416" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -25626,7 +25626,7 @@
       <c r="BE416" s="1"/>
       <c r="BF416" s="1"/>
     </row>
-    <row r="417" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -25686,7 +25686,7 @@
       <c r="BE417" s="1"/>
       <c r="BF417" s="1"/>
     </row>
-    <row r="418" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -25746,7 +25746,7 @@
       <c r="BE418" s="1"/>
       <c r="BF418" s="1"/>
     </row>
-    <row r="419" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -25806,7 +25806,7 @@
       <c r="BE419" s="1"/>
       <c r="BF419" s="1"/>
     </row>
-    <row r="420" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -25866,7 +25866,7 @@
       <c r="BE420" s="1"/>
       <c r="BF420" s="1"/>
     </row>
-    <row r="421" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -25926,7 +25926,7 @@
       <c r="BE421" s="1"/>
       <c r="BF421" s="1"/>
     </row>
-    <row r="422" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -25986,7 +25986,7 @@
       <c r="BE422" s="1"/>
       <c r="BF422" s="1"/>
     </row>
-    <row r="423" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -26046,7 +26046,7 @@
       <c r="BE423" s="1"/>
       <c r="BF423" s="1"/>
     </row>
-    <row r="424" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -26106,7 +26106,7 @@
       <c r="BE424" s="1"/>
       <c r="BF424" s="1"/>
     </row>
-    <row r="425" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -26166,7 +26166,7 @@
       <c r="BE425" s="1"/>
       <c r="BF425" s="1"/>
     </row>
-    <row r="426" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -26226,7 +26226,7 @@
       <c r="BE426" s="1"/>
       <c r="BF426" s="1"/>
     </row>
-    <row r="427" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -26286,7 +26286,7 @@
       <c r="BE427" s="1"/>
       <c r="BF427" s="1"/>
     </row>
-    <row r="428" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -26346,7 +26346,7 @@
       <c r="BE428" s="1"/>
       <c r="BF428" s="1"/>
     </row>
-    <row r="429" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -26406,7 +26406,7 @@
       <c r="BE429" s="1"/>
       <c r="BF429" s="1"/>
     </row>
-    <row r="430" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -26466,7 +26466,7 @@
       <c r="BE430" s="1"/>
       <c r="BF430" s="1"/>
     </row>
-    <row r="431" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -26526,7 +26526,7 @@
       <c r="BE431" s="1"/>
       <c r="BF431" s="1"/>
     </row>
-    <row r="432" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -26586,7 +26586,7 @@
       <c r="BE432" s="1"/>
       <c r="BF432" s="1"/>
     </row>
-    <row r="433" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -26646,7 +26646,7 @@
       <c r="BE433" s="1"/>
       <c r="BF433" s="1"/>
     </row>
-    <row r="434" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -26706,7 +26706,7 @@
       <c r="BE434" s="1"/>
       <c r="BF434" s="1"/>
     </row>
-    <row r="435" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -26766,7 +26766,7 @@
       <c r="BE435" s="1"/>
       <c r="BF435" s="1"/>
     </row>
-    <row r="436" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -26826,7 +26826,7 @@
       <c r="BE436" s="1"/>
       <c r="BF436" s="1"/>
     </row>
-    <row r="437" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -26886,7 +26886,7 @@
       <c r="BE437" s="1"/>
       <c r="BF437" s="1"/>
     </row>
-    <row r="438" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -26946,7 +26946,7 @@
       <c r="BE438" s="1"/>
       <c r="BF438" s="1"/>
     </row>
-    <row r="439" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -27006,7 +27006,7 @@
       <c r="BE439" s="1"/>
       <c r="BF439" s="1"/>
     </row>
-    <row r="440" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -27066,7 +27066,7 @@
       <c r="BE440" s="1"/>
       <c r="BF440" s="1"/>
     </row>
-    <row r="441" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -27126,7 +27126,7 @@
       <c r="BE441" s="1"/>
       <c r="BF441" s="1"/>
     </row>
-    <row r="442" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -27186,7 +27186,7 @@
       <c r="BE442" s="1"/>
       <c r="BF442" s="1"/>
     </row>
-    <row r="443" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -27246,7 +27246,7 @@
       <c r="BE443" s="1"/>
       <c r="BF443" s="1"/>
     </row>
-    <row r="444" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -27306,7 +27306,7 @@
       <c r="BE444" s="1"/>
       <c r="BF444" s="1"/>
     </row>
-    <row r="445" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -27366,7 +27366,7 @@
       <c r="BE445" s="1"/>
       <c r="BF445" s="1"/>
     </row>
-    <row r="446" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -27426,7 +27426,7 @@
       <c r="BE446" s="1"/>
       <c r="BF446" s="1"/>
     </row>
-    <row r="447" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -27486,7 +27486,7 @@
       <c r="BE447" s="1"/>
       <c r="BF447" s="1"/>
     </row>
-    <row r="448" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -27546,7 +27546,7 @@
       <c r="BE448" s="1"/>
       <c r="BF448" s="1"/>
     </row>
-    <row r="449" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -27606,7 +27606,7 @@
       <c r="BE449" s="1"/>
       <c r="BF449" s="1"/>
     </row>
-    <row r="450" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -27666,7 +27666,7 @@
       <c r="BE450" s="1"/>
       <c r="BF450" s="1"/>
     </row>
-    <row r="451" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -27726,7 +27726,7 @@
       <c r="BE451" s="1"/>
       <c r="BF451" s="1"/>
     </row>
-    <row r="452" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -27786,7 +27786,7 @@
       <c r="BE452" s="1"/>
       <c r="BF452" s="1"/>
     </row>
-    <row r="453" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -27846,7 +27846,7 @@
       <c r="BE453" s="1"/>
       <c r="BF453" s="1"/>
     </row>
-    <row r="454" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -27906,7 +27906,7 @@
       <c r="BE454" s="1"/>
       <c r="BF454" s="1"/>
     </row>
-    <row r="455" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -27966,7 +27966,7 @@
       <c r="BE455" s="1"/>
       <c r="BF455" s="1"/>
     </row>
-    <row r="456" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -28026,7 +28026,7 @@
       <c r="BE456" s="1"/>
       <c r="BF456" s="1"/>
     </row>
-    <row r="457" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -28086,7 +28086,7 @@
       <c r="BE457" s="1"/>
       <c r="BF457" s="1"/>
     </row>
-    <row r="458" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -28146,7 +28146,7 @@
       <c r="BE458" s="1"/>
       <c r="BF458" s="1"/>
     </row>
-    <row r="459" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -28206,7 +28206,7 @@
       <c r="BE459" s="1"/>
       <c r="BF459" s="1"/>
     </row>
-    <row r="460" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -28266,7 +28266,7 @@
       <c r="BE460" s="1"/>
       <c r="BF460" s="1"/>
     </row>
-    <row r="461" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -28326,7 +28326,7 @@
       <c r="BE461" s="1"/>
       <c r="BF461" s="1"/>
     </row>
-    <row r="462" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -28386,7 +28386,7 @@
       <c r="BE462" s="1"/>
       <c r="BF462" s="1"/>
     </row>
-    <row r="463" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -28446,7 +28446,7 @@
       <c r="BE463" s="1"/>
       <c r="BF463" s="1"/>
     </row>
-    <row r="464" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -28506,7 +28506,7 @@
       <c r="BE464" s="1"/>
       <c r="BF464" s="1"/>
     </row>
-    <row r="465" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -28566,7 +28566,7 @@
       <c r="BE465" s="1"/>
       <c r="BF465" s="1"/>
     </row>
-    <row r="466" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -28626,7 +28626,7 @@
       <c r="BE466" s="1"/>
       <c r="BF466" s="1"/>
     </row>
-    <row r="467" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -28686,7 +28686,7 @@
       <c r="BE467" s="1"/>
       <c r="BF467" s="1"/>
     </row>
-    <row r="468" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -28746,7 +28746,7 @@
       <c r="BE468" s="1"/>
       <c r="BF468" s="1"/>
     </row>
-    <row r="469" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -28806,7 +28806,7 @@
       <c r="BE469" s="1"/>
       <c r="BF469" s="1"/>
     </row>
-    <row r="470" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -28866,7 +28866,7 @@
       <c r="BE470" s="1"/>
       <c r="BF470" s="1"/>
     </row>
-    <row r="471" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -28926,7 +28926,7 @@
       <c r="BE471" s="1"/>
       <c r="BF471" s="1"/>
     </row>
-    <row r="472" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -28986,7 +28986,7 @@
       <c r="BE472" s="1"/>
       <c r="BF472" s="1"/>
     </row>
-    <row r="473" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -29046,7 +29046,7 @@
       <c r="BE473" s="1"/>
       <c r="BF473" s="1"/>
     </row>
-    <row r="474" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -29106,7 +29106,7 @@
       <c r="BE474" s="1"/>
       <c r="BF474" s="1"/>
     </row>
-    <row r="475" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -29166,7 +29166,7 @@
       <c r="BE475" s="1"/>
       <c r="BF475" s="1"/>
     </row>
-    <row r="476" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -29226,7 +29226,7 @@
       <c r="BE476" s="1"/>
       <c r="BF476" s="1"/>
     </row>
-    <row r="477" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -29286,7 +29286,7 @@
       <c r="BE477" s="1"/>
       <c r="BF477" s="1"/>
     </row>
-    <row r="478" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -29346,7 +29346,7 @@
       <c r="BE478" s="1"/>
       <c r="BF478" s="1"/>
     </row>
-    <row r="479" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -29406,7 +29406,7 @@
       <c r="BE479" s="1"/>
       <c r="BF479" s="1"/>
     </row>
-    <row r="480" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -29466,7 +29466,7 @@
       <c r="BE480" s="1"/>
       <c r="BF480" s="1"/>
     </row>
-    <row r="481" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -29526,7 +29526,7 @@
       <c r="BE481" s="1"/>
       <c r="BF481" s="1"/>
     </row>
-    <row r="482" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -29586,7 +29586,7 @@
       <c r="BE482" s="1"/>
       <c r="BF482" s="1"/>
     </row>
-    <row r="483" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -29646,7 +29646,7 @@
       <c r="BE483" s="1"/>
       <c r="BF483" s="1"/>
     </row>
-    <row r="484" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -29706,7 +29706,7 @@
       <c r="BE484" s="1"/>
       <c r="BF484" s="1"/>
     </row>
-    <row r="485" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -29766,7 +29766,7 @@
       <c r="BE485" s="1"/>
       <c r="BF485" s="1"/>
     </row>
-    <row r="486" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -29826,7 +29826,7 @@
       <c r="BE486" s="1"/>
       <c r="BF486" s="1"/>
     </row>
-    <row r="487" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -29886,7 +29886,7 @@
       <c r="BE487" s="1"/>
       <c r="BF487" s="1"/>
     </row>
-    <row r="488" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -29946,7 +29946,7 @@
       <c r="BE488" s="1"/>
       <c r="BF488" s="1"/>
     </row>
-    <row r="489" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -30006,7 +30006,7 @@
       <c r="BE489" s="1"/>
       <c r="BF489" s="1"/>
     </row>
-    <row r="490" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -30066,7 +30066,7 @@
       <c r="BE490" s="1"/>
       <c r="BF490" s="1"/>
     </row>
-    <row r="491" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -30126,7 +30126,7 @@
       <c r="BE491" s="1"/>
       <c r="BF491" s="1"/>
     </row>
-    <row r="492" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -30186,7 +30186,7 @@
       <c r="BE492" s="1"/>
       <c r="BF492" s="1"/>
     </row>
-    <row r="493" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -30246,7 +30246,7 @@
       <c r="BE493" s="1"/>
       <c r="BF493" s="1"/>
     </row>
-    <row r="494" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -30306,7 +30306,7 @@
       <c r="BE494" s="1"/>
       <c r="BF494" s="1"/>
     </row>
-    <row r="495" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -30366,7 +30366,7 @@
       <c r="BE495" s="1"/>
       <c r="BF495" s="1"/>
     </row>
-    <row r="496" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -30426,7 +30426,7 @@
       <c r="BE496" s="1"/>
       <c r="BF496" s="1"/>
     </row>
-    <row r="497" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -30486,7 +30486,7 @@
       <c r="BE497" s="1"/>
       <c r="BF497" s="1"/>
     </row>
-    <row r="498" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -30546,7 +30546,7 @@
       <c r="BE498" s="1"/>
       <c r="BF498" s="1"/>
     </row>
-    <row r="499" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -30606,7 +30606,7 @@
       <c r="BE499" s="1"/>
       <c r="BF499" s="1"/>
     </row>
-    <row r="500" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -30666,7 +30666,7 @@
       <c r="BE500" s="1"/>
       <c r="BF500" s="1"/>
     </row>
-    <row r="501" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -30726,7 +30726,7 @@
       <c r="BE501" s="1"/>
       <c r="BF501" s="1"/>
     </row>
-    <row r="502" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -30786,7 +30786,7 @@
       <c r="BE502" s="1"/>
       <c r="BF502" s="1"/>
     </row>
-    <row r="503" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -30846,7 +30846,7 @@
       <c r="BE503" s="1"/>
       <c r="BF503" s="1"/>
     </row>
-    <row r="504" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -30906,7 +30906,7 @@
       <c r="BE504" s="1"/>
       <c r="BF504" s="1"/>
     </row>
-    <row r="505" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -30966,7 +30966,7 @@
       <c r="BE505" s="1"/>
       <c r="BF505" s="1"/>
     </row>
-    <row r="506" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -31026,7 +31026,7 @@
       <c r="BE506" s="1"/>
       <c r="BF506" s="1"/>
     </row>
-    <row r="507" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -31086,7 +31086,7 @@
       <c r="BE507" s="1"/>
       <c r="BF507" s="1"/>
     </row>
-    <row r="508" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -31146,7 +31146,7 @@
       <c r="BE508" s="1"/>
       <c r="BF508" s="1"/>
     </row>
-    <row r="509" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -31206,7 +31206,7 @@
       <c r="BE509" s="1"/>
       <c r="BF509" s="1"/>
     </row>
-    <row r="510" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -31266,7 +31266,7 @@
       <c r="BE510" s="1"/>
       <c r="BF510" s="1"/>
     </row>
-    <row r="511" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -31326,7 +31326,7 @@
       <c r="BE511" s="1"/>
       <c r="BF511" s="1"/>
     </row>
-    <row r="512" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -31386,7 +31386,7 @@
       <c r="BE512" s="1"/>
       <c r="BF512" s="1"/>
     </row>
-    <row r="513" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -31446,7 +31446,7 @@
       <c r="BE513" s="1"/>
       <c r="BF513" s="1"/>
     </row>
-    <row r="514" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -31506,7 +31506,7 @@
       <c r="BE514" s="1"/>
       <c r="BF514" s="1"/>
     </row>
-    <row r="515" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -31566,7 +31566,7 @@
       <c r="BE515" s="1"/>
       <c r="BF515" s="1"/>
     </row>
-    <row r="516" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -31626,7 +31626,7 @@
       <c r="BE516" s="1"/>
       <c r="BF516" s="1"/>
     </row>
-    <row r="517" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -31686,7 +31686,7 @@
       <c r="BE517" s="1"/>
       <c r="BF517" s="1"/>
     </row>
-    <row r="518" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -31746,7 +31746,7 @@
       <c r="BE518" s="1"/>
       <c r="BF518" s="1"/>
     </row>
-    <row r="519" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -31806,7 +31806,7 @@
       <c r="BE519" s="1"/>
       <c r="BF519" s="1"/>
     </row>
-    <row r="520" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -31866,7 +31866,7 @@
       <c r="BE520" s="1"/>
       <c r="BF520" s="1"/>
     </row>
-    <row r="521" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -31926,7 +31926,7 @@
       <c r="BE521" s="1"/>
       <c r="BF521" s="1"/>
     </row>
-    <row r="522" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -31986,7 +31986,7 @@
       <c r="BE522" s="1"/>
       <c r="BF522" s="1"/>
     </row>
-    <row r="523" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -32046,7 +32046,7 @@
       <c r="BE523" s="1"/>
       <c r="BF523" s="1"/>
     </row>
-    <row r="524" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -32106,7 +32106,7 @@
       <c r="BE524" s="1"/>
       <c r="BF524" s="1"/>
     </row>
-    <row r="525" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -32166,7 +32166,7 @@
       <c r="BE525" s="1"/>
       <c r="BF525" s="1"/>
     </row>
-    <row r="526" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -32226,7 +32226,7 @@
       <c r="BE526" s="1"/>
       <c r="BF526" s="1"/>
     </row>
-    <row r="527" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -32286,7 +32286,7 @@
       <c r="BE527" s="1"/>
       <c r="BF527" s="1"/>
     </row>
-    <row r="528" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -32346,7 +32346,7 @@
       <c r="BE528" s="1"/>
       <c r="BF528" s="1"/>
     </row>
-    <row r="529" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -32406,7 +32406,7 @@
       <c r="BE529" s="1"/>
       <c r="BF529" s="1"/>
     </row>
-    <row r="530" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -32466,7 +32466,7 @@
       <c r="BE530" s="1"/>
       <c r="BF530" s="1"/>
     </row>
-    <row r="531" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -32526,7 +32526,7 @@
       <c r="BE531" s="1"/>
       <c r="BF531" s="1"/>
     </row>
-    <row r="532" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -32586,7 +32586,7 @@
       <c r="BE532" s="1"/>
       <c r="BF532" s="1"/>
     </row>
-    <row r="533" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -32646,7 +32646,7 @@
       <c r="BE533" s="1"/>
       <c r="BF533" s="1"/>
     </row>
-    <row r="534" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -32706,7 +32706,7 @@
       <c r="BE534" s="1"/>
       <c r="BF534" s="1"/>
     </row>
-    <row r="535" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -32766,7 +32766,7 @@
       <c r="BE535" s="1"/>
       <c r="BF535" s="1"/>
     </row>
-    <row r="536" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -32826,7 +32826,7 @@
       <c r="BE536" s="1"/>
       <c r="BF536" s="1"/>
     </row>
-    <row r="537" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -32886,7 +32886,7 @@
       <c r="BE537" s="1"/>
       <c r="BF537" s="1"/>
     </row>
-    <row r="538" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -32946,7 +32946,7 @@
       <c r="BE538" s="1"/>
       <c r="BF538" s="1"/>
     </row>
-    <row r="539" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -33006,7 +33006,7 @@
       <c r="BE539" s="1"/>
       <c r="BF539" s="1"/>
     </row>
-    <row r="540" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -33066,7 +33066,7 @@
       <c r="BE540" s="1"/>
       <c r="BF540" s="1"/>
     </row>
-    <row r="541" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -33126,7 +33126,7 @@
       <c r="BE541" s="1"/>
       <c r="BF541" s="1"/>
     </row>
-    <row r="542" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -33186,7 +33186,7 @@
       <c r="BE542" s="1"/>
       <c r="BF542" s="1"/>
     </row>
-    <row r="543" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -33246,7 +33246,7 @@
       <c r="BE543" s="1"/>
       <c r="BF543" s="1"/>
     </row>
-    <row r="544" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -33306,7 +33306,7 @@
       <c r="BE544" s="1"/>
       <c r="BF544" s="1"/>
     </row>
-    <row r="545" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -33366,7 +33366,7 @@
       <c r="BE545" s="1"/>
       <c r="BF545" s="1"/>
     </row>
-    <row r="546" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -33426,7 +33426,7 @@
       <c r="BE546" s="1"/>
       <c r="BF546" s="1"/>
     </row>
-    <row r="547" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -33486,7 +33486,7 @@
       <c r="BE547" s="1"/>
       <c r="BF547" s="1"/>
     </row>
-    <row r="548" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -33546,7 +33546,7 @@
       <c r="BE548" s="1"/>
       <c r="BF548" s="1"/>
     </row>
-    <row r="549" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -33606,7 +33606,7 @@
       <c r="BE549" s="1"/>
       <c r="BF549" s="1"/>
     </row>
-    <row r="550" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -33666,7 +33666,7 @@
       <c r="BE550" s="1"/>
       <c r="BF550" s="1"/>
     </row>
-    <row r="551" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -33726,7 +33726,7 @@
       <c r="BE551" s="1"/>
       <c r="BF551" s="1"/>
     </row>
-    <row r="552" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -33786,7 +33786,7 @@
       <c r="BE552" s="1"/>
       <c r="BF552" s="1"/>
     </row>
-    <row r="553" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -33846,7 +33846,7 @@
       <c r="BE553" s="1"/>
       <c r="BF553" s="1"/>
     </row>
-    <row r="554" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -33906,7 +33906,7 @@
       <c r="BE554" s="1"/>
       <c r="BF554" s="1"/>
     </row>
-    <row r="555" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -33966,7 +33966,7 @@
       <c r="BE555" s="1"/>
       <c r="BF555" s="1"/>
     </row>
-    <row r="556" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -34026,7 +34026,7 @@
       <c r="BE556" s="1"/>
       <c r="BF556" s="1"/>
     </row>
-    <row r="557" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -34086,7 +34086,7 @@
       <c r="BE557" s="1"/>
       <c r="BF557" s="1"/>
     </row>
-    <row r="558" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -34146,7 +34146,7 @@
       <c r="BE558" s="1"/>
       <c r="BF558" s="1"/>
     </row>
-    <row r="559" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -34206,7 +34206,7 @@
       <c r="BE559" s="1"/>
       <c r="BF559" s="1"/>
     </row>
-    <row r="560" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -34266,7 +34266,7 @@
       <c r="BE560" s="1"/>
       <c r="BF560" s="1"/>
     </row>
-    <row r="561" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -34326,7 +34326,7 @@
       <c r="BE561" s="1"/>
       <c r="BF561" s="1"/>
     </row>
-    <row r="562" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -34386,7 +34386,7 @@
       <c r="BE562" s="1"/>
       <c r="BF562" s="1"/>
     </row>
-    <row r="563" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -34446,7 +34446,7 @@
       <c r="BE563" s="1"/>
       <c r="BF563" s="1"/>
     </row>
-    <row r="564" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -34506,7 +34506,7 @@
       <c r="BE564" s="1"/>
       <c r="BF564" s="1"/>
     </row>
-    <row r="565" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -34566,7 +34566,7 @@
       <c r="BE565" s="1"/>
       <c r="BF565" s="1"/>
     </row>
-    <row r="566" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -34626,7 +34626,7 @@
       <c r="BE566" s="1"/>
       <c r="BF566" s="1"/>
     </row>
-    <row r="567" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -34686,7 +34686,7 @@
       <c r="BE567" s="1"/>
       <c r="BF567" s="1"/>
     </row>
-    <row r="568" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -34746,7 +34746,7 @@
       <c r="BE568" s="1"/>
       <c r="BF568" s="1"/>
     </row>
-    <row r="569" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -34806,7 +34806,7 @@
       <c r="BE569" s="1"/>
       <c r="BF569" s="1"/>
     </row>
-    <row r="570" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -34866,7 +34866,7 @@
       <c r="BE570" s="1"/>
       <c r="BF570" s="1"/>
     </row>
-    <row r="571" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -34926,7 +34926,7 @@
       <c r="BE571" s="1"/>
       <c r="BF571" s="1"/>
     </row>
-    <row r="572" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -34986,7 +34986,7 @@
       <c r="BE572" s="1"/>
       <c r="BF572" s="1"/>
     </row>
-    <row r="573" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -35046,7 +35046,7 @@
       <c r="BE573" s="1"/>
       <c r="BF573" s="1"/>
     </row>
-    <row r="574" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -35106,7 +35106,7 @@
       <c r="BE574" s="1"/>
       <c r="BF574" s="1"/>
     </row>
-    <row r="575" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -35166,7 +35166,7 @@
       <c r="BE575" s="1"/>
       <c r="BF575" s="1"/>
     </row>
-    <row r="576" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -35226,7 +35226,7 @@
       <c r="BE576" s="1"/>
       <c r="BF576" s="1"/>
     </row>
-    <row r="577" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -35286,7 +35286,7 @@
       <c r="BE577" s="1"/>
       <c r="BF577" s="1"/>
     </row>
-    <row r="578" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -35346,7 +35346,7 @@
       <c r="BE578" s="1"/>
       <c r="BF578" s="1"/>
     </row>
-    <row r="579" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -35406,7 +35406,7 @@
       <c r="BE579" s="1"/>
       <c r="BF579" s="1"/>
     </row>
-    <row r="580" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -35466,7 +35466,7 @@
       <c r="BE580" s="1"/>
       <c r="BF580" s="1"/>
     </row>
-    <row r="581" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -35526,7 +35526,7 @@
       <c r="BE581" s="1"/>
       <c r="BF581" s="1"/>
     </row>
-    <row r="582" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -35586,7 +35586,7 @@
       <c r="BE582" s="1"/>
       <c r="BF582" s="1"/>
     </row>
-    <row r="583" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -35646,7 +35646,7 @@
       <c r="BE583" s="1"/>
       <c r="BF583" s="1"/>
     </row>
-    <row r="584" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -35706,7 +35706,7 @@
       <c r="BE584" s="1"/>
       <c r="BF584" s="1"/>
     </row>
-    <row r="585" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -35766,7 +35766,7 @@
       <c r="BE585" s="1"/>
       <c r="BF585" s="1"/>
     </row>
-    <row r="586" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -35826,7 +35826,7 @@
       <c r="BE586" s="1"/>
       <c r="BF586" s="1"/>
     </row>
-    <row r="587" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -35886,7 +35886,7 @@
       <c r="BE587" s="1"/>
       <c r="BF587" s="1"/>
     </row>
-    <row r="588" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -35946,7 +35946,7 @@
       <c r="BE588" s="1"/>
       <c r="BF588" s="1"/>
     </row>
-    <row r="589" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -36006,7 +36006,7 @@
       <c r="BE589" s="1"/>
       <c r="BF589" s="1"/>
     </row>
-    <row r="590" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -36066,7 +36066,7 @@
       <c r="BE590" s="1"/>
       <c r="BF590" s="1"/>
     </row>
-    <row r="591" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -36126,7 +36126,7 @@
       <c r="BE591" s="1"/>
       <c r="BF591" s="1"/>
     </row>
-    <row r="592" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -36186,7 +36186,7 @@
       <c r="BE592" s="1"/>
       <c r="BF592" s="1"/>
     </row>
-    <row r="593" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -36246,7 +36246,7 @@
       <c r="BE593" s="1"/>
       <c r="BF593" s="1"/>
     </row>
-    <row r="594" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -36306,7 +36306,7 @@
       <c r="BE594" s="1"/>
       <c r="BF594" s="1"/>
     </row>
-    <row r="595" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -36366,7 +36366,7 @@
       <c r="BE595" s="1"/>
       <c r="BF595" s="1"/>
     </row>
-    <row r="596" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -36426,7 +36426,7 @@
       <c r="BE596" s="1"/>
       <c r="BF596" s="1"/>
     </row>
-    <row r="597" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -36486,7 +36486,7 @@
       <c r="BE597" s="1"/>
       <c r="BF597" s="1"/>
     </row>
-    <row r="598" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -36546,7 +36546,7 @@
       <c r="BE598" s="1"/>
       <c r="BF598" s="1"/>
     </row>
-    <row r="599" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -36606,7 +36606,7 @@
       <c r="BE599" s="1"/>
       <c r="BF599" s="1"/>
     </row>
-    <row r="600" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -36666,7 +36666,7 @@
       <c r="BE600" s="1"/>
       <c r="BF600" s="1"/>
     </row>
-    <row r="601" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -36726,7 +36726,7 @@
       <c r="BE601" s="1"/>
       <c r="BF601" s="1"/>
     </row>
-    <row r="602" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -36786,7 +36786,7 @@
       <c r="BE602" s="1"/>
       <c r="BF602" s="1"/>
     </row>
-    <row r="603" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -36846,7 +36846,7 @@
       <c r="BE603" s="1"/>
       <c r="BF603" s="1"/>
     </row>
-    <row r="604" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -36906,7 +36906,7 @@
       <c r="BE604" s="1"/>
       <c r="BF604" s="1"/>
     </row>
-    <row r="605" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -36966,7 +36966,7 @@
       <c r="BE605" s="1"/>
       <c r="BF605" s="1"/>
     </row>
-    <row r="606" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -37026,7 +37026,7 @@
       <c r="BE606" s="1"/>
       <c r="BF606" s="1"/>
     </row>
-    <row r="607" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -37086,7 +37086,7 @@
       <c r="BE607" s="1"/>
       <c r="BF607" s="1"/>
     </row>
-    <row r="608" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -37146,7 +37146,7 @@
       <c r="BE608" s="1"/>
       <c r="BF608" s="1"/>
     </row>
-    <row r="609" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -37206,7 +37206,7 @@
       <c r="BE609" s="1"/>
       <c r="BF609" s="1"/>
     </row>
-    <row r="610" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -37266,7 +37266,7 @@
       <c r="BE610" s="1"/>
       <c r="BF610" s="1"/>
     </row>
-    <row r="611" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -37326,7 +37326,7 @@
       <c r="BE611" s="1"/>
       <c r="BF611" s="1"/>
     </row>
-    <row r="612" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -37386,7 +37386,7 @@
       <c r="BE612" s="1"/>
       <c r="BF612" s="1"/>
     </row>
-    <row r="613" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -37446,7 +37446,7 @@
       <c r="BE613" s="1"/>
       <c r="BF613" s="1"/>
     </row>
-    <row r="614" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -37506,7 +37506,7 @@
       <c r="BE614" s="1"/>
       <c r="BF614" s="1"/>
     </row>
-    <row r="615" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -37566,7 +37566,7 @@
       <c r="BE615" s="1"/>
       <c r="BF615" s="1"/>
     </row>
-    <row r="616" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -37626,7 +37626,7 @@
       <c r="BE616" s="1"/>
       <c r="BF616" s="1"/>
     </row>
-    <row r="617" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -37686,7 +37686,7 @@
       <c r="BE617" s="1"/>
       <c r="BF617" s="1"/>
     </row>
-    <row r="618" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -37746,7 +37746,7 @@
       <c r="BE618" s="1"/>
       <c r="BF618" s="1"/>
     </row>
-    <row r="619" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -37806,7 +37806,7 @@
       <c r="BE619" s="1"/>
       <c r="BF619" s="1"/>
     </row>
-    <row r="620" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -37866,7 +37866,7 @@
       <c r="BE620" s="1"/>
       <c r="BF620" s="1"/>
     </row>
-    <row r="621" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -37926,7 +37926,7 @@
       <c r="BE621" s="1"/>
       <c r="BF621" s="1"/>
     </row>
-    <row r="622" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -37986,7 +37986,7 @@
       <c r="BE622" s="1"/>
       <c r="BF622" s="1"/>
     </row>
-    <row r="623" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -38046,7 +38046,7 @@
       <c r="BE623" s="1"/>
       <c r="BF623" s="1"/>
     </row>
-    <row r="624" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -38106,7 +38106,7 @@
       <c r="BE624" s="1"/>
       <c r="BF624" s="1"/>
     </row>
-    <row r="625" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -38166,7 +38166,7 @@
       <c r="BE625" s="1"/>
       <c r="BF625" s="1"/>
     </row>
-    <row r="626" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -38226,7 +38226,7 @@
       <c r="BE626" s="1"/>
       <c r="BF626" s="1"/>
     </row>
-    <row r="627" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -38286,7 +38286,7 @@
       <c r="BE627" s="1"/>
       <c r="BF627" s="1"/>
     </row>
-    <row r="628" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -38346,7 +38346,7 @@
       <c r="BE628" s="1"/>
       <c r="BF628" s="1"/>
     </row>
-    <row r="629" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -38406,7 +38406,7 @@
       <c r="BE629" s="1"/>
       <c r="BF629" s="1"/>
     </row>
-    <row r="630" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -38466,7 +38466,7 @@
       <c r="BE630" s="1"/>
       <c r="BF630" s="1"/>
     </row>
-    <row r="631" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -38526,7 +38526,7 @@
       <c r="BE631" s="1"/>
       <c r="BF631" s="1"/>
     </row>
-    <row r="632" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -38586,7 +38586,7 @@
       <c r="BE632" s="1"/>
       <c r="BF632" s="1"/>
     </row>
-    <row r="633" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -38646,7 +38646,7 @@
       <c r="BE633" s="1"/>
       <c r="BF633" s="1"/>
     </row>
-    <row r="634" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -38706,7 +38706,7 @@
       <c r="BE634" s="1"/>
       <c r="BF634" s="1"/>
     </row>
-    <row r="635" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -38766,7 +38766,7 @@
       <c r="BE635" s="1"/>
       <c r="BF635" s="1"/>
     </row>
-    <row r="636" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -38826,7 +38826,7 @@
       <c r="BE636" s="1"/>
       <c r="BF636" s="1"/>
     </row>
-    <row r="637" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -38886,7 +38886,7 @@
       <c r="BE637" s="1"/>
       <c r="BF637" s="1"/>
     </row>
-    <row r="638" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -38946,7 +38946,7 @@
       <c r="BE638" s="1"/>
       <c r="BF638" s="1"/>
     </row>
-    <row r="639" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -39006,7 +39006,7 @@
       <c r="BE639" s="1"/>
       <c r="BF639" s="1"/>
     </row>
-    <row r="640" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -39066,7 +39066,7 @@
       <c r="BE640" s="1"/>
       <c r="BF640" s="1"/>
     </row>
-    <row r="641" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -39126,7 +39126,7 @@
       <c r="BE641" s="1"/>
       <c r="BF641" s="1"/>
     </row>
-    <row r="642" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -39186,7 +39186,7 @@
       <c r="BE642" s="1"/>
       <c r="BF642" s="1"/>
     </row>
-    <row r="643" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -39246,7 +39246,7 @@
       <c r="BE643" s="1"/>
       <c r="BF643" s="1"/>
     </row>
-    <row r="644" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -39306,7 +39306,7 @@
       <c r="BE644" s="1"/>
       <c r="BF644" s="1"/>
     </row>
-    <row r="645" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -39366,7 +39366,7 @@
       <c r="BE645" s="1"/>
       <c r="BF645" s="1"/>
     </row>
-    <row r="646" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -39426,7 +39426,7 @@
       <c r="BE646" s="1"/>
       <c r="BF646" s="1"/>
     </row>
-    <row r="647" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -39486,7 +39486,7 @@
       <c r="BE647" s="1"/>
       <c r="BF647" s="1"/>
     </row>
-    <row r="648" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -39546,7 +39546,7 @@
       <c r="BE648" s="1"/>
       <c r="BF648" s="1"/>
     </row>
-    <row r="649" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -39606,7 +39606,7 @@
       <c r="BE649" s="1"/>
       <c r="BF649" s="1"/>
     </row>
-    <row r="650" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -39666,7 +39666,7 @@
       <c r="BE650" s="1"/>
       <c r="BF650" s="1"/>
     </row>
-    <row r="651" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -39726,7 +39726,7 @@
       <c r="BE651" s="1"/>
       <c r="BF651" s="1"/>
     </row>
-    <row r="652" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -39786,7 +39786,7 @@
       <c r="BE652" s="1"/>
       <c r="BF652" s="1"/>
     </row>
-    <row r="653" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -39846,7 +39846,7 @@
       <c r="BE653" s="1"/>
       <c r="BF653" s="1"/>
     </row>
-    <row r="654" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -39906,7 +39906,7 @@
       <c r="BE654" s="1"/>
       <c r="BF654" s="1"/>
     </row>
-    <row r="655" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -39966,7 +39966,7 @@
       <c r="BE655" s="1"/>
       <c r="BF655" s="1"/>
     </row>
-    <row r="656" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -40026,7 +40026,7 @@
       <c r="BE656" s="1"/>
       <c r="BF656" s="1"/>
     </row>
-    <row r="657" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -40086,7 +40086,7 @@
       <c r="BE657" s="1"/>
       <c r="BF657" s="1"/>
     </row>
-    <row r="658" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -40146,7 +40146,7 @@
       <c r="BE658" s="1"/>
       <c r="BF658" s="1"/>
     </row>
-    <row r="659" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -40206,7 +40206,7 @@
       <c r="BE659" s="1"/>
       <c r="BF659" s="1"/>
     </row>
-    <row r="660" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -40266,7 +40266,7 @@
       <c r="BE660" s="1"/>
       <c r="BF660" s="1"/>
     </row>
-    <row r="661" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -40326,7 +40326,7 @@
       <c r="BE661" s="1"/>
       <c r="BF661" s="1"/>
     </row>
-    <row r="662" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -40386,7 +40386,7 @@
       <c r="BE662" s="1"/>
       <c r="BF662" s="1"/>
     </row>
-    <row r="663" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -40446,7 +40446,7 @@
       <c r="BE663" s="1"/>
       <c r="BF663" s="1"/>
     </row>
-    <row r="664" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -40506,7 +40506,7 @@
       <c r="BE664" s="1"/>
       <c r="BF664" s="1"/>
     </row>
-    <row r="665" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -40566,7 +40566,7 @@
       <c r="BE665" s="1"/>
       <c r="BF665" s="1"/>
     </row>
-    <row r="666" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -40626,7 +40626,7 @@
       <c r="BE666" s="1"/>
       <c r="BF666" s="1"/>
     </row>
-    <row r="667" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -40686,7 +40686,7 @@
       <c r="BE667" s="1"/>
       <c r="BF667" s="1"/>
     </row>
-    <row r="668" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -40746,7 +40746,7 @@
       <c r="BE668" s="1"/>
       <c r="BF668" s="1"/>
     </row>
-    <row r="669" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -40806,7 +40806,7 @@
       <c r="BE669" s="1"/>
       <c r="BF669" s="1"/>
     </row>
-    <row r="670" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -40866,7 +40866,7 @@
       <c r="BE670" s="1"/>
       <c r="BF670" s="1"/>
     </row>
-    <row r="671" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -40926,7 +40926,7 @@
       <c r="BE671" s="1"/>
       <c r="BF671" s="1"/>
     </row>
-    <row r="672" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -40986,7 +40986,7 @@
       <c r="BE672" s="1"/>
       <c r="BF672" s="1"/>
     </row>
-    <row r="673" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -41046,7 +41046,7 @@
       <c r="BE673" s="1"/>
       <c r="BF673" s="1"/>
     </row>
-    <row r="674" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -41106,7 +41106,7 @@
       <c r="BE674" s="1"/>
       <c r="BF674" s="1"/>
     </row>
-    <row r="675" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -41166,7 +41166,7 @@
       <c r="BE675" s="1"/>
       <c r="BF675" s="1"/>
     </row>
-    <row r="676" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -41226,7 +41226,7 @@
       <c r="BE676" s="1"/>
       <c r="BF676" s="1"/>
     </row>
-    <row r="677" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -41286,7 +41286,7 @@
       <c r="BE677" s="1"/>
       <c r="BF677" s="1"/>
     </row>
-    <row r="678" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -41346,7 +41346,7 @@
       <c r="BE678" s="1"/>
       <c r="BF678" s="1"/>
     </row>
-    <row r="679" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -41406,7 +41406,7 @@
       <c r="BE679" s="1"/>
       <c r="BF679" s="1"/>
     </row>
-    <row r="680" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -41466,7 +41466,7 @@
       <c r="BE680" s="1"/>
       <c r="BF680" s="1"/>
     </row>
-    <row r="681" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -41526,7 +41526,7 @@
       <c r="BE681" s="1"/>
       <c r="BF681" s="1"/>
     </row>
-    <row r="682" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -41586,7 +41586,7 @@
       <c r="BE682" s="1"/>
       <c r="BF682" s="1"/>
     </row>
-    <row r="683" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -41646,7 +41646,7 @@
       <c r="BE683" s="1"/>
       <c r="BF683" s="1"/>
     </row>
-    <row r="684" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -41706,7 +41706,7 @@
       <c r="BE684" s="1"/>
       <c r="BF684" s="1"/>
     </row>
-    <row r="685" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -41766,7 +41766,7 @@
       <c r="BE685" s="1"/>
       <c r="BF685" s="1"/>
     </row>
-    <row r="686" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -41826,7 +41826,7 @@
       <c r="BE686" s="1"/>
       <c r="BF686" s="1"/>
     </row>
-    <row r="687" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -41886,7 +41886,7 @@
       <c r="BE687" s="1"/>
       <c r="BF687" s="1"/>
     </row>
-    <row r="688" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -41946,7 +41946,7 @@
       <c r="BE688" s="1"/>
       <c r="BF688" s="1"/>
     </row>
-    <row r="689" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -42006,7 +42006,7 @@
       <c r="BE689" s="1"/>
       <c r="BF689" s="1"/>
     </row>
-    <row r="690" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -42066,7 +42066,7 @@
       <c r="BE690" s="1"/>
       <c r="BF690" s="1"/>
     </row>
-    <row r="691" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -42126,7 +42126,7 @@
       <c r="BE691" s="1"/>
       <c r="BF691" s="1"/>
     </row>
-    <row r="692" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -42186,7 +42186,7 @@
       <c r="BE692" s="1"/>
       <c r="BF692" s="1"/>
     </row>
-    <row r="693" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -42246,7 +42246,7 @@
       <c r="BE693" s="1"/>
       <c r="BF693" s="1"/>
     </row>
-    <row r="694" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -42306,7 +42306,7 @@
       <c r="BE694" s="1"/>
       <c r="BF694" s="1"/>
     </row>
-    <row r="695" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -42366,7 +42366,7 @@
       <c r="BE695" s="1"/>
       <c r="BF695" s="1"/>
     </row>
-    <row r="696" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -42426,7 +42426,7 @@
       <c r="BE696" s="1"/>
       <c r="BF696" s="1"/>
     </row>
-    <row r="697" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -42486,7 +42486,7 @@
       <c r="BE697" s="1"/>
       <c r="BF697" s="1"/>
     </row>
-    <row r="698" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -42546,7 +42546,7 @@
       <c r="BE698" s="1"/>
       <c r="BF698" s="1"/>
     </row>
-    <row r="699" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -42606,7 +42606,7 @@
       <c r="BE699" s="1"/>
       <c r="BF699" s="1"/>
     </row>
-    <row r="700" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -42666,7 +42666,7 @@
       <c r="BE700" s="1"/>
       <c r="BF700" s="1"/>
     </row>
-    <row r="701" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -42726,7 +42726,7 @@
       <c r="BE701" s="1"/>
       <c r="BF701" s="1"/>
     </row>
-    <row r="702" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -42786,7 +42786,7 @@
       <c r="BE702" s="1"/>
       <c r="BF702" s="1"/>
     </row>
-    <row r="703" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -42846,7 +42846,7 @@
       <c r="BE703" s="1"/>
       <c r="BF703" s="1"/>
     </row>
-    <row r="704" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -42906,7 +42906,7 @@
       <c r="BE704" s="1"/>
       <c r="BF704" s="1"/>
     </row>
-    <row r="705" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -42966,7 +42966,7 @@
       <c r="BE705" s="1"/>
       <c r="BF705" s="1"/>
     </row>
-    <row r="706" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -43026,7 +43026,7 @@
       <c r="BE706" s="1"/>
       <c r="BF706" s="1"/>
     </row>
-    <row r="707" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -43086,7 +43086,7 @@
       <c r="BE707" s="1"/>
       <c r="BF707" s="1"/>
     </row>
-    <row r="708" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -43146,7 +43146,7 @@
       <c r="BE708" s="1"/>
       <c r="BF708" s="1"/>
     </row>
-    <row r="709" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -43206,7 +43206,7 @@
       <c r="BE709" s="1"/>
       <c r="BF709" s="1"/>
     </row>
-    <row r="710" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -43266,7 +43266,7 @@
       <c r="BE710" s="1"/>
       <c r="BF710" s="1"/>
     </row>
-    <row r="711" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -43326,7 +43326,7 @@
       <c r="BE711" s="1"/>
       <c r="BF711" s="1"/>
     </row>
-    <row r="712" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -43386,7 +43386,7 @@
       <c r="BE712" s="1"/>
       <c r="BF712" s="1"/>
     </row>
-    <row r="713" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -43446,7 +43446,7 @@
       <c r="BE713" s="1"/>
       <c r="BF713" s="1"/>
     </row>
-    <row r="714" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -43506,7 +43506,7 @@
       <c r="BE714" s="1"/>
       <c r="BF714" s="1"/>
     </row>
-    <row r="715" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -43566,7 +43566,7 @@
       <c r="BE715" s="1"/>
       <c r="BF715" s="1"/>
     </row>
-    <row r="716" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -43626,7 +43626,7 @@
       <c r="BE716" s="1"/>
       <c r="BF716" s="1"/>
     </row>
-    <row r="717" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -43686,7 +43686,7 @@
       <c r="BE717" s="1"/>
       <c r="BF717" s="1"/>
     </row>
-    <row r="718" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -43746,7 +43746,7 @@
       <c r="BE718" s="1"/>
       <c r="BF718" s="1"/>
     </row>
-    <row r="719" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -43806,7 +43806,7 @@
       <c r="BE719" s="1"/>
       <c r="BF719" s="1"/>
     </row>
-    <row r="720" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -43866,7 +43866,7 @@
       <c r="BE720" s="1"/>
       <c r="BF720" s="1"/>
     </row>
-    <row r="721" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -43926,7 +43926,7 @@
       <c r="BE721" s="1"/>
       <c r="BF721" s="1"/>
     </row>
-    <row r="722" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -43986,7 +43986,7 @@
       <c r="BE722" s="1"/>
       <c r="BF722" s="1"/>
     </row>
-    <row r="723" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -44046,7 +44046,7 @@
       <c r="BE723" s="1"/>
       <c r="BF723" s="1"/>
     </row>
-    <row r="724" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -44106,7 +44106,7 @@
       <c r="BE724" s="1"/>
       <c r="BF724" s="1"/>
     </row>
-    <row r="725" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -44166,7 +44166,7 @@
       <c r="BE725" s="1"/>
       <c r="BF725" s="1"/>
     </row>
-    <row r="726" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -44226,7 +44226,7 @@
       <c r="BE726" s="1"/>
       <c r="BF726" s="1"/>
     </row>
-    <row r="727" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -44286,7 +44286,7 @@
       <c r="BE727" s="1"/>
       <c r="BF727" s="1"/>
     </row>
-    <row r="728" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -44346,7 +44346,7 @@
       <c r="BE728" s="1"/>
       <c r="BF728" s="1"/>
     </row>
-    <row r="729" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -44406,7 +44406,7 @@
       <c r="BE729" s="1"/>
       <c r="BF729" s="1"/>
     </row>
-    <row r="730" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -44466,7 +44466,7 @@
       <c r="BE730" s="1"/>
       <c r="BF730" s="1"/>
     </row>
-    <row r="731" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -44526,7 +44526,7 @@
       <c r="BE731" s="1"/>
       <c r="BF731" s="1"/>
     </row>
-    <row r="732" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -44586,7 +44586,7 @@
       <c r="BE732" s="1"/>
       <c r="BF732" s="1"/>
     </row>
-    <row r="733" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -44646,7 +44646,7 @@
       <c r="BE733" s="1"/>
       <c r="BF733" s="1"/>
     </row>
-    <row r="734" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -44706,7 +44706,7 @@
       <c r="BE734" s="1"/>
       <c r="BF734" s="1"/>
     </row>
-    <row r="735" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -44766,7 +44766,7 @@
       <c r="BE735" s="1"/>
       <c r="BF735" s="1"/>
     </row>
-    <row r="736" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -44826,7 +44826,7 @@
       <c r="BE736" s="1"/>
       <c r="BF736" s="1"/>
     </row>
-    <row r="737" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -44886,7 +44886,7 @@
       <c r="BE737" s="1"/>
       <c r="BF737" s="1"/>
     </row>
-    <row r="738" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -44946,7 +44946,7 @@
       <c r="BE738" s="1"/>
       <c r="BF738" s="1"/>
     </row>
-    <row r="739" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -45006,7 +45006,7 @@
       <c r="BE739" s="1"/>
       <c r="BF739" s="1"/>
     </row>
-    <row r="740" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -45066,7 +45066,7 @@
       <c r="BE740" s="1"/>
       <c r="BF740" s="1"/>
     </row>
-    <row r="741" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -45126,7 +45126,7 @@
       <c r="BE741" s="1"/>
       <c r="BF741" s="1"/>
     </row>
-    <row r="742" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -45186,7 +45186,7 @@
       <c r="BE742" s="1"/>
       <c r="BF742" s="1"/>
     </row>
-    <row r="743" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -45246,7 +45246,7 @@
       <c r="BE743" s="1"/>
       <c r="BF743" s="1"/>
     </row>
-    <row r="744" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -45306,7 +45306,7 @@
       <c r="BE744" s="1"/>
       <c r="BF744" s="1"/>
     </row>
-    <row r="745" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -45366,7 +45366,7 @@
       <c r="BE745" s="1"/>
       <c r="BF745" s="1"/>
     </row>
-    <row r="746" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -45426,7 +45426,7 @@
       <c r="BE746" s="1"/>
       <c r="BF746" s="1"/>
     </row>
-    <row r="747" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -45486,7 +45486,7 @@
       <c r="BE747" s="1"/>
       <c r="BF747" s="1"/>
     </row>
-    <row r="748" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -45546,7 +45546,7 @@
       <c r="BE748" s="1"/>
       <c r="BF748" s="1"/>
     </row>
-    <row r="749" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -45606,7 +45606,7 @@
       <c r="BE749" s="1"/>
       <c r="BF749" s="1"/>
     </row>
-    <row r="750" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -45666,7 +45666,7 @@
       <c r="BE750" s="1"/>
       <c r="BF750" s="1"/>
     </row>
-    <row r="751" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -45726,7 +45726,7 @@
       <c r="BE751" s="1"/>
       <c r="BF751" s="1"/>
     </row>
-    <row r="752" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -45786,7 +45786,7 @@
       <c r="BE752" s="1"/>
       <c r="BF752" s="1"/>
     </row>
-    <row r="753" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -45846,7 +45846,7 @@
       <c r="BE753" s="1"/>
       <c r="BF753" s="1"/>
     </row>
-    <row r="754" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -45906,7 +45906,7 @@
       <c r="BE754" s="1"/>
       <c r="BF754" s="1"/>
     </row>
-    <row r="755" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -45966,7 +45966,7 @@
       <c r="BE755" s="1"/>
       <c r="BF755" s="1"/>
     </row>
-    <row r="756" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -46026,7 +46026,7 @@
       <c r="BE756" s="1"/>
       <c r="BF756" s="1"/>
     </row>
-    <row r="757" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -46086,7 +46086,7 @@
       <c r="BE757" s="1"/>
       <c r="BF757" s="1"/>
     </row>
-    <row r="758" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -46146,7 +46146,7 @@
       <c r="BE758" s="1"/>
       <c r="BF758" s="1"/>
     </row>
-    <row r="759" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -46206,7 +46206,7 @@
       <c r="BE759" s="1"/>
       <c r="BF759" s="1"/>
     </row>
-    <row r="760" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -46266,7 +46266,7 @@
       <c r="BE760" s="1"/>
       <c r="BF760" s="1"/>
     </row>
-    <row r="761" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -46326,7 +46326,7 @@
       <c r="BE761" s="1"/>
       <c r="BF761" s="1"/>
     </row>
-    <row r="762" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -46386,7 +46386,7 @@
       <c r="BE762" s="1"/>
       <c r="BF762" s="1"/>
     </row>
-    <row r="763" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -46446,7 +46446,7 @@
       <c r="BE763" s="1"/>
       <c r="BF763" s="1"/>
     </row>
-    <row r="764" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -46506,7 +46506,7 @@
       <c r="BE764" s="1"/>
       <c r="BF764" s="1"/>
     </row>
-    <row r="765" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -46566,7 +46566,7 @@
       <c r="BE765" s="1"/>
       <c r="BF765" s="1"/>
     </row>
-    <row r="766" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -46626,7 +46626,7 @@
       <c r="BE766" s="1"/>
       <c r="BF766" s="1"/>
     </row>
-    <row r="767" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -46686,7 +46686,7 @@
       <c r="BE767" s="1"/>
       <c r="BF767" s="1"/>
     </row>
-    <row r="768" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -46746,7 +46746,7 @@
       <c r="BE768" s="1"/>
       <c r="BF768" s="1"/>
     </row>
-    <row r="769" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -46806,7 +46806,7 @@
       <c r="BE769" s="1"/>
       <c r="BF769" s="1"/>
     </row>
-    <row r="770" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -46866,7 +46866,7 @@
       <c r="BE770" s="1"/>
       <c r="BF770" s="1"/>
     </row>
-    <row r="771" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -46926,7 +46926,7 @@
       <c r="BE771" s="1"/>
       <c r="BF771" s="1"/>
     </row>
-    <row r="772" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -46986,7 +46986,7 @@
       <c r="BE772" s="1"/>
       <c r="BF772" s="1"/>
     </row>
-    <row r="773" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -47046,7 +47046,7 @@
       <c r="BE773" s="1"/>
       <c r="BF773" s="1"/>
     </row>
-    <row r="774" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -47106,7 +47106,7 @@
       <c r="BE774" s="1"/>
       <c r="BF774" s="1"/>
     </row>
-    <row r="775" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -47166,7 +47166,7 @@
       <c r="BE775" s="1"/>
       <c r="BF775" s="1"/>
     </row>
-    <row r="776" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -47226,7 +47226,7 @@
       <c r="BE776" s="1"/>
       <c r="BF776" s="1"/>
     </row>
-    <row r="777" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -47286,7 +47286,7 @@
       <c r="BE777" s="1"/>
       <c r="BF777" s="1"/>
     </row>
-    <row r="778" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -47346,7 +47346,7 @@
       <c r="BE778" s="1"/>
       <c r="BF778" s="1"/>
     </row>
-    <row r="779" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -47406,7 +47406,7 @@
       <c r="BE779" s="1"/>
       <c r="BF779" s="1"/>
     </row>
-    <row r="780" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -47466,7 +47466,7 @@
       <c r="BE780" s="1"/>
       <c r="BF780" s="1"/>
     </row>
-    <row r="781" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -47526,7 +47526,7 @@
       <c r="BE781" s="1"/>
       <c r="BF781" s="1"/>
     </row>
-    <row r="782" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -47586,7 +47586,7 @@
       <c r="BE782" s="1"/>
       <c r="BF782" s="1"/>
     </row>
-    <row r="783" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -47646,7 +47646,7 @@
       <c r="BE783" s="1"/>
       <c r="BF783" s="1"/>
     </row>
-    <row r="784" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -47706,7 +47706,7 @@
       <c r="BE784" s="1"/>
       <c r="BF784" s="1"/>
     </row>
-    <row r="785" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -47766,7 +47766,7 @@
       <c r="BE785" s="1"/>
       <c r="BF785" s="1"/>
     </row>
-    <row r="786" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -47826,7 +47826,7 @@
       <c r="BE786" s="1"/>
       <c r="BF786" s="1"/>
     </row>
-    <row r="787" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -47886,7 +47886,7 @@
       <c r="BE787" s="1"/>
       <c r="BF787" s="1"/>
     </row>
-    <row r="788" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -47946,7 +47946,7 @@
       <c r="BE788" s="1"/>
       <c r="BF788" s="1"/>
     </row>
-    <row r="789" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -48006,7 +48006,7 @@
       <c r="BE789" s="1"/>
       <c r="BF789" s="1"/>
     </row>
-    <row r="790" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -48066,7 +48066,7 @@
       <c r="BE790" s="1"/>
       <c r="BF790" s="1"/>
     </row>
-    <row r="791" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -48126,7 +48126,7 @@
       <c r="BE791" s="1"/>
       <c r="BF791" s="1"/>
     </row>
-    <row r="792" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -48186,7 +48186,7 @@
       <c r="BE792" s="1"/>
       <c r="BF792" s="1"/>
     </row>
-    <row r="793" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -48246,7 +48246,7 @@
       <c r="BE793" s="1"/>
       <c r="BF793" s="1"/>
     </row>
-    <row r="794" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -48306,7 +48306,7 @@
       <c r="BE794" s="1"/>
       <c r="BF794" s="1"/>
     </row>
-    <row r="795" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -48366,7 +48366,7 @@
       <c r="BE795" s="1"/>
       <c r="BF795" s="1"/>
     </row>
-    <row r="796" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -48426,7 +48426,7 @@
       <c r="BE796" s="1"/>
       <c r="BF796" s="1"/>
     </row>
-    <row r="797" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -48486,7 +48486,7 @@
       <c r="BE797" s="1"/>
       <c r="BF797" s="1"/>
     </row>
-    <row r="798" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -48546,7 +48546,7 @@
       <c r="BE798" s="1"/>
       <c r="BF798" s="1"/>
     </row>
-    <row r="799" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -48606,7 +48606,7 @@
       <c r="BE799" s="1"/>
       <c r="BF799" s="1"/>
     </row>
-    <row r="800" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -48666,7 +48666,7 @@
       <c r="BE800" s="1"/>
       <c r="BF800" s="1"/>
     </row>
-    <row r="801" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -48726,7 +48726,7 @@
       <c r="BE801" s="1"/>
       <c r="BF801" s="1"/>
     </row>
-    <row r="802" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -48786,7 +48786,7 @@
       <c r="BE802" s="1"/>
       <c r="BF802" s="1"/>
     </row>
-    <row r="803" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -48846,7 +48846,7 @@
       <c r="BE803" s="1"/>
       <c r="BF803" s="1"/>
     </row>
-    <row r="804" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -48906,7 +48906,7 @@
       <c r="BE804" s="1"/>
       <c r="BF804" s="1"/>
     </row>
-    <row r="805" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -48966,7 +48966,7 @@
       <c r="BE805" s="1"/>
       <c r="BF805" s="1"/>
     </row>
-    <row r="806" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -49026,7 +49026,7 @@
       <c r="BE806" s="1"/>
       <c r="BF806" s="1"/>
     </row>
-    <row r="807" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -49086,7 +49086,7 @@
       <c r="BE807" s="1"/>
       <c r="BF807" s="1"/>
     </row>
-    <row r="808" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -49146,7 +49146,7 @@
       <c r="BE808" s="1"/>
       <c r="BF808" s="1"/>
     </row>
-    <row r="809" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -49206,7 +49206,7 @@
       <c r="BE809" s="1"/>
       <c r="BF809" s="1"/>
     </row>
-    <row r="810" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -49266,7 +49266,7 @@
       <c r="BE810" s="1"/>
       <c r="BF810" s="1"/>
     </row>
-    <row r="811" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -49326,7 +49326,7 @@
       <c r="BE811" s="1"/>
       <c r="BF811" s="1"/>
     </row>
-    <row r="812" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -49386,7 +49386,7 @@
       <c r="BE812" s="1"/>
       <c r="BF812" s="1"/>
     </row>
-    <row r="813" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -49446,7 +49446,7 @@
       <c r="BE813" s="1"/>
       <c r="BF813" s="1"/>
     </row>
-    <row r="814" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -49506,7 +49506,7 @@
       <c r="BE814" s="1"/>
       <c r="BF814" s="1"/>
     </row>
-    <row r="815" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -49566,7 +49566,7 @@
       <c r="BE815" s="1"/>
       <c r="BF815" s="1"/>
     </row>
-    <row r="816" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -49626,7 +49626,7 @@
       <c r="BE816" s="1"/>
       <c r="BF816" s="1"/>
     </row>
-    <row r="817" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -49686,7 +49686,7 @@
       <c r="BE817" s="1"/>
       <c r="BF817" s="1"/>
     </row>
-    <row r="818" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -49746,7 +49746,7 @@
       <c r="BE818" s="1"/>
       <c r="BF818" s="1"/>
     </row>
-    <row r="819" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -49806,7 +49806,7 @@
       <c r="BE819" s="1"/>
       <c r="BF819" s="1"/>
     </row>
-    <row r="820" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -49866,7 +49866,7 @@
       <c r="BE820" s="1"/>
       <c r="BF820" s="1"/>
     </row>
-    <row r="821" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -49926,7 +49926,7 @@
       <c r="BE821" s="1"/>
       <c r="BF821" s="1"/>
     </row>
-    <row r="822" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -49986,7 +49986,7 @@
       <c r="BE822" s="1"/>
       <c r="BF822" s="1"/>
     </row>
-    <row r="823" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -50046,7 +50046,7 @@
       <c r="BE823" s="1"/>
       <c r="BF823" s="1"/>
     </row>
-    <row r="824" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -50106,7 +50106,7 @@
       <c r="BE824" s="1"/>
       <c r="BF824" s="1"/>
     </row>
-    <row r="825" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -50166,7 +50166,7 @@
       <c r="BE825" s="1"/>
       <c r="BF825" s="1"/>
     </row>
-    <row r="826" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -50226,7 +50226,7 @@
       <c r="BE826" s="1"/>
       <c r="BF826" s="1"/>
     </row>
-    <row r="827" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -50286,7 +50286,7 @@
       <c r="BE827" s="1"/>
       <c r="BF827" s="1"/>
     </row>
-    <row r="828" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -50346,7 +50346,7 @@
       <c r="BE828" s="1"/>
       <c r="BF828" s="1"/>
     </row>
-    <row r="829" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -50406,7 +50406,7 @@
       <c r="BE829" s="1"/>
       <c r="BF829" s="1"/>
     </row>
-    <row r="830" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -50466,7 +50466,7 @@
       <c r="BE830" s="1"/>
       <c r="BF830" s="1"/>
     </row>
-    <row r="831" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -50526,7 +50526,7 @@
       <c r="BE831" s="1"/>
       <c r="BF831" s="1"/>
     </row>
-    <row r="832" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -50586,7 +50586,7 @@
       <c r="BE832" s="1"/>
       <c r="BF832" s="1"/>
     </row>
-    <row r="833" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -50646,7 +50646,7 @@
       <c r="BE833" s="1"/>
       <c r="BF833" s="1"/>
     </row>
-    <row r="834" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -50706,7 +50706,7 @@
       <c r="BE834" s="1"/>
       <c r="BF834" s="1"/>
     </row>
-    <row r="835" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -50766,7 +50766,7 @@
       <c r="BE835" s="1"/>
       <c r="BF835" s="1"/>
     </row>
-    <row r="836" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -50826,7 +50826,7 @@
       <c r="BE836" s="1"/>
       <c r="BF836" s="1"/>
     </row>
-    <row r="837" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -50886,7 +50886,7 @@
       <c r="BE837" s="1"/>
       <c r="BF837" s="1"/>
     </row>
-    <row r="838" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -50946,7 +50946,7 @@
       <c r="BE838" s="1"/>
       <c r="BF838" s="1"/>
     </row>
-    <row r="839" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -51006,7 +51006,7 @@
       <c r="BE839" s="1"/>
       <c r="BF839" s="1"/>
     </row>
-    <row r="840" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -51066,7 +51066,7 @@
       <c r="BE840" s="1"/>
       <c r="BF840" s="1"/>
     </row>
-    <row r="841" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -51126,7 +51126,7 @@
       <c r="BE841" s="1"/>
       <c r="BF841" s="1"/>
     </row>
-    <row r="842" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -51186,7 +51186,7 @@
       <c r="BE842" s="1"/>
       <c r="BF842" s="1"/>
     </row>
-    <row r="843" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -51246,7 +51246,7 @@
       <c r="BE843" s="1"/>
       <c r="BF843" s="1"/>
     </row>
-    <row r="844" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -51306,7 +51306,7 @@
       <c r="BE844" s="1"/>
       <c r="BF844" s="1"/>
     </row>
-    <row r="845" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -51366,7 +51366,7 @@
       <c r="BE845" s="1"/>
       <c r="BF845" s="1"/>
     </row>
-    <row r="846" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -51426,7 +51426,7 @@
       <c r="BE846" s="1"/>
       <c r="BF846" s="1"/>
     </row>
-    <row r="847" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -51486,7 +51486,7 @@
       <c r="BE847" s="1"/>
       <c r="BF847" s="1"/>
     </row>
-    <row r="848" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -51546,7 +51546,7 @@
       <c r="BE848" s="1"/>
       <c r="BF848" s="1"/>
     </row>
-    <row r="849" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -51606,7 +51606,7 @@
       <c r="BE849" s="1"/>
       <c r="BF849" s="1"/>
     </row>
-    <row r="850" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -51666,7 +51666,7 @@
       <c r="BE850" s="1"/>
       <c r="BF850" s="1"/>
     </row>
-    <row r="851" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -51726,7 +51726,7 @@
       <c r="BE851" s="1"/>
       <c r="BF851" s="1"/>
     </row>
-    <row r="852" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -51786,7 +51786,7 @@
       <c r="BE852" s="1"/>
       <c r="BF852" s="1"/>
     </row>
-    <row r="853" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -51846,7 +51846,7 @@
       <c r="BE853" s="1"/>
       <c r="BF853" s="1"/>
     </row>
-    <row r="854" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -51906,7 +51906,7 @@
       <c r="BE854" s="1"/>
       <c r="BF854" s="1"/>
     </row>
-    <row r="855" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -51966,7 +51966,7 @@
       <c r="BE855" s="1"/>
       <c r="BF855" s="1"/>
     </row>
-    <row r="856" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -52026,7 +52026,7 @@
       <c r="BE856" s="1"/>
       <c r="BF856" s="1"/>
     </row>
-    <row r="857" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -52086,7 +52086,7 @@
       <c r="BE857" s="1"/>
       <c r="BF857" s="1"/>
     </row>
-    <row r="858" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -52146,7 +52146,7 @@
       <c r="BE858" s="1"/>
       <c r="BF858" s="1"/>
     </row>
-    <row r="859" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -52206,7 +52206,7 @@
       <c r="BE859" s="1"/>
       <c r="BF859" s="1"/>
     </row>
-    <row r="860" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -52266,7 +52266,7 @@
       <c r="BE860" s="1"/>
       <c r="BF860" s="1"/>
     </row>
-    <row r="861" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -52326,7 +52326,7 @@
       <c r="BE861" s="1"/>
       <c r="BF861" s="1"/>
     </row>
-    <row r="862" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -52386,7 +52386,7 @@
       <c r="BE862" s="1"/>
       <c r="BF862" s="1"/>
     </row>
-    <row r="863" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -52446,7 +52446,7 @@
       <c r="BE863" s="1"/>
       <c r="BF863" s="1"/>
     </row>
-    <row r="864" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -52506,7 +52506,7 @@
       <c r="BE864" s="1"/>
       <c r="BF864" s="1"/>
     </row>
-    <row r="865" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -52566,7 +52566,7 @@
       <c r="BE865" s="1"/>
       <c r="BF865" s="1"/>
     </row>
-    <row r="866" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -52626,7 +52626,7 @@
       <c r="BE866" s="1"/>
       <c r="BF866" s="1"/>
     </row>
-    <row r="867" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -52686,7 +52686,7 @@
       <c r="BE867" s="1"/>
       <c r="BF867" s="1"/>
     </row>
-    <row r="868" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -52746,7 +52746,7 @@
       <c r="BE868" s="1"/>
       <c r="BF868" s="1"/>
     </row>
-    <row r="869" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -52806,7 +52806,7 @@
       <c r="BE869" s="1"/>
       <c r="BF869" s="1"/>
     </row>
-    <row r="870" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -52866,7 +52866,7 @@
       <c r="BE870" s="1"/>
       <c r="BF870" s="1"/>
     </row>
-    <row r="871" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -52926,7 +52926,7 @@
       <c r="BE871" s="1"/>
       <c r="BF871" s="1"/>
     </row>
-    <row r="872" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -52986,7 +52986,7 @@
       <c r="BE872" s="1"/>
       <c r="BF872" s="1"/>
     </row>
-    <row r="873" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -53046,7 +53046,7 @@
       <c r="BE873" s="1"/>
       <c r="BF873" s="1"/>
     </row>
-    <row r="874" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -53106,7 +53106,7 @@
       <c r="BE874" s="1"/>
       <c r="BF874" s="1"/>
     </row>
-    <row r="875" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -53166,7 +53166,7 @@
       <c r="BE875" s="1"/>
       <c r="BF875" s="1"/>
     </row>
-    <row r="876" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -53226,7 +53226,7 @@
       <c r="BE876" s="1"/>
       <c r="BF876" s="1"/>
     </row>
-    <row r="877" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -53286,7 +53286,7 @@
       <c r="BE877" s="1"/>
       <c r="BF877" s="1"/>
     </row>
-    <row r="878" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -53346,7 +53346,7 @@
       <c r="BE878" s="1"/>
       <c r="BF878" s="1"/>
     </row>
-    <row r="879" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -53406,7 +53406,7 @@
       <c r="BE879" s="1"/>
       <c r="BF879" s="1"/>
     </row>
-    <row r="880" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -53466,7 +53466,7 @@
       <c r="BE880" s="1"/>
       <c r="BF880" s="1"/>
     </row>
-    <row r="881" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -53526,7 +53526,7 @@
       <c r="BE881" s="1"/>
       <c r="BF881" s="1"/>
     </row>
-    <row r="882" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -53586,7 +53586,7 @@
       <c r="BE882" s="1"/>
       <c r="BF882" s="1"/>
     </row>
-    <row r="883" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -53646,7 +53646,7 @@
       <c r="BE883" s="1"/>
       <c r="BF883" s="1"/>
     </row>
-    <row r="884" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -53706,7 +53706,7 @@
       <c r="BE884" s="1"/>
       <c r="BF884" s="1"/>
     </row>
-    <row r="885" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -53766,7 +53766,7 @@
       <c r="BE885" s="1"/>
       <c r="BF885" s="1"/>
     </row>
-    <row r="886" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -53826,7 +53826,7 @@
       <c r="BE886" s="1"/>
       <c r="BF886" s="1"/>
     </row>
-    <row r="887" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -53886,7 +53886,7 @@
       <c r="BE887" s="1"/>
       <c r="BF887" s="1"/>
     </row>
-    <row r="888" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -53946,7 +53946,7 @@
       <c r="BE888" s="1"/>
       <c r="BF888" s="1"/>
     </row>
-    <row r="889" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -54006,7 +54006,7 @@
       <c r="BE889" s="1"/>
       <c r="BF889" s="1"/>
     </row>
-    <row r="890" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -54066,7 +54066,7 @@
       <c r="BE890" s="1"/>
       <c r="BF890" s="1"/>
     </row>
-    <row r="891" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -54126,7 +54126,7 @@
       <c r="BE891" s="1"/>
       <c r="BF891" s="1"/>
     </row>
-    <row r="892" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -54186,7 +54186,7 @@
       <c r="BE892" s="1"/>
       <c r="BF892" s="1"/>
     </row>
-    <row r="893" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -54246,7 +54246,7 @@
       <c r="BE893" s="1"/>
       <c r="BF893" s="1"/>
     </row>
-    <row r="894" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -54306,7 +54306,7 @@
       <c r="BE894" s="1"/>
       <c r="BF894" s="1"/>
     </row>
-    <row r="895" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -54366,7 +54366,7 @@
       <c r="BE895" s="1"/>
       <c r="BF895" s="1"/>
     </row>
-    <row r="896" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -54426,7 +54426,7 @@
       <c r="BE896" s="1"/>
       <c r="BF896" s="1"/>
     </row>
-    <row r="897" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -54486,7 +54486,7 @@
       <c r="BE897" s="1"/>
       <c r="BF897" s="1"/>
     </row>
-    <row r="898" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -54546,7 +54546,7 @@
       <c r="BE898" s="1"/>
       <c r="BF898" s="1"/>
     </row>
-    <row r="899" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -54606,7 +54606,7 @@
       <c r="BE899" s="1"/>
       <c r="BF899" s="1"/>
     </row>
-    <row r="900" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -54666,7 +54666,7 @@
       <c r="BE900" s="1"/>
       <c r="BF900" s="1"/>
     </row>
-    <row r="901" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -54726,7 +54726,7 @@
       <c r="BE901" s="1"/>
       <c r="BF901" s="1"/>
     </row>
-    <row r="902" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -54786,7 +54786,7 @@
       <c r="BE902" s="1"/>
       <c r="BF902" s="1"/>
     </row>
-    <row r="903" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -54846,7 +54846,7 @@
       <c r="BE903" s="1"/>
       <c r="BF903" s="1"/>
     </row>
-    <row r="904" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -54906,7 +54906,7 @@
       <c r="BE904" s="1"/>
       <c r="BF904" s="1"/>
     </row>
-    <row r="905" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -54966,7 +54966,7 @@
       <c r="BE905" s="1"/>
       <c r="BF905" s="1"/>
     </row>
-    <row r="906" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -55026,7 +55026,7 @@
       <c r="BE906" s="1"/>
       <c r="BF906" s="1"/>
     </row>
-    <row r="907" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -55086,7 +55086,7 @@
       <c r="BE907" s="1"/>
       <c r="BF907" s="1"/>
     </row>
-    <row r="908" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -55146,7 +55146,7 @@
       <c r="BE908" s="1"/>
       <c r="BF908" s="1"/>
     </row>
-    <row r="909" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -55206,7 +55206,7 @@
       <c r="BE909" s="1"/>
       <c r="BF909" s="1"/>
     </row>
-    <row r="910" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -55266,7 +55266,7 @@
       <c r="BE910" s="1"/>
       <c r="BF910" s="1"/>
     </row>
-    <row r="911" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -55326,7 +55326,7 @@
       <c r="BE911" s="1"/>
       <c r="BF911" s="1"/>
     </row>
-    <row r="912" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -55386,7 +55386,7 @@
       <c r="BE912" s="1"/>
       <c r="BF912" s="1"/>
     </row>
-    <row r="913" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -55446,7 +55446,7 @@
       <c r="BE913" s="1"/>
       <c r="BF913" s="1"/>
     </row>
-    <row r="914" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -55506,7 +55506,7 @@
       <c r="BE914" s="1"/>
       <c r="BF914" s="1"/>
     </row>
-    <row r="915" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -55566,7 +55566,7 @@
       <c r="BE915" s="1"/>
       <c r="BF915" s="1"/>
     </row>
-    <row r="916" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -55626,7 +55626,7 @@
       <c r="BE916" s="1"/>
       <c r="BF916" s="1"/>
     </row>
-    <row r="917" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -55686,7 +55686,7 @@
       <c r="BE917" s="1"/>
       <c r="BF917" s="1"/>
     </row>
-    <row r="918" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -55746,7 +55746,7 @@
       <c r="BE918" s="1"/>
       <c r="BF918" s="1"/>
     </row>
-    <row r="919" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -55806,7 +55806,7 @@
       <c r="BE919" s="1"/>
       <c r="BF919" s="1"/>
     </row>
-    <row r="920" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -55866,7 +55866,7 @@
       <c r="BE920" s="1"/>
       <c r="BF920" s="1"/>
     </row>
-    <row r="921" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -55926,7 +55926,7 @@
       <c r="BE921" s="1"/>
       <c r="BF921" s="1"/>
     </row>
-    <row r="922" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -55986,7 +55986,7 @@
       <c r="BE922" s="1"/>
       <c r="BF922" s="1"/>
     </row>
-    <row r="923" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -56046,7 +56046,7 @@
       <c r="BE923" s="1"/>
       <c r="BF923" s="1"/>
     </row>
-    <row r="924" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -56106,7 +56106,7 @@
       <c r="BE924" s="1"/>
       <c r="BF924" s="1"/>
     </row>
-    <row r="925" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -56166,7 +56166,7 @@
       <c r="BE925" s="1"/>
       <c r="BF925" s="1"/>
     </row>
-    <row r="926" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -56226,7 +56226,7 @@
       <c r="BE926" s="1"/>
       <c r="BF926" s="1"/>
     </row>
-    <row r="927" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -56286,7 +56286,7 @@
       <c r="BE927" s="1"/>
       <c r="BF927" s="1"/>
     </row>
-    <row r="928" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -56346,7 +56346,7 @@
       <c r="BE928" s="1"/>
       <c r="BF928" s="1"/>
     </row>
-    <row r="929" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -56406,7 +56406,7 @@
       <c r="BE929" s="1"/>
       <c r="BF929" s="1"/>
     </row>
-    <row r="930" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -56466,7 +56466,7 @@
       <c r="BE930" s="1"/>
       <c r="BF930" s="1"/>
     </row>
-    <row r="931" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -56526,7 +56526,7 @@
       <c r="BE931" s="1"/>
       <c r="BF931" s="1"/>
     </row>
-    <row r="932" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -56586,7 +56586,7 @@
       <c r="BE932" s="1"/>
       <c r="BF932" s="1"/>
     </row>
-    <row r="933" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -56646,7 +56646,7 @@
       <c r="BE933" s="1"/>
       <c r="BF933" s="1"/>
     </row>
-    <row r="934" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -56706,7 +56706,7 @@
       <c r="BE934" s="1"/>
       <c r="BF934" s="1"/>
     </row>
-    <row r="935" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -56766,7 +56766,7 @@
       <c r="BE935" s="1"/>
       <c r="BF935" s="1"/>
     </row>
-    <row r="936" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -56826,7 +56826,7 @@
       <c r="BE936" s="1"/>
       <c r="BF936" s="1"/>
     </row>
-    <row r="937" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -56886,7 +56886,7 @@
       <c r="BE937" s="1"/>
       <c r="BF937" s="1"/>
     </row>
-    <row r="938" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -56946,7 +56946,7 @@
       <c r="BE938" s="1"/>
       <c r="BF938" s="1"/>
     </row>
-    <row r="939" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -57006,7 +57006,7 @@
       <c r="BE939" s="1"/>
       <c r="BF939" s="1"/>
     </row>
-    <row r="940" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -57066,7 +57066,7 @@
       <c r="BE940" s="1"/>
       <c r="BF940" s="1"/>
     </row>
-    <row r="941" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -57126,7 +57126,7 @@
       <c r="BE941" s="1"/>
       <c r="BF941" s="1"/>
     </row>
-    <row r="942" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -57186,7 +57186,7 @@
       <c r="BE942" s="1"/>
       <c r="BF942" s="1"/>
     </row>
-    <row r="943" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -57246,7 +57246,7 @@
       <c r="BE943" s="1"/>
       <c r="BF943" s="1"/>
     </row>
-    <row r="944" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -57306,7 +57306,7 @@
       <c r="BE944" s="1"/>
       <c r="BF944" s="1"/>
     </row>
-    <row r="945" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -57366,7 +57366,7 @@
       <c r="BE945" s="1"/>
       <c r="BF945" s="1"/>
     </row>
-    <row r="946" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -57426,7 +57426,7 @@
       <c r="BE946" s="1"/>
       <c r="BF946" s="1"/>
     </row>
-    <row r="947" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -57486,7 +57486,7 @@
       <c r="BE947" s="1"/>
       <c r="BF947" s="1"/>
     </row>
-    <row r="948" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -57546,7 +57546,7 @@
       <c r="BE948" s="1"/>
       <c r="BF948" s="1"/>
     </row>
-    <row r="949" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -57606,7 +57606,7 @@
       <c r="BE949" s="1"/>
       <c r="BF949" s="1"/>
     </row>
-    <row r="950" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -57666,7 +57666,7 @@
       <c r="BE950" s="1"/>
       <c r="BF950" s="1"/>
     </row>
-    <row r="951" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -57726,7 +57726,7 @@
       <c r="BE951" s="1"/>
       <c r="BF951" s="1"/>
     </row>
-    <row r="952" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -57786,7 +57786,7 @@
       <c r="BE952" s="1"/>
       <c r="BF952" s="1"/>
     </row>
-    <row r="953" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -57846,7 +57846,7 @@
       <c r="BE953" s="1"/>
       <c r="BF953" s="1"/>
     </row>
-    <row r="954" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -57906,7 +57906,7 @@
       <c r="BE954" s="1"/>
       <c r="BF954" s="1"/>
     </row>
-    <row r="955" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -57966,7 +57966,7 @@
       <c r="BE955" s="1"/>
       <c r="BF955" s="1"/>
     </row>
-    <row r="956" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -58026,7 +58026,7 @@
       <c r="BE956" s="1"/>
       <c r="BF956" s="1"/>
     </row>
-    <row r="957" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -58086,7 +58086,7 @@
       <c r="BE957" s="1"/>
       <c r="BF957" s="1"/>
     </row>
-    <row r="958" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -58146,7 +58146,7 @@
       <c r="BE958" s="1"/>
       <c r="BF958" s="1"/>
     </row>
-    <row r="959" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -58206,7 +58206,7 @@
       <c r="BE959" s="1"/>
       <c r="BF959" s="1"/>
     </row>
-    <row r="960" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -58266,7 +58266,7 @@
       <c r="BE960" s="1"/>
       <c r="BF960" s="1"/>
     </row>
-    <row r="961" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -58326,7 +58326,7 @@
       <c r="BE961" s="1"/>
       <c r="BF961" s="1"/>
     </row>
-    <row r="962" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -58386,7 +58386,7 @@
       <c r="BE962" s="1"/>
       <c r="BF962" s="1"/>
     </row>
-    <row r="963" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -58446,7 +58446,7 @@
       <c r="BE963" s="1"/>
       <c r="BF963" s="1"/>
     </row>
-    <row r="964" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -58506,7 +58506,7 @@
       <c r="BE964" s="1"/>
       <c r="BF964" s="1"/>
     </row>
-    <row r="965" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -58566,7 +58566,7 @@
       <c r="BE965" s="1"/>
       <c r="BF965" s="1"/>
     </row>
-    <row r="966" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -58626,7 +58626,7 @@
       <c r="BE966" s="1"/>
       <c r="BF966" s="1"/>
     </row>
-    <row r="967" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -58686,7 +58686,7 @@
       <c r="BE967" s="1"/>
       <c r="BF967" s="1"/>
     </row>
-    <row r="968" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -58746,7 +58746,7 @@
       <c r="BE968" s="1"/>
       <c r="BF968" s="1"/>
     </row>
-    <row r="969" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -58806,7 +58806,7 @@
       <c r="BE969" s="1"/>
       <c r="BF969" s="1"/>
     </row>
-    <row r="970" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -58866,7 +58866,7 @@
       <c r="BE970" s="1"/>
       <c r="BF970" s="1"/>
     </row>
-    <row r="971" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -58926,7 +58926,7 @@
       <c r="BE971" s="1"/>
       <c r="BF971" s="1"/>
     </row>
-    <row r="972" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -58986,7 +58986,7 @@
       <c r="BE972" s="1"/>
       <c r="BF972" s="1"/>
     </row>
-    <row r="973" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -59046,7 +59046,7 @@
       <c r="BE973" s="1"/>
       <c r="BF973" s="1"/>
     </row>
-    <row r="974" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -59106,7 +59106,7 @@
       <c r="BE974" s="1"/>
       <c r="BF974" s="1"/>
     </row>
-    <row r="975" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -59166,7 +59166,7 @@
       <c r="BE975" s="1"/>
       <c r="BF975" s="1"/>
     </row>
-    <row r="976" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -59226,7 +59226,7 @@
       <c r="BE976" s="1"/>
       <c r="BF976" s="1"/>
     </row>
-    <row r="977" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -59286,7 +59286,7 @@
       <c r="BE977" s="1"/>
       <c r="BF977" s="1"/>
     </row>
-    <row r="978" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -59346,7 +59346,7 @@
       <c r="BE978" s="1"/>
       <c r="BF978" s="1"/>
     </row>
-    <row r="979" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -59406,7 +59406,7 @@
       <c r="BE979" s="1"/>
       <c r="BF979" s="1"/>
     </row>
-    <row r="980" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -59466,7 +59466,7 @@
       <c r="BE980" s="1"/>
       <c r="BF980" s="1"/>
     </row>
-    <row r="981" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -59526,7 +59526,7 @@
       <c r="BE981" s="1"/>
       <c r="BF981" s="1"/>
     </row>
-    <row r="982" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -59586,7 +59586,7 @@
       <c r="BE982" s="1"/>
       <c r="BF982" s="1"/>
     </row>
-    <row r="983" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -59646,7 +59646,7 @@
       <c r="BE983" s="1"/>
       <c r="BF983" s="1"/>
     </row>
-    <row r="984" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -59706,7 +59706,7 @@
       <c r="BE984" s="1"/>
       <c r="BF984" s="1"/>
     </row>
-    <row r="985" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -59766,7 +59766,7 @@
       <c r="BE985" s="1"/>
       <c r="BF985" s="1"/>
     </row>
-    <row r="986" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -59826,7 +59826,7 @@
       <c r="BE986" s="1"/>
       <c r="BF986" s="1"/>
     </row>
-    <row r="987" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -59886,7 +59886,7 @@
       <c r="BE987" s="1"/>
       <c r="BF987" s="1"/>
     </row>
-    <row r="988" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -59946,7 +59946,7 @@
       <c r="BE988" s="1"/>
       <c r="BF988" s="1"/>
     </row>
-    <row r="989" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -60006,7 +60006,7 @@
       <c r="BE989" s="1"/>
       <c r="BF989" s="1"/>
     </row>
-    <row r="990" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -60066,7 +60066,7 @@
       <c r="BE990" s="1"/>
       <c r="BF990" s="1"/>
     </row>
-    <row r="991" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -60126,7 +60126,7 @@
       <c r="BE991" s="1"/>
       <c r="BF991" s="1"/>
     </row>
-    <row r="992" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -60186,7 +60186,7 @@
       <c r="BE992" s="1"/>
       <c r="BF992" s="1"/>
     </row>
-    <row r="993" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -60246,7 +60246,7 @@
       <c r="BE993" s="1"/>
       <c r="BF993" s="1"/>
     </row>
-    <row r="994" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -60306,7 +60306,7 @@
       <c r="BE994" s="1"/>
       <c r="BF994" s="1"/>
     </row>
-    <row r="995" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -60366,7 +60366,7 @@
       <c r="BE995" s="1"/>
       <c r="BF995" s="1"/>
     </row>
-    <row r="996" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -60426,7 +60426,7 @@
       <c r="BE996" s="1"/>
       <c r="BF996" s="1"/>
     </row>
-    <row r="997" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -60486,7 +60486,7 @@
       <c r="BE997" s="1"/>
       <c r="BF997" s="1"/>
     </row>
-    <row r="998" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -60546,7 +60546,7 @@
       <c r="BE998" s="1"/>
       <c r="BF998" s="1"/>
     </row>
-    <row r="999" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -60606,7 +60606,7 @@
       <c r="BE999" s="1"/>
       <c r="BF999" s="1"/>
     </row>
-    <row r="1000" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>

--- a/DCR_MODS_templates/ExceltoMODSWF/RLA-MODS-template.xlsx
+++ b/DCR_MODS_templates/ExceltoMODSWF/RLA-MODS-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\ExceltoMODSWF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B88FDE5-1F8B-4480-931B-4A0B4781BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12B5784-436F-4211-919B-4419390388AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1725" windowWidth="26715" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,26 +531,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" customWidth="1"/>
-    <col min="4" max="4" width="89.19921875" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="89.25" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="14" width="10.69921875" customWidth="1"/>
+    <col min="6" max="14" width="10.75" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="27.69921875" customWidth="1"/>
-    <col min="17" max="27" width="10.69921875" customWidth="1"/>
+    <col min="16" max="16" width="27.75" customWidth="1"/>
+    <col min="17" max="27" width="10.75" customWidth="1"/>
     <col min="28" max="28" width="102" customWidth="1"/>
-    <col min="29" max="58" width="10.69921875" customWidth="1"/>
+    <col min="29" max="58" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +559,8 @@
         <v>43</v>
       </c>
       <c r="D1" s="1" t="str">
-        <f>CONCATENATE("&lt;mods:subject displayLabel=",CHAR(34),"RLA Site Code",CHAR(34)," xlink:href=",CHAR(34),"https://rla.lib.unc.edu/rla/cdr/",SUBSTITUTE(E1," ","%20"),"/context/site",CHAR(34),"&gt;&lt;mods:geographic&gt;")</f>
-        <v>&lt;mods:subject displayLabel="RLA Site Code" xlink:href="https://rla.lib.unc.edu/rla/cdr/Site/context/site"&gt;&lt;mods:geographic&gt;</v>
+        <f>CONCATENATE("&lt;mods:subject displayLabel=",CHAR(34),"RLA Site Code",CHAR(34)," xlink:href=",CHAR(34),"https://rla.lib.unc.edu/cdr/",SUBSTITUTE(E1," ","%20"),"/context/site",CHAR(34),"&gt;&lt;mods:geographic&gt;")</f>
+        <v>&lt;mods:subject displayLabel="RLA Site Code" xlink:href="https://rla.lib.unc.edu/cdr/Site/context/site"&gt;&lt;mods:geographic&gt;</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -634,8 +632,8 @@
         <v>19</v>
       </c>
       <c r="AB1" s="1" t="str">
-        <f>CONCATENATE("&lt;mods:note displayLabel=",CHAR(34),"RLA Catalog Number",CHAR(34)," xlink:href=",CHAR(34),"https://rla.lib.unc.edu/rla/cdr/",AC1,"/context/specimen",CHAR(34),"&gt;")</f>
-        <v>&lt;mods:note displayLabel="RLA Catalog Number" xlink:href="https://rla.lib.unc.edu/rla/cdr/Catalog Number/context/specimen"&gt;</v>
+        <f>CONCATENATE("&lt;mods:note displayLabel=",CHAR(34),"RLA Catalog Number",CHAR(34)," xlink:href=",CHAR(34),"https://rla.lib.unc.edu/cdr/",AC1,"/context/specimen",CHAR(34),"&gt;")</f>
+        <v>&lt;mods:note displayLabel="RLA Catalog Number" xlink:href="https://rla.lib.unc.edu/cdr/Catalog Number/context/specimen"&gt;</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>20</v>
@@ -728,7 +726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -786,7 +784,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
@@ -846,7 +844,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1"/>
@@ -906,7 +904,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1"/>
@@ -966,7 +964,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1"/>
@@ -1026,7 +1024,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1"/>
@@ -1086,7 +1084,7 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
@@ -1146,7 +1144,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
@@ -1206,7 +1204,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
@@ -1266,7 +1264,7 @@
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
     </row>
-    <row r="11" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
@@ -1326,7 +1324,7 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
@@ -1386,7 +1384,7 @@
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
     </row>
-    <row r="13" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
@@ -1446,7 +1444,7 @@
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
     </row>
-    <row r="14" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="1"/>
@@ -1506,7 +1504,7 @@
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
     </row>
-    <row r="15" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="1"/>
@@ -1566,7 +1564,7 @@
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
     </row>
-    <row r="16" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1"/>
@@ -1626,7 +1624,7 @@
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
     </row>
-    <row r="17" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1"/>
@@ -1686,7 +1684,7 @@
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
     </row>
-    <row r="18" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1"/>
@@ -1746,7 +1744,7 @@
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
     </row>
-    <row r="19" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1"/>
@@ -1806,7 +1804,7 @@
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
     </row>
-    <row r="20" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1866,7 +1864,7 @@
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
     </row>
-    <row r="21" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1926,7 +1924,7 @@
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
     </row>
-    <row r="22" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1986,7 +1984,7 @@
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
     </row>
-    <row r="23" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2046,7 +2044,7 @@
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
     </row>
-    <row r="24" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2106,7 +2104,7 @@
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
     </row>
-    <row r="25" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2166,7 +2164,7 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
-    <row r="26" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2226,7 +2224,7 @@
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
     </row>
-    <row r="27" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2286,7 +2284,7 @@
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
     </row>
-    <row r="28" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2346,7 +2344,7 @@
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
     </row>
-    <row r="29" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2406,7 +2404,7 @@
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
     </row>
-    <row r="30" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2466,7 +2464,7 @@
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
     </row>
-    <row r="31" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2526,7 +2524,7 @@
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
     </row>
-    <row r="32" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2586,7 +2584,7 @@
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
     </row>
-    <row r="33" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2646,7 +2644,7 @@
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
     </row>
-    <row r="34" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2706,7 +2704,7 @@
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
     </row>
-    <row r="35" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2766,7 +2764,7 @@
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
     </row>
-    <row r="36" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2826,7 +2824,7 @@
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
     </row>
-    <row r="37" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2886,7 +2884,7 @@
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
     </row>
-    <row r="38" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2946,7 +2944,7 @@
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
     </row>
-    <row r="39" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3006,7 +3004,7 @@
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
     </row>
-    <row r="40" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3066,7 +3064,7 @@
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
     </row>
-    <row r="41" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3126,7 +3124,7 @@
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
     </row>
-    <row r="42" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3186,7 +3184,7 @@
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
     </row>
-    <row r="43" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3246,7 +3244,7 @@
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
     </row>
-    <row r="44" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3306,7 +3304,7 @@
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
     </row>
-    <row r="45" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3366,7 +3364,7 @@
       <c r="BE45" s="1"/>
       <c r="BF45" s="1"/>
     </row>
-    <row r="46" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3426,7 +3424,7 @@
       <c r="BE46" s="1"/>
       <c r="BF46" s="1"/>
     </row>
-    <row r="47" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3486,7 +3484,7 @@
       <c r="BE47" s="1"/>
       <c r="BF47" s="1"/>
     </row>
-    <row r="48" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3546,7 +3544,7 @@
       <c r="BE48" s="1"/>
       <c r="BF48" s="1"/>
     </row>
-    <row r="49" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3606,7 +3604,7 @@
       <c r="BE49" s="1"/>
       <c r="BF49" s="1"/>
     </row>
-    <row r="50" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3666,7 +3664,7 @@
       <c r="BE50" s="1"/>
       <c r="BF50" s="1"/>
     </row>
-    <row r="51" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3726,7 +3724,7 @@
       <c r="BE51" s="1"/>
       <c r="BF51" s="1"/>
     </row>
-    <row r="52" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3786,7 +3784,7 @@
       <c r="BE52" s="1"/>
       <c r="BF52" s="1"/>
     </row>
-    <row r="53" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3846,7 +3844,7 @@
       <c r="BE53" s="1"/>
       <c r="BF53" s="1"/>
     </row>
-    <row r="54" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3906,7 +3904,7 @@
       <c r="BE54" s="1"/>
       <c r="BF54" s="1"/>
     </row>
-    <row r="55" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3966,7 +3964,7 @@
       <c r="BE55" s="1"/>
       <c r="BF55" s="1"/>
     </row>
-    <row r="56" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4026,7 +4024,7 @@
       <c r="BE56" s="1"/>
       <c r="BF56" s="1"/>
     </row>
-    <row r="57" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4086,7 +4084,7 @@
       <c r="BE57" s="1"/>
       <c r="BF57" s="1"/>
     </row>
-    <row r="58" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4146,7 +4144,7 @@
       <c r="BE58" s="1"/>
       <c r="BF58" s="1"/>
     </row>
-    <row r="59" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4206,7 +4204,7 @@
       <c r="BE59" s="1"/>
       <c r="BF59" s="1"/>
     </row>
-    <row r="60" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4266,7 +4264,7 @@
       <c r="BE60" s="1"/>
       <c r="BF60" s="1"/>
     </row>
-    <row r="61" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4326,7 +4324,7 @@
       <c r="BE61" s="1"/>
       <c r="BF61" s="1"/>
     </row>
-    <row r="62" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4386,7 +4384,7 @@
       <c r="BE62" s="1"/>
       <c r="BF62" s="1"/>
     </row>
-    <row r="63" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4446,7 +4444,7 @@
       <c r="BE63" s="1"/>
       <c r="BF63" s="1"/>
     </row>
-    <row r="64" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4506,7 +4504,7 @@
       <c r="BE64" s="1"/>
       <c r="BF64" s="1"/>
     </row>
-    <row r="65" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4566,7 +4564,7 @@
       <c r="BE65" s="1"/>
       <c r="BF65" s="1"/>
     </row>
-    <row r="66" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4626,7 +4624,7 @@
       <c r="BE66" s="1"/>
       <c r="BF66" s="1"/>
     </row>
-    <row r="67" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4686,7 +4684,7 @@
       <c r="BE67" s="1"/>
       <c r="BF67" s="1"/>
     </row>
-    <row r="68" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4746,7 +4744,7 @@
       <c r="BE68" s="1"/>
       <c r="BF68" s="1"/>
     </row>
-    <row r="69" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4806,7 +4804,7 @@
       <c r="BE69" s="1"/>
       <c r="BF69" s="1"/>
     </row>
-    <row r="70" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4866,7 +4864,7 @@
       <c r="BE70" s="1"/>
       <c r="BF70" s="1"/>
     </row>
-    <row r="71" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4926,7 +4924,7 @@
       <c r="BE71" s="1"/>
       <c r="BF71" s="1"/>
     </row>
-    <row r="72" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4986,7 +4984,7 @@
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
     </row>
-    <row r="73" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5046,7 +5044,7 @@
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
     </row>
-    <row r="74" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5106,7 +5104,7 @@
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
     </row>
-    <row r="75" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5166,7 +5164,7 @@
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
     </row>
-    <row r="76" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5226,7 +5224,7 @@
       <c r="BE76" s="1"/>
       <c r="BF76" s="1"/>
     </row>
-    <row r="77" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5286,7 +5284,7 @@
       <c r="BE77" s="1"/>
       <c r="BF77" s="1"/>
     </row>
-    <row r="78" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5346,7 +5344,7 @@
       <c r="BE78" s="1"/>
       <c r="BF78" s="1"/>
     </row>
-    <row r="79" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5406,7 +5404,7 @@
       <c r="BE79" s="1"/>
       <c r="BF79" s="1"/>
     </row>
-    <row r="80" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5466,7 +5464,7 @@
       <c r="BE80" s="1"/>
       <c r="BF80" s="1"/>
     </row>
-    <row r="81" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5526,7 +5524,7 @@
       <c r="BE81" s="1"/>
       <c r="BF81" s="1"/>
     </row>
-    <row r="82" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5586,7 +5584,7 @@
       <c r="BE82" s="1"/>
       <c r="BF82" s="1"/>
     </row>
-    <row r="83" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5646,7 +5644,7 @@
       <c r="BE83" s="1"/>
       <c r="BF83" s="1"/>
     </row>
-    <row r="84" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5706,7 +5704,7 @@
       <c r="BE84" s="1"/>
       <c r="BF84" s="1"/>
     </row>
-    <row r="85" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5766,7 +5764,7 @@
       <c r="BE85" s="1"/>
       <c r="BF85" s="1"/>
     </row>
-    <row r="86" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5826,7 +5824,7 @@
       <c r="BE86" s="1"/>
       <c r="BF86" s="1"/>
     </row>
-    <row r="87" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5886,7 +5884,7 @@
       <c r="BE87" s="1"/>
       <c r="BF87" s="1"/>
     </row>
-    <row r="88" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5946,7 +5944,7 @@
       <c r="BE88" s="1"/>
       <c r="BF88" s="1"/>
     </row>
-    <row r="89" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6006,7 +6004,7 @@
       <c r="BE89" s="1"/>
       <c r="BF89" s="1"/>
     </row>
-    <row r="90" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6066,7 +6064,7 @@
       <c r="BE90" s="1"/>
       <c r="BF90" s="1"/>
     </row>
-    <row r="91" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6126,7 +6124,7 @@
       <c r="BE91" s="1"/>
       <c r="BF91" s="1"/>
     </row>
-    <row r="92" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6186,7 +6184,7 @@
       <c r="BE92" s="1"/>
       <c r="BF92" s="1"/>
     </row>
-    <row r="93" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6246,7 +6244,7 @@
       <c r="BE93" s="1"/>
       <c r="BF93" s="1"/>
     </row>
-    <row r="94" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6306,7 +6304,7 @@
       <c r="BE94" s="1"/>
       <c r="BF94" s="1"/>
     </row>
-    <row r="95" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6366,7 +6364,7 @@
       <c r="BE95" s="1"/>
       <c r="BF95" s="1"/>
     </row>
-    <row r="96" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6426,7 +6424,7 @@
       <c r="BE96" s="1"/>
       <c r="BF96" s="1"/>
     </row>
-    <row r="97" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6486,7 +6484,7 @@
       <c r="BE97" s="1"/>
       <c r="BF97" s="1"/>
     </row>
-    <row r="98" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6546,7 +6544,7 @@
       <c r="BE98" s="1"/>
       <c r="BF98" s="1"/>
     </row>
-    <row r="99" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6606,7 +6604,7 @@
       <c r="BE99" s="1"/>
       <c r="BF99" s="1"/>
     </row>
-    <row r="100" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6666,7 +6664,7 @@
       <c r="BE100" s="1"/>
       <c r="BF100" s="1"/>
     </row>
-    <row r="101" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6726,7 +6724,7 @@
       <c r="BE101" s="1"/>
       <c r="BF101" s="1"/>
     </row>
-    <row r="102" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6786,7 +6784,7 @@
       <c r="BE102" s="1"/>
       <c r="BF102" s="1"/>
     </row>
-    <row r="103" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6846,7 +6844,7 @@
       <c r="BE103" s="1"/>
       <c r="BF103" s="1"/>
     </row>
-    <row r="104" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6906,7 +6904,7 @@
       <c r="BE104" s="1"/>
       <c r="BF104" s="1"/>
     </row>
-    <row r="105" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6966,7 +6964,7 @@
       <c r="BE105" s="1"/>
       <c r="BF105" s="1"/>
     </row>
-    <row r="106" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7026,7 +7024,7 @@
       <c r="BE106" s="1"/>
       <c r="BF106" s="1"/>
     </row>
-    <row r="107" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7086,7 +7084,7 @@
       <c r="BE107" s="1"/>
       <c r="BF107" s="1"/>
     </row>
-    <row r="108" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7146,7 +7144,7 @@
       <c r="BE108" s="1"/>
       <c r="BF108" s="1"/>
     </row>
-    <row r="109" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7206,7 +7204,7 @@
       <c r="BE109" s="1"/>
       <c r="BF109" s="1"/>
     </row>
-    <row r="110" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7266,7 +7264,7 @@
       <c r="BE110" s="1"/>
       <c r="BF110" s="1"/>
     </row>
-    <row r="111" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7326,7 +7324,7 @@
       <c r="BE111" s="1"/>
       <c r="BF111" s="1"/>
     </row>
-    <row r="112" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7386,7 +7384,7 @@
       <c r="BE112" s="1"/>
       <c r="BF112" s="1"/>
     </row>
-    <row r="113" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7446,7 +7444,7 @@
       <c r="BE113" s="1"/>
       <c r="BF113" s="1"/>
     </row>
-    <row r="114" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7506,7 +7504,7 @@
       <c r="BE114" s="1"/>
       <c r="BF114" s="1"/>
     </row>
-    <row r="115" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7566,7 +7564,7 @@
       <c r="BE115" s="1"/>
       <c r="BF115" s="1"/>
     </row>
-    <row r="116" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7626,7 +7624,7 @@
       <c r="BE116" s="1"/>
       <c r="BF116" s="1"/>
     </row>
-    <row r="117" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7686,7 +7684,7 @@
       <c r="BE117" s="1"/>
       <c r="BF117" s="1"/>
     </row>
-    <row r="118" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7746,7 +7744,7 @@
       <c r="BE118" s="1"/>
       <c r="BF118" s="1"/>
     </row>
-    <row r="119" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7806,7 +7804,7 @@
       <c r="BE119" s="1"/>
       <c r="BF119" s="1"/>
     </row>
-    <row r="120" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7866,7 +7864,7 @@
       <c r="BE120" s="1"/>
       <c r="BF120" s="1"/>
     </row>
-    <row r="121" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7926,7 +7924,7 @@
       <c r="BE121" s="1"/>
       <c r="BF121" s="1"/>
     </row>
-    <row r="122" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7986,7 +7984,7 @@
       <c r="BE122" s="1"/>
       <c r="BF122" s="1"/>
     </row>
-    <row r="123" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8046,7 +8044,7 @@
       <c r="BE123" s="1"/>
       <c r="BF123" s="1"/>
     </row>
-    <row r="124" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8106,7 +8104,7 @@
       <c r="BE124" s="1"/>
       <c r="BF124" s="1"/>
     </row>
-    <row r="125" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8166,7 +8164,7 @@
       <c r="BE125" s="1"/>
       <c r="BF125" s="1"/>
     </row>
-    <row r="126" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8226,7 +8224,7 @@
       <c r="BE126" s="1"/>
       <c r="BF126" s="1"/>
     </row>
-    <row r="127" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8286,7 +8284,7 @@
       <c r="BE127" s="1"/>
       <c r="BF127" s="1"/>
     </row>
-    <row r="128" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8346,7 +8344,7 @@
       <c r="BE128" s="1"/>
       <c r="BF128" s="1"/>
     </row>
-    <row r="129" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8406,7 +8404,7 @@
       <c r="BE129" s="1"/>
       <c r="BF129" s="1"/>
     </row>
-    <row r="130" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8466,7 +8464,7 @@
       <c r="BE130" s="1"/>
       <c r="BF130" s="1"/>
     </row>
-    <row r="131" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8526,7 +8524,7 @@
       <c r="BE131" s="1"/>
       <c r="BF131" s="1"/>
     </row>
-    <row r="132" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8586,7 +8584,7 @@
       <c r="BE132" s="1"/>
       <c r="BF132" s="1"/>
     </row>
-    <row r="133" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8646,7 +8644,7 @@
       <c r="BE133" s="1"/>
       <c r="BF133" s="1"/>
     </row>
-    <row r="134" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8706,7 +8704,7 @@
       <c r="BE134" s="1"/>
       <c r="BF134" s="1"/>
     </row>
-    <row r="135" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8766,7 +8764,7 @@
       <c r="BE135" s="1"/>
       <c r="BF135" s="1"/>
     </row>
-    <row r="136" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8826,7 +8824,7 @@
       <c r="BE136" s="1"/>
       <c r="BF136" s="1"/>
     </row>
-    <row r="137" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8886,7 +8884,7 @@
       <c r="BE137" s="1"/>
       <c r="BF137" s="1"/>
     </row>
-    <row r="138" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8946,7 +8944,7 @@
       <c r="BE138" s="1"/>
       <c r="BF138" s="1"/>
     </row>
-    <row r="139" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9006,7 +9004,7 @@
       <c r="BE139" s="1"/>
       <c r="BF139" s="1"/>
     </row>
-    <row r="140" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9066,7 +9064,7 @@
       <c r="BE140" s="1"/>
       <c r="BF140" s="1"/>
     </row>
-    <row r="141" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -9126,7 +9124,7 @@
       <c r="BE141" s="1"/>
       <c r="BF141" s="1"/>
     </row>
-    <row r="142" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9186,7 +9184,7 @@
       <c r="BE142" s="1"/>
       <c r="BF142" s="1"/>
     </row>
-    <row r="143" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9246,7 +9244,7 @@
       <c r="BE143" s="1"/>
       <c r="BF143" s="1"/>
     </row>
-    <row r="144" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9306,7 +9304,7 @@
       <c r="BE144" s="1"/>
       <c r="BF144" s="1"/>
     </row>
-    <row r="145" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9366,7 +9364,7 @@
       <c r="BE145" s="1"/>
       <c r="BF145" s="1"/>
     </row>
-    <row r="146" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9426,7 +9424,7 @@
       <c r="BE146" s="1"/>
       <c r="BF146" s="1"/>
     </row>
-    <row r="147" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9486,7 +9484,7 @@
       <c r="BE147" s="1"/>
       <c r="BF147" s="1"/>
     </row>
-    <row r="148" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9546,7 +9544,7 @@
       <c r="BE148" s="1"/>
       <c r="BF148" s="1"/>
     </row>
-    <row r="149" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9606,7 +9604,7 @@
       <c r="BE149" s="1"/>
       <c r="BF149" s="1"/>
     </row>
-    <row r="150" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9666,7 +9664,7 @@
       <c r="BE150" s="1"/>
       <c r="BF150" s="1"/>
     </row>
-    <row r="151" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9726,7 +9724,7 @@
       <c r="BE151" s="1"/>
       <c r="BF151" s="1"/>
     </row>
-    <row r="152" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9786,7 +9784,7 @@
       <c r="BE152" s="1"/>
       <c r="BF152" s="1"/>
     </row>
-    <row r="153" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9846,7 +9844,7 @@
       <c r="BE153" s="1"/>
       <c r="BF153" s="1"/>
     </row>
-    <row r="154" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9906,7 +9904,7 @@
       <c r="BE154" s="1"/>
       <c r="BF154" s="1"/>
     </row>
-    <row r="155" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9966,7 +9964,7 @@
       <c r="BE155" s="1"/>
       <c r="BF155" s="1"/>
     </row>
-    <row r="156" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -10026,7 +10024,7 @@
       <c r="BE156" s="1"/>
       <c r="BF156" s="1"/>
     </row>
-    <row r="157" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -10086,7 +10084,7 @@
       <c r="BE157" s="1"/>
       <c r="BF157" s="1"/>
     </row>
-    <row r="158" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -10146,7 +10144,7 @@
       <c r="BE158" s="1"/>
       <c r="BF158" s="1"/>
     </row>
-    <row r="159" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -10206,7 +10204,7 @@
       <c r="BE159" s="1"/>
       <c r="BF159" s="1"/>
     </row>
-    <row r="160" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -10266,7 +10264,7 @@
       <c r="BE160" s="1"/>
       <c r="BF160" s="1"/>
     </row>
-    <row r="161" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10326,7 +10324,7 @@
       <c r="BE161" s="1"/>
       <c r="BF161" s="1"/>
     </row>
-    <row r="162" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10386,7 +10384,7 @@
       <c r="BE162" s="1"/>
       <c r="BF162" s="1"/>
     </row>
-    <row r="163" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10446,7 +10444,7 @@
       <c r="BE163" s="1"/>
       <c r="BF163" s="1"/>
     </row>
-    <row r="164" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10506,7 +10504,7 @@
       <c r="BE164" s="1"/>
       <c r="BF164" s="1"/>
     </row>
-    <row r="165" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -10566,7 +10564,7 @@
       <c r="BE165" s="1"/>
       <c r="BF165" s="1"/>
     </row>
-    <row r="166" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10626,7 +10624,7 @@
       <c r="BE166" s="1"/>
       <c r="BF166" s="1"/>
     </row>
-    <row r="167" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10686,7 +10684,7 @@
       <c r="BE167" s="1"/>
       <c r="BF167" s="1"/>
     </row>
-    <row r="168" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10746,7 +10744,7 @@
       <c r="BE168" s="1"/>
       <c r="BF168" s="1"/>
     </row>
-    <row r="169" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10806,7 +10804,7 @@
       <c r="BE169" s="1"/>
       <c r="BF169" s="1"/>
     </row>
-    <row r="170" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10866,7 +10864,7 @@
       <c r="BE170" s="1"/>
       <c r="BF170" s="1"/>
     </row>
-    <row r="171" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10926,7 +10924,7 @@
       <c r="BE171" s="1"/>
       <c r="BF171" s="1"/>
     </row>
-    <row r="172" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10986,7 +10984,7 @@
       <c r="BE172" s="1"/>
       <c r="BF172" s="1"/>
     </row>
-    <row r="173" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -11046,7 +11044,7 @@
       <c r="BE173" s="1"/>
       <c r="BF173" s="1"/>
     </row>
-    <row r="174" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -11106,7 +11104,7 @@
       <c r="BE174" s="1"/>
       <c r="BF174" s="1"/>
     </row>
-    <row r="175" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -11166,7 +11164,7 @@
       <c r="BE175" s="1"/>
       <c r="BF175" s="1"/>
     </row>
-    <row r="176" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -11226,7 +11224,7 @@
       <c r="BE176" s="1"/>
       <c r="BF176" s="1"/>
     </row>
-    <row r="177" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -11286,7 +11284,7 @@
       <c r="BE177" s="1"/>
       <c r="BF177" s="1"/>
     </row>
-    <row r="178" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -11346,7 +11344,7 @@
       <c r="BE178" s="1"/>
       <c r="BF178" s="1"/>
     </row>
-    <row r="179" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -11406,7 +11404,7 @@
       <c r="BE179" s="1"/>
       <c r="BF179" s="1"/>
     </row>
-    <row r="180" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -11466,7 +11464,7 @@
       <c r="BE180" s="1"/>
       <c r="BF180" s="1"/>
     </row>
-    <row r="181" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -11526,7 +11524,7 @@
       <c r="BE181" s="1"/>
       <c r="BF181" s="1"/>
     </row>
-    <row r="182" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -11586,7 +11584,7 @@
       <c r="BE182" s="1"/>
       <c r="BF182" s="1"/>
     </row>
-    <row r="183" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -11646,7 +11644,7 @@
       <c r="BE183" s="1"/>
       <c r="BF183" s="1"/>
     </row>
-    <row r="184" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -11706,7 +11704,7 @@
       <c r="BE184" s="1"/>
       <c r="BF184" s="1"/>
     </row>
-    <row r="185" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -11766,7 +11764,7 @@
       <c r="BE185" s="1"/>
       <c r="BF185" s="1"/>
     </row>
-    <row r="186" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -11826,7 +11824,7 @@
       <c r="BE186" s="1"/>
       <c r="BF186" s="1"/>
     </row>
-    <row r="187" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -11886,7 +11884,7 @@
       <c r="BE187" s="1"/>
       <c r="BF187" s="1"/>
     </row>
-    <row r="188" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -11946,7 +11944,7 @@
       <c r="BE188" s="1"/>
       <c r="BF188" s="1"/>
     </row>
-    <row r="189" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -12006,7 +12004,7 @@
       <c r="BE189" s="1"/>
       <c r="BF189" s="1"/>
     </row>
-    <row r="190" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -12066,7 +12064,7 @@
       <c r="BE190" s="1"/>
       <c r="BF190" s="1"/>
     </row>
-    <row r="191" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -12126,7 +12124,7 @@
       <c r="BE191" s="1"/>
       <c r="BF191" s="1"/>
     </row>
-    <row r="192" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -12186,7 +12184,7 @@
       <c r="BE192" s="1"/>
       <c r="BF192" s="1"/>
     </row>
-    <row r="193" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -12246,7 +12244,7 @@
       <c r="BE193" s="1"/>
       <c r="BF193" s="1"/>
     </row>
-    <row r="194" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -12306,7 +12304,7 @@
       <c r="BE194" s="1"/>
       <c r="BF194" s="1"/>
     </row>
-    <row r="195" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -12366,7 +12364,7 @@
       <c r="BE195" s="1"/>
       <c r="BF195" s="1"/>
     </row>
-    <row r="196" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -12426,7 +12424,7 @@
       <c r="BE196" s="1"/>
       <c r="BF196" s="1"/>
     </row>
-    <row r="197" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -12486,7 +12484,7 @@
       <c r="BE197" s="1"/>
       <c r="BF197" s="1"/>
     </row>
-    <row r="198" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -12546,7 +12544,7 @@
       <c r="BE198" s="1"/>
       <c r="BF198" s="1"/>
     </row>
-    <row r="199" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -12606,7 +12604,7 @@
       <c r="BE199" s="1"/>
       <c r="BF199" s="1"/>
     </row>
-    <row r="200" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -12666,7 +12664,7 @@
       <c r="BE200" s="1"/>
       <c r="BF200" s="1"/>
     </row>
-    <row r="201" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -12726,7 +12724,7 @@
       <c r="BE201" s="1"/>
       <c r="BF201" s="1"/>
     </row>
-    <row r="202" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -12786,7 +12784,7 @@
       <c r="BE202" s="1"/>
       <c r="BF202" s="1"/>
     </row>
-    <row r="203" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -12846,7 +12844,7 @@
       <c r="BE203" s="1"/>
       <c r="BF203" s="1"/>
     </row>
-    <row r="204" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -12906,7 +12904,7 @@
       <c r="BE204" s="1"/>
       <c r="BF204" s="1"/>
     </row>
-    <row r="205" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -12966,7 +12964,7 @@
       <c r="BE205" s="1"/>
       <c r="BF205" s="1"/>
     </row>
-    <row r="206" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -13026,7 +13024,7 @@
       <c r="BE206" s="1"/>
       <c r="BF206" s="1"/>
     </row>
-    <row r="207" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -13086,7 +13084,7 @@
       <c r="BE207" s="1"/>
       <c r="BF207" s="1"/>
     </row>
-    <row r="208" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -13146,7 +13144,7 @@
       <c r="BE208" s="1"/>
       <c r="BF208" s="1"/>
     </row>
-    <row r="209" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -13206,7 +13204,7 @@
       <c r="BE209" s="1"/>
       <c r="BF209" s="1"/>
     </row>
-    <row r="210" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -13266,7 +13264,7 @@
       <c r="BE210" s="1"/>
       <c r="BF210" s="1"/>
     </row>
-    <row r="211" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -13326,7 +13324,7 @@
       <c r="BE211" s="1"/>
       <c r="BF211" s="1"/>
     </row>
-    <row r="212" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -13386,7 +13384,7 @@
       <c r="BE212" s="1"/>
       <c r="BF212" s="1"/>
     </row>
-    <row r="213" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -13446,7 +13444,7 @@
       <c r="BE213" s="1"/>
       <c r="BF213" s="1"/>
     </row>
-    <row r="214" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -13506,7 +13504,7 @@
       <c r="BE214" s="1"/>
       <c r="BF214" s="1"/>
     </row>
-    <row r="215" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -13566,7 +13564,7 @@
       <c r="BE215" s="1"/>
       <c r="BF215" s="1"/>
     </row>
-    <row r="216" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -13626,7 +13624,7 @@
       <c r="BE216" s="1"/>
       <c r="BF216" s="1"/>
     </row>
-    <row r="217" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -13686,7 +13684,7 @@
       <c r="BE217" s="1"/>
       <c r="BF217" s="1"/>
     </row>
-    <row r="218" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -13746,7 +13744,7 @@
       <c r="BE218" s="1"/>
       <c r="BF218" s="1"/>
     </row>
-    <row r="219" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -13806,7 +13804,7 @@
       <c r="BE219" s="1"/>
       <c r="BF219" s="1"/>
     </row>
-    <row r="220" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -13866,7 +13864,7 @@
       <c r="BE220" s="1"/>
       <c r="BF220" s="1"/>
     </row>
-    <row r="221" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -13926,7 +13924,7 @@
       <c r="BE221" s="1"/>
       <c r="BF221" s="1"/>
     </row>
-    <row r="222" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -13986,7 +13984,7 @@
       <c r="BE222" s="1"/>
       <c r="BF222" s="1"/>
     </row>
-    <row r="223" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -14046,7 +14044,7 @@
       <c r="BE223" s="1"/>
       <c r="BF223" s="1"/>
     </row>
-    <row r="224" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -14106,7 +14104,7 @@
       <c r="BE224" s="1"/>
       <c r="BF224" s="1"/>
     </row>
-    <row r="225" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -14166,7 +14164,7 @@
       <c r="BE225" s="1"/>
       <c r="BF225" s="1"/>
     </row>
-    <row r="226" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -14226,7 +14224,7 @@
       <c r="BE226" s="1"/>
       <c r="BF226" s="1"/>
     </row>
-    <row r="227" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -14286,7 +14284,7 @@
       <c r="BE227" s="1"/>
       <c r="BF227" s="1"/>
     </row>
-    <row r="228" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -14346,7 +14344,7 @@
       <c r="BE228" s="1"/>
       <c r="BF228" s="1"/>
     </row>
-    <row r="229" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -14406,7 +14404,7 @@
       <c r="BE229" s="1"/>
       <c r="BF229" s="1"/>
     </row>
-    <row r="230" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -14466,7 +14464,7 @@
       <c r="BE230" s="1"/>
       <c r="BF230" s="1"/>
     </row>
-    <row r="231" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -14526,7 +14524,7 @@
       <c r="BE231" s="1"/>
       <c r="BF231" s="1"/>
     </row>
-    <row r="232" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -14586,7 +14584,7 @@
       <c r="BE232" s="1"/>
       <c r="BF232" s="1"/>
     </row>
-    <row r="233" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -14646,7 +14644,7 @@
       <c r="BE233" s="1"/>
       <c r="BF233" s="1"/>
     </row>
-    <row r="234" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -14706,7 +14704,7 @@
       <c r="BE234" s="1"/>
       <c r="BF234" s="1"/>
     </row>
-    <row r="235" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -14766,7 +14764,7 @@
       <c r="BE235" s="1"/>
       <c r="BF235" s="1"/>
     </row>
-    <row r="236" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -14826,7 +14824,7 @@
       <c r="BE236" s="1"/>
       <c r="BF236" s="1"/>
     </row>
-    <row r="237" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -14886,7 +14884,7 @@
       <c r="BE237" s="1"/>
       <c r="BF237" s="1"/>
     </row>
-    <row r="238" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -14946,7 +14944,7 @@
       <c r="BE238" s="1"/>
       <c r="BF238" s="1"/>
     </row>
-    <row r="239" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -15006,7 +15004,7 @@
       <c r="BE239" s="1"/>
       <c r="BF239" s="1"/>
     </row>
-    <row r="240" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -15066,7 +15064,7 @@
       <c r="BE240" s="1"/>
       <c r="BF240" s="1"/>
     </row>
-    <row r="241" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -15126,7 +15124,7 @@
       <c r="BE241" s="1"/>
       <c r="BF241" s="1"/>
     </row>
-    <row r="242" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -15186,7 +15184,7 @@
       <c r="BE242" s="1"/>
       <c r="BF242" s="1"/>
     </row>
-    <row r="243" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -15246,7 +15244,7 @@
       <c r="BE243" s="1"/>
       <c r="BF243" s="1"/>
     </row>
-    <row r="244" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -15306,7 +15304,7 @@
       <c r="BE244" s="1"/>
       <c r="BF244" s="1"/>
     </row>
-    <row r="245" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -15366,7 +15364,7 @@
       <c r="BE245" s="1"/>
       <c r="BF245" s="1"/>
     </row>
-    <row r="246" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -15426,7 +15424,7 @@
       <c r="BE246" s="1"/>
       <c r="BF246" s="1"/>
     </row>
-    <row r="247" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -15486,7 +15484,7 @@
       <c r="BE247" s="1"/>
       <c r="BF247" s="1"/>
     </row>
-    <row r="248" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -15546,7 +15544,7 @@
       <c r="BE248" s="1"/>
       <c r="BF248" s="1"/>
     </row>
-    <row r="249" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -15606,7 +15604,7 @@
       <c r="BE249" s="1"/>
       <c r="BF249" s="1"/>
     </row>
-    <row r="250" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -15666,7 +15664,7 @@
       <c r="BE250" s="1"/>
       <c r="BF250" s="1"/>
     </row>
-    <row r="251" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -15726,7 +15724,7 @@
       <c r="BE251" s="1"/>
       <c r="BF251" s="1"/>
     </row>
-    <row r="252" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -15786,7 +15784,7 @@
       <c r="BE252" s="1"/>
       <c r="BF252" s="1"/>
     </row>
-    <row r="253" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -15846,7 +15844,7 @@
       <c r="BE253" s="1"/>
       <c r="BF253" s="1"/>
     </row>
-    <row r="254" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -15906,7 +15904,7 @@
       <c r="BE254" s="1"/>
       <c r="BF254" s="1"/>
     </row>
-    <row r="255" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -15966,7 +15964,7 @@
       <c r="BE255" s="1"/>
       <c r="BF255" s="1"/>
     </row>
-    <row r="256" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -16026,7 +16024,7 @@
       <c r="BE256" s="1"/>
       <c r="BF256" s="1"/>
     </row>
-    <row r="257" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -16086,7 +16084,7 @@
       <c r="BE257" s="1"/>
       <c r="BF257" s="1"/>
     </row>
-    <row r="258" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -16146,7 +16144,7 @@
       <c r="BE258" s="1"/>
       <c r="BF258" s="1"/>
     </row>
-    <row r="259" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -16206,7 +16204,7 @@
       <c r="BE259" s="1"/>
       <c r="BF259" s="1"/>
     </row>
-    <row r="260" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -16266,7 +16264,7 @@
       <c r="BE260" s="1"/>
       <c r="BF260" s="1"/>
     </row>
-    <row r="261" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -16326,7 +16324,7 @@
       <c r="BE261" s="1"/>
       <c r="BF261" s="1"/>
     </row>
-    <row r="262" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -16386,7 +16384,7 @@
       <c r="BE262" s="1"/>
       <c r="BF262" s="1"/>
     </row>
-    <row r="263" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -16446,7 +16444,7 @@
       <c r="BE263" s="1"/>
       <c r="BF263" s="1"/>
     </row>
-    <row r="264" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -16506,7 +16504,7 @@
       <c r="BE264" s="1"/>
       <c r="BF264" s="1"/>
     </row>
-    <row r="265" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -16566,7 +16564,7 @@
       <c r="BE265" s="1"/>
       <c r="BF265" s="1"/>
     </row>
-    <row r="266" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -16626,7 +16624,7 @@
       <c r="BE266" s="1"/>
       <c r="BF266" s="1"/>
     </row>
-    <row r="267" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -16686,7 +16684,7 @@
       <c r="BE267" s="1"/>
       <c r="BF267" s="1"/>
     </row>
-    <row r="268" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -16746,7 +16744,7 @@
       <c r="BE268" s="1"/>
       <c r="BF268" s="1"/>
     </row>
-    <row r="269" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -16806,7 +16804,7 @@
       <c r="BE269" s="1"/>
       <c r="BF269" s="1"/>
     </row>
-    <row r="270" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -16866,7 +16864,7 @@
       <c r="BE270" s="1"/>
       <c r="BF270" s="1"/>
     </row>
-    <row r="271" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -16926,7 +16924,7 @@
       <c r="BE271" s="1"/>
       <c r="BF271" s="1"/>
     </row>
-    <row r="272" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -16986,7 +16984,7 @@
       <c r="BE272" s="1"/>
       <c r="BF272" s="1"/>
     </row>
-    <row r="273" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -17046,7 +17044,7 @@
       <c r="BE273" s="1"/>
       <c r="BF273" s="1"/>
     </row>
-    <row r="274" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -17106,7 +17104,7 @@
       <c r="BE274" s="1"/>
       <c r="BF274" s="1"/>
     </row>
-    <row r="275" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -17166,7 +17164,7 @@
       <c r="BE275" s="1"/>
       <c r="BF275" s="1"/>
     </row>
-    <row r="276" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -17226,7 +17224,7 @@
       <c r="BE276" s="1"/>
       <c r="BF276" s="1"/>
     </row>
-    <row r="277" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -17286,7 +17284,7 @@
       <c r="BE277" s="1"/>
       <c r="BF277" s="1"/>
     </row>
-    <row r="278" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -17346,7 +17344,7 @@
       <c r="BE278" s="1"/>
       <c r="BF278" s="1"/>
     </row>
-    <row r="279" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -17406,7 +17404,7 @@
       <c r="BE279" s="1"/>
       <c r="BF279" s="1"/>
     </row>
-    <row r="280" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -17466,7 +17464,7 @@
       <c r="BE280" s="1"/>
       <c r="BF280" s="1"/>
     </row>
-    <row r="281" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -17526,7 +17524,7 @@
       <c r="BE281" s="1"/>
       <c r="BF281" s="1"/>
     </row>
-    <row r="282" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -17586,7 +17584,7 @@
       <c r="BE282" s="1"/>
       <c r="BF282" s="1"/>
     </row>
-    <row r="283" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -17646,7 +17644,7 @@
       <c r="BE283" s="1"/>
       <c r="BF283" s="1"/>
     </row>
-    <row r="284" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -17706,7 +17704,7 @@
       <c r="BE284" s="1"/>
       <c r="BF284" s="1"/>
     </row>
-    <row r="285" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -17766,7 +17764,7 @@
       <c r="BE285" s="1"/>
       <c r="BF285" s="1"/>
     </row>
-    <row r="286" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -17826,7 +17824,7 @@
       <c r="BE286" s="1"/>
       <c r="BF286" s="1"/>
     </row>
-    <row r="287" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -17886,7 +17884,7 @@
       <c r="BE287" s="1"/>
       <c r="BF287" s="1"/>
     </row>
-    <row r="288" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -17946,7 +17944,7 @@
       <c r="BE288" s="1"/>
       <c r="BF288" s="1"/>
     </row>
-    <row r="289" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -18006,7 +18004,7 @@
       <c r="BE289" s="1"/>
       <c r="BF289" s="1"/>
     </row>
-    <row r="290" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -18066,7 +18064,7 @@
       <c r="BE290" s="1"/>
       <c r="BF290" s="1"/>
     </row>
-    <row r="291" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -18126,7 +18124,7 @@
       <c r="BE291" s="1"/>
       <c r="BF291" s="1"/>
     </row>
-    <row r="292" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -18186,7 +18184,7 @@
       <c r="BE292" s="1"/>
       <c r="BF292" s="1"/>
     </row>
-    <row r="293" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -18246,7 +18244,7 @@
       <c r="BE293" s="1"/>
       <c r="BF293" s="1"/>
     </row>
-    <row r="294" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -18306,7 +18304,7 @@
       <c r="BE294" s="1"/>
       <c r="BF294" s="1"/>
     </row>
-    <row r="295" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -18366,7 +18364,7 @@
       <c r="BE295" s="1"/>
       <c r="BF295" s="1"/>
     </row>
-    <row r="296" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -18426,7 +18424,7 @@
       <c r="BE296" s="1"/>
       <c r="BF296" s="1"/>
     </row>
-    <row r="297" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -18486,7 +18484,7 @@
       <c r="BE297" s="1"/>
       <c r="BF297" s="1"/>
     </row>
-    <row r="298" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -18546,7 +18544,7 @@
       <c r="BE298" s="1"/>
       <c r="BF298" s="1"/>
     </row>
-    <row r="299" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -18606,7 +18604,7 @@
       <c r="BE299" s="1"/>
       <c r="BF299" s="1"/>
     </row>
-    <row r="300" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -18666,7 +18664,7 @@
       <c r="BE300" s="1"/>
       <c r="BF300" s="1"/>
     </row>
-    <row r="301" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -18726,7 +18724,7 @@
       <c r="BE301" s="1"/>
       <c r="BF301" s="1"/>
     </row>
-    <row r="302" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -18786,7 +18784,7 @@
       <c r="BE302" s="1"/>
       <c r="BF302" s="1"/>
     </row>
-    <row r="303" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -18846,7 +18844,7 @@
       <c r="BE303" s="1"/>
       <c r="BF303" s="1"/>
     </row>
-    <row r="304" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -18906,7 +18904,7 @@
       <c r="BE304" s="1"/>
       <c r="BF304" s="1"/>
     </row>
-    <row r="305" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -18966,7 +18964,7 @@
       <c r="BE305" s="1"/>
       <c r="BF305" s="1"/>
     </row>
-    <row r="306" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -19026,7 +19024,7 @@
       <c r="BE306" s="1"/>
       <c r="BF306" s="1"/>
     </row>
-    <row r="307" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -19086,7 +19084,7 @@
       <c r="BE307" s="1"/>
       <c r="BF307" s="1"/>
     </row>
-    <row r="308" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -19146,7 +19144,7 @@
       <c r="BE308" s="1"/>
       <c r="BF308" s="1"/>
     </row>
-    <row r="309" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -19206,7 +19204,7 @@
       <c r="BE309" s="1"/>
       <c r="BF309" s="1"/>
     </row>
-    <row r="310" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -19266,7 +19264,7 @@
       <c r="BE310" s="1"/>
       <c r="BF310" s="1"/>
     </row>
-    <row r="311" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -19326,7 +19324,7 @@
       <c r="BE311" s="1"/>
       <c r="BF311" s="1"/>
     </row>
-    <row r="312" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -19386,7 +19384,7 @@
       <c r="BE312" s="1"/>
       <c r="BF312" s="1"/>
     </row>
-    <row r="313" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -19446,7 +19444,7 @@
       <c r="BE313" s="1"/>
       <c r="BF313" s="1"/>
     </row>
-    <row r="314" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -19506,7 +19504,7 @@
       <c r="BE314" s="1"/>
       <c r="BF314" s="1"/>
     </row>
-    <row r="315" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -19566,7 +19564,7 @@
       <c r="BE315" s="1"/>
       <c r="BF315" s="1"/>
     </row>
-    <row r="316" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -19626,7 +19624,7 @@
       <c r="BE316" s="1"/>
       <c r="BF316" s="1"/>
     </row>
-    <row r="317" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -19686,7 +19684,7 @@
       <c r="BE317" s="1"/>
       <c r="BF317" s="1"/>
     </row>
-    <row r="318" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -19746,7 +19744,7 @@
       <c r="BE318" s="1"/>
       <c r="BF318" s="1"/>
     </row>
-    <row r="319" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -19806,7 +19804,7 @@
       <c r="BE319" s="1"/>
       <c r="BF319" s="1"/>
     </row>
-    <row r="320" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -19866,7 +19864,7 @@
       <c r="BE320" s="1"/>
       <c r="BF320" s="1"/>
     </row>
-    <row r="321" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -19926,7 +19924,7 @@
       <c r="BE321" s="1"/>
       <c r="BF321" s="1"/>
     </row>
-    <row r="322" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -19986,7 +19984,7 @@
       <c r="BE322" s="1"/>
       <c r="BF322" s="1"/>
     </row>
-    <row r="323" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -20046,7 +20044,7 @@
       <c r="BE323" s="1"/>
       <c r="BF323" s="1"/>
     </row>
-    <row r="324" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -20106,7 +20104,7 @@
       <c r="BE324" s="1"/>
       <c r="BF324" s="1"/>
     </row>
-    <row r="325" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -20166,7 +20164,7 @@
       <c r="BE325" s="1"/>
       <c r="BF325" s="1"/>
     </row>
-    <row r="326" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -20226,7 +20224,7 @@
       <c r="BE326" s="1"/>
       <c r="BF326" s="1"/>
     </row>
-    <row r="327" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -20286,7 +20284,7 @@
       <c r="BE327" s="1"/>
       <c r="BF327" s="1"/>
     </row>
-    <row r="328" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -20346,7 +20344,7 @@
       <c r="BE328" s="1"/>
       <c r="BF328" s="1"/>
     </row>
-    <row r="329" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -20406,7 +20404,7 @@
       <c r="BE329" s="1"/>
       <c r="BF329" s="1"/>
     </row>
-    <row r="330" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -20466,7 +20464,7 @@
       <c r="BE330" s="1"/>
       <c r="BF330" s="1"/>
     </row>
-    <row r="331" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -20526,7 +20524,7 @@
       <c r="BE331" s="1"/>
       <c r="BF331" s="1"/>
     </row>
-    <row r="332" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -20586,7 +20584,7 @@
       <c r="BE332" s="1"/>
       <c r="BF332" s="1"/>
     </row>
-    <row r="333" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -20646,7 +20644,7 @@
       <c r="BE333" s="1"/>
       <c r="BF333" s="1"/>
     </row>
-    <row r="334" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -20706,7 +20704,7 @@
       <c r="BE334" s="1"/>
       <c r="BF334" s="1"/>
     </row>
-    <row r="335" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -20766,7 +20764,7 @@
       <c r="BE335" s="1"/>
       <c r="BF335" s="1"/>
     </row>
-    <row r="336" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -20826,7 +20824,7 @@
       <c r="BE336" s="1"/>
       <c r="BF336" s="1"/>
     </row>
-    <row r="337" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -20886,7 +20884,7 @@
       <c r="BE337" s="1"/>
       <c r="BF337" s="1"/>
     </row>
-    <row r="338" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -20946,7 +20944,7 @@
       <c r="BE338" s="1"/>
       <c r="BF338" s="1"/>
     </row>
-    <row r="339" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -21006,7 +21004,7 @@
       <c r="BE339" s="1"/>
       <c r="BF339" s="1"/>
     </row>
-    <row r="340" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -21066,7 +21064,7 @@
       <c r="BE340" s="1"/>
       <c r="BF340" s="1"/>
     </row>
-    <row r="341" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -21126,7 +21124,7 @@
       <c r="BE341" s="1"/>
       <c r="BF341" s="1"/>
     </row>
-    <row r="342" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -21186,7 +21184,7 @@
       <c r="BE342" s="1"/>
       <c r="BF342" s="1"/>
     </row>
-    <row r="343" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -21246,7 +21244,7 @@
       <c r="BE343" s="1"/>
       <c r="BF343" s="1"/>
     </row>
-    <row r="344" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -21306,7 +21304,7 @@
       <c r="BE344" s="1"/>
       <c r="BF344" s="1"/>
     </row>
-    <row r="345" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -21366,7 +21364,7 @@
       <c r="BE345" s="1"/>
       <c r="BF345" s="1"/>
     </row>
-    <row r="346" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -21426,7 +21424,7 @@
       <c r="BE346" s="1"/>
       <c r="BF346" s="1"/>
     </row>
-    <row r="347" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -21486,7 +21484,7 @@
       <c r="BE347" s="1"/>
       <c r="BF347" s="1"/>
     </row>
-    <row r="348" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -21546,7 +21544,7 @@
       <c r="BE348" s="1"/>
       <c r="BF348" s="1"/>
     </row>
-    <row r="349" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -21606,7 +21604,7 @@
       <c r="BE349" s="1"/>
       <c r="BF349" s="1"/>
     </row>
-    <row r="350" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -21666,7 +21664,7 @@
       <c r="BE350" s="1"/>
       <c r="BF350" s="1"/>
     </row>
-    <row r="351" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -21726,7 +21724,7 @@
       <c r="BE351" s="1"/>
       <c r="BF351" s="1"/>
     </row>
-    <row r="352" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -21786,7 +21784,7 @@
       <c r="BE352" s="1"/>
       <c r="BF352" s="1"/>
     </row>
-    <row r="353" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -21846,7 +21844,7 @@
       <c r="BE353" s="1"/>
       <c r="BF353" s="1"/>
     </row>
-    <row r="354" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -21906,7 +21904,7 @@
       <c r="BE354" s="1"/>
       <c r="BF354" s="1"/>
     </row>
-    <row r="355" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -21966,7 +21964,7 @@
       <c r="BE355" s="1"/>
       <c r="BF355" s="1"/>
     </row>
-    <row r="356" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -22026,7 +22024,7 @@
       <c r="BE356" s="1"/>
       <c r="BF356" s="1"/>
     </row>
-    <row r="357" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -22086,7 +22084,7 @@
       <c r="BE357" s="1"/>
       <c r="BF357" s="1"/>
     </row>
-    <row r="358" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -22146,7 +22144,7 @@
       <c r="BE358" s="1"/>
       <c r="BF358" s="1"/>
     </row>
-    <row r="359" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -22206,7 +22204,7 @@
       <c r="BE359" s="1"/>
       <c r="BF359" s="1"/>
     </row>
-    <row r="360" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -22266,7 +22264,7 @@
       <c r="BE360" s="1"/>
       <c r="BF360" s="1"/>
     </row>
-    <row r="361" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -22326,7 +22324,7 @@
       <c r="BE361" s="1"/>
       <c r="BF361" s="1"/>
     </row>
-    <row r="362" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -22386,7 +22384,7 @@
       <c r="BE362" s="1"/>
       <c r="BF362" s="1"/>
     </row>
-    <row r="363" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -22446,7 +22444,7 @@
       <c r="BE363" s="1"/>
       <c r="BF363" s="1"/>
     </row>
-    <row r="364" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -22506,7 +22504,7 @@
       <c r="BE364" s="1"/>
       <c r="BF364" s="1"/>
     </row>
-    <row r="365" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -22566,7 +22564,7 @@
       <c r="BE365" s="1"/>
       <c r="BF365" s="1"/>
     </row>
-    <row r="366" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -22626,7 +22624,7 @@
       <c r="BE366" s="1"/>
       <c r="BF366" s="1"/>
     </row>
-    <row r="367" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -22686,7 +22684,7 @@
       <c r="BE367" s="1"/>
       <c r="BF367" s="1"/>
     </row>
-    <row r="368" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -22746,7 +22744,7 @@
       <c r="BE368" s="1"/>
       <c r="BF368" s="1"/>
     </row>
-    <row r="369" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -22806,7 +22804,7 @@
       <c r="BE369" s="1"/>
       <c r="BF369" s="1"/>
     </row>
-    <row r="370" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -22866,7 +22864,7 @@
       <c r="BE370" s="1"/>
       <c r="BF370" s="1"/>
     </row>
-    <row r="371" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -22926,7 +22924,7 @@
       <c r="BE371" s="1"/>
       <c r="BF371" s="1"/>
     </row>
-    <row r="372" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -22986,7 +22984,7 @@
       <c r="BE372" s="1"/>
       <c r="BF372" s="1"/>
     </row>
-    <row r="373" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -23046,7 +23044,7 @@
       <c r="BE373" s="1"/>
       <c r="BF373" s="1"/>
     </row>
-    <row r="374" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -23106,7 +23104,7 @@
       <c r="BE374" s="1"/>
       <c r="BF374" s="1"/>
     </row>
-    <row r="375" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -23166,7 +23164,7 @@
       <c r="BE375" s="1"/>
       <c r="BF375" s="1"/>
     </row>
-    <row r="376" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -23226,7 +23224,7 @@
       <c r="BE376" s="1"/>
       <c r="BF376" s="1"/>
     </row>
-    <row r="377" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -23286,7 +23284,7 @@
       <c r="BE377" s="1"/>
       <c r="BF377" s="1"/>
     </row>
-    <row r="378" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -23346,7 +23344,7 @@
       <c r="BE378" s="1"/>
       <c r="BF378" s="1"/>
     </row>
-    <row r="379" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -23406,7 +23404,7 @@
       <c r="BE379" s="1"/>
       <c r="BF379" s="1"/>
     </row>
-    <row r="380" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -23466,7 +23464,7 @@
       <c r="BE380" s="1"/>
       <c r="BF380" s="1"/>
     </row>
-    <row r="381" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -23526,7 +23524,7 @@
       <c r="BE381" s="1"/>
       <c r="BF381" s="1"/>
     </row>
-    <row r="382" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -23586,7 +23584,7 @@
       <c r="BE382" s="1"/>
       <c r="BF382" s="1"/>
     </row>
-    <row r="383" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -23646,7 +23644,7 @@
       <c r="BE383" s="1"/>
       <c r="BF383" s="1"/>
     </row>
-    <row r="384" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -23706,7 +23704,7 @@
       <c r="BE384" s="1"/>
       <c r="BF384" s="1"/>
     </row>
-    <row r="385" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -23766,7 +23764,7 @@
       <c r="BE385" s="1"/>
       <c r="BF385" s="1"/>
     </row>
-    <row r="386" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -23826,7 +23824,7 @@
       <c r="BE386" s="1"/>
       <c r="BF386" s="1"/>
     </row>
-    <row r="387" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -23886,7 +23884,7 @@
       <c r="BE387" s="1"/>
       <c r="BF387" s="1"/>
     </row>
-    <row r="388" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -23946,7 +23944,7 @@
       <c r="BE388" s="1"/>
       <c r="BF388" s="1"/>
     </row>
-    <row r="389" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -24006,7 +24004,7 @@
       <c r="BE389" s="1"/>
       <c r="BF389" s="1"/>
     </row>
-    <row r="390" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -24066,7 +24064,7 @@
       <c r="BE390" s="1"/>
       <c r="BF390" s="1"/>
     </row>
-    <row r="391" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -24126,7 +24124,7 @@
       <c r="BE391" s="1"/>
       <c r="BF391" s="1"/>
     </row>
-    <row r="392" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -24186,7 +24184,7 @@
       <c r="BE392" s="1"/>
       <c r="BF392" s="1"/>
     </row>
-    <row r="393" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -24246,7 +24244,7 @@
       <c r="BE393" s="1"/>
       <c r="BF393" s="1"/>
     </row>
-    <row r="394" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -24306,7 +24304,7 @@
       <c r="BE394" s="1"/>
       <c r="BF394" s="1"/>
     </row>
-    <row r="395" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -24366,7 +24364,7 @@
       <c r="BE395" s="1"/>
       <c r="BF395" s="1"/>
     </row>
-    <row r="396" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -24426,7 +24424,7 @@
       <c r="BE396" s="1"/>
       <c r="BF396" s="1"/>
     </row>
-    <row r="397" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -24486,7 +24484,7 @@
       <c r="BE397" s="1"/>
       <c r="BF397" s="1"/>
     </row>
-    <row r="398" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -24546,7 +24544,7 @@
       <c r="BE398" s="1"/>
       <c r="BF398" s="1"/>
     </row>
-    <row r="399" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -24606,7 +24604,7 @@
       <c r="BE399" s="1"/>
       <c r="BF399" s="1"/>
     </row>
-    <row r="400" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -24666,7 +24664,7 @@
       <c r="BE400" s="1"/>
       <c r="BF400" s="1"/>
     </row>
-    <row r="401" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -24726,7 +24724,7 @@
       <c r="BE401" s="1"/>
       <c r="BF401" s="1"/>
     </row>
-    <row r="402" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -24786,7 +24784,7 @@
       <c r="BE402" s="1"/>
       <c r="BF402" s="1"/>
     </row>
-    <row r="403" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -24846,7 +24844,7 @@
       <c r="BE403" s="1"/>
       <c r="BF403" s="1"/>
     </row>
-    <row r="404" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -24906,7 +24904,7 @@
       <c r="BE404" s="1"/>
       <c r="BF404" s="1"/>
     </row>
-    <row r="405" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -24966,7 +24964,7 @@
       <c r="BE405" s="1"/>
       <c r="BF405" s="1"/>
     </row>
-    <row r="406" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -25026,7 +25024,7 @@
       <c r="BE406" s="1"/>
       <c r="BF406" s="1"/>
     </row>
-    <row r="407" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -25086,7 +25084,7 @@
       <c r="BE407" s="1"/>
       <c r="BF407" s="1"/>
     </row>
-    <row r="408" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -25146,7 +25144,7 @@
       <c r="BE408" s="1"/>
       <c r="BF408" s="1"/>
     </row>
-    <row r="409" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -25206,7 +25204,7 @@
       <c r="BE409" s="1"/>
       <c r="BF409" s="1"/>
     </row>
-    <row r="410" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -25266,7 +25264,7 @@
       <c r="BE410" s="1"/>
       <c r="BF410" s="1"/>
     </row>
-    <row r="411" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -25326,7 +25324,7 @@
       <c r="BE411" s="1"/>
       <c r="BF411" s="1"/>
     </row>
-    <row r="412" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -25386,7 +25384,7 @@
       <c r="BE412" s="1"/>
       <c r="BF412" s="1"/>
     </row>
-    <row r="413" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -25446,7 +25444,7 @@
       <c r="BE413" s="1"/>
       <c r="BF413" s="1"/>
     </row>
-    <row r="414" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -25506,7 +25504,7 @@
       <c r="BE414" s="1"/>
       <c r="BF414" s="1"/>
     </row>
-    <row r="415" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -25566,7 +25564,7 @@
       <c r="BE415" s="1"/>
       <c r="BF415" s="1"/>
     </row>
-    <row r="416" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -25626,7 +25624,7 @@
       <c r="BE416" s="1"/>
       <c r="BF416" s="1"/>
     </row>
-    <row r="417" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -25686,7 +25684,7 @@
       <c r="BE417" s="1"/>
       <c r="BF417" s="1"/>
     </row>
-    <row r="418" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -25746,7 +25744,7 @@
       <c r="BE418" s="1"/>
       <c r="BF418" s="1"/>
     </row>
-    <row r="419" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -25806,7 +25804,7 @@
       <c r="BE419" s="1"/>
       <c r="BF419" s="1"/>
     </row>
-    <row r="420" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -25866,7 +25864,7 @@
       <c r="BE420" s="1"/>
       <c r="BF420" s="1"/>
     </row>
-    <row r="421" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -25926,7 +25924,7 @@
       <c r="BE421" s="1"/>
       <c r="BF421" s="1"/>
     </row>
-    <row r="422" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -25986,7 +25984,7 @@
       <c r="BE422" s="1"/>
       <c r="BF422" s="1"/>
     </row>
-    <row r="423" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -26046,7 +26044,7 @@
       <c r="BE423" s="1"/>
       <c r="BF423" s="1"/>
     </row>
-    <row r="424" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -26106,7 +26104,7 @@
       <c r="BE424" s="1"/>
       <c r="BF424" s="1"/>
     </row>
-    <row r="425" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -26166,7 +26164,7 @@
       <c r="BE425" s="1"/>
       <c r="BF425" s="1"/>
     </row>
-    <row r="426" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -26226,7 +26224,7 @@
       <c r="BE426" s="1"/>
       <c r="BF426" s="1"/>
     </row>
-    <row r="427" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -26286,7 +26284,7 @@
       <c r="BE427" s="1"/>
       <c r="BF427" s="1"/>
     </row>
-    <row r="428" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -26346,7 +26344,7 @@
       <c r="BE428" s="1"/>
       <c r="BF428" s="1"/>
     </row>
-    <row r="429" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -26406,7 +26404,7 @@
       <c r="BE429" s="1"/>
       <c r="BF429" s="1"/>
     </row>
-    <row r="430" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -26466,7 +26464,7 @@
       <c r="BE430" s="1"/>
       <c r="BF430" s="1"/>
     </row>
-    <row r="431" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -26526,7 +26524,7 @@
       <c r="BE431" s="1"/>
       <c r="BF431" s="1"/>
     </row>
-    <row r="432" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -26586,7 +26584,7 @@
       <c r="BE432" s="1"/>
       <c r="BF432" s="1"/>
     </row>
-    <row r="433" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -26646,7 +26644,7 @@
       <c r="BE433" s="1"/>
       <c r="BF433" s="1"/>
     </row>
-    <row r="434" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -26706,7 +26704,7 @@
       <c r="BE434" s="1"/>
       <c r="BF434" s="1"/>
     </row>
-    <row r="435" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -26766,7 +26764,7 @@
       <c r="BE435" s="1"/>
       <c r="BF435" s="1"/>
     </row>
-    <row r="436" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -26826,7 +26824,7 @@
       <c r="BE436" s="1"/>
       <c r="BF436" s="1"/>
     </row>
-    <row r="437" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -26886,7 +26884,7 @@
       <c r="BE437" s="1"/>
       <c r="BF437" s="1"/>
     </row>
-    <row r="438" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -26946,7 +26944,7 @@
       <c r="BE438" s="1"/>
       <c r="BF438" s="1"/>
     </row>
-    <row r="439" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -27006,7 +27004,7 @@
       <c r="BE439" s="1"/>
       <c r="BF439" s="1"/>
     </row>
-    <row r="440" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -27066,7 +27064,7 @@
       <c r="BE440" s="1"/>
       <c r="BF440" s="1"/>
     </row>
-    <row r="441" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -27126,7 +27124,7 @@
       <c r="BE441" s="1"/>
       <c r="BF441" s="1"/>
     </row>
-    <row r="442" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -27186,7 +27184,7 @@
       <c r="BE442" s="1"/>
       <c r="BF442" s="1"/>
     </row>
-    <row r="443" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -27246,7 +27244,7 @@
       <c r="BE443" s="1"/>
       <c r="BF443" s="1"/>
     </row>
-    <row r="444" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -27306,7 +27304,7 @@
       <c r="BE444" s="1"/>
       <c r="BF444" s="1"/>
     </row>
-    <row r="445" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -27366,7 +27364,7 @@
       <c r="BE445" s="1"/>
       <c r="BF445" s="1"/>
     </row>
-    <row r="446" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -27426,7 +27424,7 @@
       <c r="BE446" s="1"/>
       <c r="BF446" s="1"/>
     </row>
-    <row r="447" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -27486,7 +27484,7 @@
       <c r="BE447" s="1"/>
       <c r="BF447" s="1"/>
     </row>
-    <row r="448" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -27546,7 +27544,7 @@
       <c r="BE448" s="1"/>
       <c r="BF448" s="1"/>
     </row>
-    <row r="449" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -27606,7 +27604,7 @@
       <c r="BE449" s="1"/>
       <c r="BF449" s="1"/>
     </row>
-    <row r="450" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -27666,7 +27664,7 @@
       <c r="BE450" s="1"/>
       <c r="BF450" s="1"/>
     </row>
-    <row r="451" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -27726,7 +27724,7 @@
       <c r="BE451" s="1"/>
       <c r="BF451" s="1"/>
     </row>
-    <row r="452" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -27786,7 +27784,7 @@
       <c r="BE452" s="1"/>
       <c r="BF452" s="1"/>
     </row>
-    <row r="453" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -27846,7 +27844,7 @@
       <c r="BE453" s="1"/>
       <c r="BF453" s="1"/>
     </row>
-    <row r="454" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -27906,7 +27904,7 @@
       <c r="BE454" s="1"/>
       <c r="BF454" s="1"/>
     </row>
-    <row r="455" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -27966,7 +27964,7 @@
       <c r="BE455" s="1"/>
       <c r="BF455" s="1"/>
     </row>
-    <row r="456" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -28026,7 +28024,7 @@
       <c r="BE456" s="1"/>
       <c r="BF456" s="1"/>
     </row>
-    <row r="457" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -28086,7 +28084,7 @@
       <c r="BE457" s="1"/>
       <c r="BF457" s="1"/>
     </row>
-    <row r="458" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -28146,7 +28144,7 @@
       <c r="BE458" s="1"/>
       <c r="BF458" s="1"/>
     </row>
-    <row r="459" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -28206,7 +28204,7 @@
       <c r="BE459" s="1"/>
       <c r="BF459" s="1"/>
     </row>
-    <row r="460" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -28266,7 +28264,7 @@
       <c r="BE460" s="1"/>
       <c r="BF460" s="1"/>
     </row>
-    <row r="461" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -28326,7 +28324,7 @@
       <c r="BE461" s="1"/>
       <c r="BF461" s="1"/>
     </row>
-    <row r="462" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -28386,7 +28384,7 @@
       <c r="BE462" s="1"/>
       <c r="BF462" s="1"/>
     </row>
-    <row r="463" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -28446,7 +28444,7 @@
       <c r="BE463" s="1"/>
       <c r="BF463" s="1"/>
     </row>
-    <row r="464" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -28506,7 +28504,7 @@
       <c r="BE464" s="1"/>
       <c r="BF464" s="1"/>
     </row>
-    <row r="465" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -28566,7 +28564,7 @@
       <c r="BE465" s="1"/>
       <c r="BF465" s="1"/>
     </row>
-    <row r="466" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -28626,7 +28624,7 @@
       <c r="BE466" s="1"/>
       <c r="BF466" s="1"/>
     </row>
-    <row r="467" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -28686,7 +28684,7 @@
       <c r="BE467" s="1"/>
       <c r="BF467" s="1"/>
     </row>
-    <row r="468" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -28746,7 +28744,7 @@
       <c r="BE468" s="1"/>
       <c r="BF468" s="1"/>
     </row>
-    <row r="469" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -28806,7 +28804,7 @@
       <c r="BE469" s="1"/>
       <c r="BF469" s="1"/>
     </row>
-    <row r="470" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -28866,7 +28864,7 @@
       <c r="BE470" s="1"/>
       <c r="BF470" s="1"/>
     </row>
-    <row r="471" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -28926,7 +28924,7 @@
       <c r="BE471" s="1"/>
       <c r="BF471" s="1"/>
     </row>
-    <row r="472" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -28986,7 +28984,7 @@
       <c r="BE472" s="1"/>
       <c r="BF472" s="1"/>
     </row>
-    <row r="473" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -29046,7 +29044,7 @@
       <c r="BE473" s="1"/>
       <c r="BF473" s="1"/>
     </row>
-    <row r="474" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -29106,7 +29104,7 @@
       <c r="BE474" s="1"/>
       <c r="BF474" s="1"/>
     </row>
-    <row r="475" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -29166,7 +29164,7 @@
       <c r="BE475" s="1"/>
       <c r="BF475" s="1"/>
     </row>
-    <row r="476" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -29226,7 +29224,7 @@
       <c r="BE476" s="1"/>
       <c r="BF476" s="1"/>
     </row>
-    <row r="477" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -29286,7 +29284,7 @@
       <c r="BE477" s="1"/>
       <c r="BF477" s="1"/>
     </row>
-    <row r="478" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -29346,7 +29344,7 @@
       <c r="BE478" s="1"/>
       <c r="BF478" s="1"/>
     </row>
-    <row r="479" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -29406,7 +29404,7 @@
       <c r="BE479" s="1"/>
       <c r="BF479" s="1"/>
     </row>
-    <row r="480" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -29466,7 +29464,7 @@
       <c r="BE480" s="1"/>
       <c r="BF480" s="1"/>
     </row>
-    <row r="481" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -29526,7 +29524,7 @@
       <c r="BE481" s="1"/>
       <c r="BF481" s="1"/>
     </row>
-    <row r="482" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -29586,7 +29584,7 @@
       <c r="BE482" s="1"/>
       <c r="BF482" s="1"/>
     </row>
-    <row r="483" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -29646,7 +29644,7 @@
       <c r="BE483" s="1"/>
       <c r="BF483" s="1"/>
     </row>
-    <row r="484" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -29706,7 +29704,7 @@
       <c r="BE484" s="1"/>
       <c r="BF484" s="1"/>
     </row>
-    <row r="485" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -29766,7 +29764,7 @@
       <c r="BE485" s="1"/>
       <c r="BF485" s="1"/>
     </row>
-    <row r="486" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -29826,7 +29824,7 @@
       <c r="BE486" s="1"/>
       <c r="BF486" s="1"/>
     </row>
-    <row r="487" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -29886,7 +29884,7 @@
       <c r="BE487" s="1"/>
       <c r="BF487" s="1"/>
     </row>
-    <row r="488" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -29946,7 +29944,7 @@
       <c r="BE488" s="1"/>
       <c r="BF488" s="1"/>
     </row>
-    <row r="489" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -30006,7 +30004,7 @@
       <c r="BE489" s="1"/>
       <c r="BF489" s="1"/>
     </row>
-    <row r="490" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -30066,7 +30064,7 @@
       <c r="BE490" s="1"/>
       <c r="BF490" s="1"/>
     </row>
-    <row r="491" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -30126,7 +30124,7 @@
       <c r="BE491" s="1"/>
       <c r="BF491" s="1"/>
     </row>
-    <row r="492" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -30186,7 +30184,7 @@
       <c r="BE492" s="1"/>
       <c r="BF492" s="1"/>
     </row>
-    <row r="493" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -30246,7 +30244,7 @@
       <c r="BE493" s="1"/>
       <c r="BF493" s="1"/>
     </row>
-    <row r="494" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -30306,7 +30304,7 @@
       <c r="BE494" s="1"/>
       <c r="BF494" s="1"/>
     </row>
-    <row r="495" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -30366,7 +30364,7 @@
       <c r="BE495" s="1"/>
       <c r="BF495" s="1"/>
     </row>
-    <row r="496" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -30426,7 +30424,7 @@
       <c r="BE496" s="1"/>
       <c r="BF496" s="1"/>
     </row>
-    <row r="497" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -30486,7 +30484,7 @@
       <c r="BE497" s="1"/>
       <c r="BF497" s="1"/>
     </row>
-    <row r="498" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -30546,7 +30544,7 @@
       <c r="BE498" s="1"/>
       <c r="BF498" s="1"/>
     </row>
-    <row r="499" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -30606,7 +30604,7 @@
       <c r="BE499" s="1"/>
       <c r="BF499" s="1"/>
     </row>
-    <row r="500" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -30666,7 +30664,7 @@
       <c r="BE500" s="1"/>
       <c r="BF500" s="1"/>
     </row>
-    <row r="501" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -30726,7 +30724,7 @@
       <c r="BE501" s="1"/>
       <c r="BF501" s="1"/>
     </row>
-    <row r="502" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -30786,7 +30784,7 @@
       <c r="BE502" s="1"/>
       <c r="BF502" s="1"/>
     </row>
-    <row r="503" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -30846,7 +30844,7 @@
       <c r="BE503" s="1"/>
       <c r="BF503" s="1"/>
     </row>
-    <row r="504" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -30906,7 +30904,7 @@
       <c r="BE504" s="1"/>
       <c r="BF504" s="1"/>
     </row>
-    <row r="505" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -30966,7 +30964,7 @@
       <c r="BE505" s="1"/>
       <c r="BF505" s="1"/>
     </row>
-    <row r="506" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -31026,7 +31024,7 @@
       <c r="BE506" s="1"/>
       <c r="BF506" s="1"/>
     </row>
-    <row r="507" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -31086,7 +31084,7 @@
       <c r="BE507" s="1"/>
       <c r="BF507" s="1"/>
     </row>
-    <row r="508" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -31146,7 +31144,7 @@
       <c r="BE508" s="1"/>
       <c r="BF508" s="1"/>
     </row>
-    <row r="509" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -31206,7 +31204,7 @@
       <c r="BE509" s="1"/>
       <c r="BF509" s="1"/>
     </row>
-    <row r="510" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -31266,7 +31264,7 @@
       <c r="BE510" s="1"/>
       <c r="BF510" s="1"/>
     </row>
-    <row r="511" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -31326,7 +31324,7 @@
       <c r="BE511" s="1"/>
       <c r="BF511" s="1"/>
     </row>
-    <row r="512" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -31386,7 +31384,7 @@
       <c r="BE512" s="1"/>
       <c r="BF512" s="1"/>
     </row>
-    <row r="513" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -31446,7 +31444,7 @@
       <c r="BE513" s="1"/>
       <c r="BF513" s="1"/>
     </row>
-    <row r="514" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -31506,7 +31504,7 @@
       <c r="BE514" s="1"/>
       <c r="BF514" s="1"/>
     </row>
-    <row r="515" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -31566,7 +31564,7 @@
       <c r="BE515" s="1"/>
       <c r="BF515" s="1"/>
     </row>
-    <row r="516" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -31626,7 +31624,7 @@
       <c r="BE516" s="1"/>
       <c r="BF516" s="1"/>
     </row>
-    <row r="517" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -31686,7 +31684,7 @@
       <c r="BE517" s="1"/>
       <c r="BF517" s="1"/>
     </row>
-    <row r="518" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -31746,7 +31744,7 @@
       <c r="BE518" s="1"/>
       <c r="BF518" s="1"/>
     </row>
-    <row r="519" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -31806,7 +31804,7 @@
       <c r="BE519" s="1"/>
       <c r="BF519" s="1"/>
     </row>
-    <row r="520" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -31866,7 +31864,7 @@
       <c r="BE520" s="1"/>
       <c r="BF520" s="1"/>
     </row>
-    <row r="521" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -31926,7 +31924,7 @@
       <c r="BE521" s="1"/>
       <c r="BF521" s="1"/>
     </row>
-    <row r="522" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -31986,7 +31984,7 @@
       <c r="BE522" s="1"/>
       <c r="BF522" s="1"/>
     </row>
-    <row r="523" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -32046,7 +32044,7 @@
       <c r="BE523" s="1"/>
       <c r="BF523" s="1"/>
     </row>
-    <row r="524" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -32106,7 +32104,7 @@
       <c r="BE524" s="1"/>
       <c r="BF524" s="1"/>
     </row>
-    <row r="525" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -32166,7 +32164,7 @@
       <c r="BE525" s="1"/>
       <c r="BF525" s="1"/>
     </row>
-    <row r="526" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -32226,7 +32224,7 @@
       <c r="BE526" s="1"/>
       <c r="BF526" s="1"/>
     </row>
-    <row r="527" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -32286,7 +32284,7 @@
       <c r="BE527" s="1"/>
       <c r="BF527" s="1"/>
     </row>
-    <row r="528" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -32346,7 +32344,7 @@
       <c r="BE528" s="1"/>
       <c r="BF528" s="1"/>
     </row>
-    <row r="529" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -32406,7 +32404,7 @@
       <c r="BE529" s="1"/>
       <c r="BF529" s="1"/>
     </row>
-    <row r="530" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -32466,7 +32464,7 @@
       <c r="BE530" s="1"/>
       <c r="BF530" s="1"/>
     </row>
-    <row r="531" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -32526,7 +32524,7 @@
       <c r="BE531" s="1"/>
       <c r="BF531" s="1"/>
     </row>
-    <row r="532" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -32586,7 +32584,7 @@
       <c r="BE532" s="1"/>
       <c r="BF532" s="1"/>
     </row>
-    <row r="533" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -32646,7 +32644,7 @@
       <c r="BE533" s="1"/>
       <c r="BF533" s="1"/>
     </row>
-    <row r="534" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -32706,7 +32704,7 @@
       <c r="BE534" s="1"/>
       <c r="BF534" s="1"/>
     </row>
-    <row r="535" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -32766,7 +32764,7 @@
       <c r="BE535" s="1"/>
       <c r="BF535" s="1"/>
     </row>
-    <row r="536" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -32826,7 +32824,7 @@
       <c r="BE536" s="1"/>
       <c r="BF536" s="1"/>
     </row>
-    <row r="537" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -32886,7 +32884,7 @@
       <c r="BE537" s="1"/>
       <c r="BF537" s="1"/>
     </row>
-    <row r="538" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -32946,7 +32944,7 @@
       <c r="BE538" s="1"/>
       <c r="BF538" s="1"/>
     </row>
-    <row r="539" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -33006,7 +33004,7 @@
       <c r="BE539" s="1"/>
       <c r="BF539" s="1"/>
     </row>
-    <row r="540" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -33066,7 +33064,7 @@
       <c r="BE540" s="1"/>
       <c r="BF540" s="1"/>
     </row>
-    <row r="541" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -33126,7 +33124,7 @@
       <c r="BE541" s="1"/>
       <c r="BF541" s="1"/>
     </row>
-    <row r="542" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -33186,7 +33184,7 @@
       <c r="BE542" s="1"/>
       <c r="BF542" s="1"/>
     </row>
-    <row r="543" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -33246,7 +33244,7 @@
       <c r="BE543" s="1"/>
       <c r="BF543" s="1"/>
     </row>
-    <row r="544" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -33306,7 +33304,7 @@
       <c r="BE544" s="1"/>
       <c r="BF544" s="1"/>
     </row>
-    <row r="545" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -33366,7 +33364,7 @@
       <c r="BE545" s="1"/>
       <c r="BF545" s="1"/>
     </row>
-    <row r="546" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -33426,7 +33424,7 @@
       <c r="BE546" s="1"/>
       <c r="BF546" s="1"/>
     </row>
-    <row r="547" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -33486,7 +33484,7 @@
       <c r="BE547" s="1"/>
       <c r="BF547" s="1"/>
     </row>
-    <row r="548" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -33546,7 +33544,7 @@
       <c r="BE548" s="1"/>
       <c r="BF548" s="1"/>
     </row>
-    <row r="549" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -33606,7 +33604,7 @@
       <c r="BE549" s="1"/>
       <c r="BF549" s="1"/>
     </row>
-    <row r="550" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -33666,7 +33664,7 @@
       <c r="BE550" s="1"/>
       <c r="BF550" s="1"/>
     </row>
-    <row r="551" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -33726,7 +33724,7 @@
       <c r="BE551" s="1"/>
       <c r="BF551" s="1"/>
     </row>
-    <row r="552" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -33786,7 +33784,7 @@
       <c r="BE552" s="1"/>
       <c r="BF552" s="1"/>
     </row>
-    <row r="553" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -33846,7 +33844,7 @@
       <c r="BE553" s="1"/>
       <c r="BF553" s="1"/>
     </row>
-    <row r="554" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -33906,7 +33904,7 @@
       <c r="BE554" s="1"/>
       <c r="BF554" s="1"/>
     </row>
-    <row r="555" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -33966,7 +33964,7 @@
       <c r="BE555" s="1"/>
       <c r="BF555" s="1"/>
     </row>
-    <row r="556" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -34026,7 +34024,7 @@
       <c r="BE556" s="1"/>
       <c r="BF556" s="1"/>
     </row>
-    <row r="557" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -34086,7 +34084,7 @@
       <c r="BE557" s="1"/>
       <c r="BF557" s="1"/>
     </row>
-    <row r="558" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -34146,7 +34144,7 @@
       <c r="BE558" s="1"/>
       <c r="BF558" s="1"/>
     </row>
-    <row r="559" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -34206,7 +34204,7 @@
       <c r="BE559" s="1"/>
       <c r="BF559" s="1"/>
     </row>
-    <row r="560" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -34266,7 +34264,7 @@
       <c r="BE560" s="1"/>
       <c r="BF560" s="1"/>
     </row>
-    <row r="561" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -34326,7 +34324,7 @@
       <c r="BE561" s="1"/>
       <c r="BF561" s="1"/>
     </row>
-    <row r="562" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -34386,7 +34384,7 @@
       <c r="BE562" s="1"/>
       <c r="BF562" s="1"/>
     </row>
-    <row r="563" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -34446,7 +34444,7 @@
       <c r="BE563" s="1"/>
       <c r="BF563" s="1"/>
     </row>
-    <row r="564" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -34506,7 +34504,7 @@
       <c r="BE564" s="1"/>
       <c r="BF564" s="1"/>
     </row>
-    <row r="565" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -34566,7 +34564,7 @@
       <c r="BE565" s="1"/>
       <c r="BF565" s="1"/>
     </row>
-    <row r="566" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -34626,7 +34624,7 @@
       <c r="BE566" s="1"/>
       <c r="BF566" s="1"/>
     </row>
-    <row r="567" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -34686,7 +34684,7 @@
       <c r="BE567" s="1"/>
       <c r="BF567" s="1"/>
     </row>
-    <row r="568" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -34746,7 +34744,7 @@
       <c r="BE568" s="1"/>
       <c r="BF568" s="1"/>
     </row>
-    <row r="569" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -34806,7 +34804,7 @@
       <c r="BE569" s="1"/>
       <c r="BF569" s="1"/>
     </row>
-    <row r="570" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -34866,7 +34864,7 @@
       <c r="BE570" s="1"/>
       <c r="BF570" s="1"/>
     </row>
-    <row r="571" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -34926,7 +34924,7 @@
       <c r="BE571" s="1"/>
       <c r="BF571" s="1"/>
     </row>
-    <row r="572" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -34986,7 +34984,7 @@
       <c r="BE572" s="1"/>
       <c r="BF572" s="1"/>
     </row>
-    <row r="573" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -35046,7 +35044,7 @@
       <c r="BE573" s="1"/>
       <c r="BF573" s="1"/>
     </row>
-    <row r="574" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -35106,7 +35104,7 @@
       <c r="BE574" s="1"/>
       <c r="BF574" s="1"/>
     </row>
-    <row r="575" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -35166,7 +35164,7 @@
       <c r="BE575" s="1"/>
       <c r="BF575" s="1"/>
     </row>
-    <row r="576" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -35226,7 +35224,7 @@
       <c r="BE576" s="1"/>
       <c r="BF576" s="1"/>
     </row>
-    <row r="577" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -35286,7 +35284,7 @@
       <c r="BE577" s="1"/>
       <c r="BF577" s="1"/>
     </row>
-    <row r="578" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -35346,7 +35344,7 @@
       <c r="BE578" s="1"/>
       <c r="BF578" s="1"/>
     </row>
-    <row r="579" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -35406,7 +35404,7 @@
       <c r="BE579" s="1"/>
       <c r="BF579" s="1"/>
     </row>
-    <row r="580" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -35466,7 +35464,7 @@
       <c r="BE580" s="1"/>
       <c r="BF580" s="1"/>
     </row>
-    <row r="581" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -35526,7 +35524,7 @@
       <c r="BE581" s="1"/>
       <c r="BF581" s="1"/>
     </row>
-    <row r="582" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -35586,7 +35584,7 @@
       <c r="BE582" s="1"/>
       <c r="BF582" s="1"/>
     </row>
-    <row r="583" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -35646,7 +35644,7 @@
       <c r="BE583" s="1"/>
       <c r="BF583" s="1"/>
     </row>
-    <row r="584" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -35706,7 +35704,7 @@
       <c r="BE584" s="1"/>
       <c r="BF584" s="1"/>
     </row>
-    <row r="585" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -35766,7 +35764,7 @@
       <c r="BE585" s="1"/>
       <c r="BF585" s="1"/>
     </row>
-    <row r="586" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -35826,7 +35824,7 @@
       <c r="BE586" s="1"/>
       <c r="BF586" s="1"/>
     </row>
-    <row r="587" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -35886,7 +35884,7 @@
       <c r="BE587" s="1"/>
       <c r="BF587" s="1"/>
     </row>
-    <row r="588" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -35946,7 +35944,7 @@
       <c r="BE588" s="1"/>
       <c r="BF588" s="1"/>
     </row>
-    <row r="589" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -36006,7 +36004,7 @@
       <c r="BE589" s="1"/>
       <c r="BF589" s="1"/>
     </row>
-    <row r="590" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -36066,7 +36064,7 @@
       <c r="BE590" s="1"/>
       <c r="BF590" s="1"/>
     </row>
-    <row r="591" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -36126,7 +36124,7 @@
       <c r="BE591" s="1"/>
       <c r="BF591" s="1"/>
     </row>
-    <row r="592" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -36186,7 +36184,7 @@
       <c r="BE592" s="1"/>
       <c r="BF592" s="1"/>
     </row>
-    <row r="593" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -36246,7 +36244,7 @@
       <c r="BE593" s="1"/>
       <c r="BF593" s="1"/>
     </row>
-    <row r="594" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -36306,7 +36304,7 @@
       <c r="BE594" s="1"/>
       <c r="BF594" s="1"/>
     </row>
-    <row r="595" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -36366,7 +36364,7 @@
       <c r="BE595" s="1"/>
       <c r="BF595" s="1"/>
     </row>
-    <row r="596" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -36426,7 +36424,7 @@
       <c r="BE596" s="1"/>
       <c r="BF596" s="1"/>
     </row>
-    <row r="597" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -36486,7 +36484,7 @@
       <c r="BE597" s="1"/>
       <c r="BF597" s="1"/>
     </row>
-    <row r="598" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -36546,7 +36544,7 @@
       <c r="BE598" s="1"/>
       <c r="BF598" s="1"/>
     </row>
-    <row r="599" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -36606,7 +36604,7 @@
       <c r="BE599" s="1"/>
       <c r="BF599" s="1"/>
     </row>
-    <row r="600" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -36666,7 +36664,7 @@
       <c r="BE600" s="1"/>
       <c r="BF600" s="1"/>
     </row>
-    <row r="601" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -36726,7 +36724,7 @@
       <c r="BE601" s="1"/>
       <c r="BF601" s="1"/>
     </row>
-    <row r="602" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -36786,7 +36784,7 @@
       <c r="BE602" s="1"/>
       <c r="BF602" s="1"/>
     </row>
-    <row r="603" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -36846,7 +36844,7 @@
       <c r="BE603" s="1"/>
       <c r="BF603" s="1"/>
     </row>
-    <row r="604" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -36906,7 +36904,7 @@
       <c r="BE604" s="1"/>
       <c r="BF604" s="1"/>
     </row>
-    <row r="605" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -36966,7 +36964,7 @@
       <c r="BE605" s="1"/>
       <c r="BF605" s="1"/>
     </row>
-    <row r="606" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -37026,7 +37024,7 @@
       <c r="BE606" s="1"/>
       <c r="BF606" s="1"/>
     </row>
-    <row r="607" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -37086,7 +37084,7 @@
       <c r="BE607" s="1"/>
       <c r="BF607" s="1"/>
     </row>
-    <row r="608" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -37146,7 +37144,7 @@
       <c r="BE608" s="1"/>
       <c r="BF608" s="1"/>
     </row>
-    <row r="609" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -37206,7 +37204,7 @@
       <c r="BE609" s="1"/>
       <c r="BF609" s="1"/>
     </row>
-    <row r="610" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -37266,7 +37264,7 @@
       <c r="BE610" s="1"/>
       <c r="BF610" s="1"/>
     </row>
-    <row r="611" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -37326,7 +37324,7 @@
       <c r="BE611" s="1"/>
       <c r="BF611" s="1"/>
     </row>
-    <row r="612" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -37386,7 +37384,7 @@
       <c r="BE612" s="1"/>
       <c r="BF612" s="1"/>
     </row>
-    <row r="613" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -37446,7 +37444,7 @@
       <c r="BE613" s="1"/>
       <c r="BF613" s="1"/>
     </row>
-    <row r="614" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -37506,7 +37504,7 @@
       <c r="BE614" s="1"/>
       <c r="BF614" s="1"/>
     </row>
-    <row r="615" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -37566,7 +37564,7 @@
       <c r="BE615" s="1"/>
       <c r="BF615" s="1"/>
     </row>
-    <row r="616" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -37626,7 +37624,7 @@
       <c r="BE616" s="1"/>
       <c r="BF616" s="1"/>
     </row>
-    <row r="617" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -37686,7 +37684,7 @@
       <c r="BE617" s="1"/>
       <c r="BF617" s="1"/>
     </row>
-    <row r="618" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -37746,7 +37744,7 @@
       <c r="BE618" s="1"/>
       <c r="BF618" s="1"/>
     </row>
-    <row r="619" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -37806,7 +37804,7 @@
       <c r="BE619" s="1"/>
       <c r="BF619" s="1"/>
     </row>
-    <row r="620" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -37866,7 +37864,7 @@
       <c r="BE620" s="1"/>
       <c r="BF620" s="1"/>
     </row>
-    <row r="621" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -37926,7 +37924,7 @@
       <c r="BE621" s="1"/>
       <c r="BF621" s="1"/>
     </row>
-    <row r="622" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -37986,7 +37984,7 @@
       <c r="BE622" s="1"/>
       <c r="BF622" s="1"/>
     </row>
-    <row r="623" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -38046,7 +38044,7 @@
       <c r="BE623" s="1"/>
       <c r="BF623" s="1"/>
     </row>
-    <row r="624" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -38106,7 +38104,7 @@
       <c r="BE624" s="1"/>
       <c r="BF624" s="1"/>
     </row>
-    <row r="625" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -38166,7 +38164,7 @@
       <c r="BE625" s="1"/>
       <c r="BF625" s="1"/>
     </row>
-    <row r="626" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -38226,7 +38224,7 @@
       <c r="BE626" s="1"/>
       <c r="BF626" s="1"/>
     </row>
-    <row r="627" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -38286,7 +38284,7 @@
       <c r="BE627" s="1"/>
       <c r="BF627" s="1"/>
     </row>
-    <row r="628" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -38346,7 +38344,7 @@
       <c r="BE628" s="1"/>
       <c r="BF628" s="1"/>
     </row>
-    <row r="629" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -38406,7 +38404,7 @@
       <c r="BE629" s="1"/>
       <c r="BF629" s="1"/>
     </row>
-    <row r="630" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -38466,7 +38464,7 @@
       <c r="BE630" s="1"/>
       <c r="BF630" s="1"/>
     </row>
-    <row r="631" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -38526,7 +38524,7 @@
       <c r="BE631" s="1"/>
       <c r="BF631" s="1"/>
     </row>
-    <row r="632" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -38586,7 +38584,7 @@
       <c r="BE632" s="1"/>
       <c r="BF632" s="1"/>
     </row>
-    <row r="633" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -38646,7 +38644,7 @@
       <c r="BE633" s="1"/>
       <c r="BF633" s="1"/>
     </row>
-    <row r="634" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -38706,7 +38704,7 @@
       <c r="BE634" s="1"/>
       <c r="BF634" s="1"/>
     </row>
-    <row r="635" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -38766,7 +38764,7 @@
       <c r="BE635" s="1"/>
       <c r="BF635" s="1"/>
     </row>
-    <row r="636" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -38826,7 +38824,7 @@
       <c r="BE636" s="1"/>
       <c r="BF636" s="1"/>
     </row>
-    <row r="637" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -38886,7 +38884,7 @@
       <c r="BE637" s="1"/>
       <c r="BF637" s="1"/>
     </row>
-    <row r="638" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -38946,7 +38944,7 @@
       <c r="BE638" s="1"/>
       <c r="BF638" s="1"/>
     </row>
-    <row r="639" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -39006,7 +39004,7 @@
       <c r="BE639" s="1"/>
       <c r="BF639" s="1"/>
     </row>
-    <row r="640" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -39066,7 +39064,7 @@
       <c r="BE640" s="1"/>
       <c r="BF640" s="1"/>
     </row>
-    <row r="641" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -39126,7 +39124,7 @@
       <c r="BE641" s="1"/>
       <c r="BF641" s="1"/>
     </row>
-    <row r="642" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -39186,7 +39184,7 @@
       <c r="BE642" s="1"/>
       <c r="BF642" s="1"/>
     </row>
-    <row r="643" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -39246,7 +39244,7 @@
       <c r="BE643" s="1"/>
       <c r="BF643" s="1"/>
     </row>
-    <row r="644" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -39306,7 +39304,7 @@
       <c r="BE644" s="1"/>
       <c r="BF644" s="1"/>
     </row>
-    <row r="645" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -39366,7 +39364,7 @@
       <c r="BE645" s="1"/>
       <c r="BF645" s="1"/>
     </row>
-    <row r="646" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -39426,7 +39424,7 @@
       <c r="BE646" s="1"/>
       <c r="BF646" s="1"/>
     </row>
-    <row r="647" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -39486,7 +39484,7 @@
       <c r="BE647" s="1"/>
       <c r="BF647" s="1"/>
     </row>
-    <row r="648" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -39546,7 +39544,7 @@
       <c r="BE648" s="1"/>
       <c r="BF648" s="1"/>
     </row>
-    <row r="649" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -39606,7 +39604,7 @@
       <c r="BE649" s="1"/>
       <c r="BF649" s="1"/>
     </row>
-    <row r="650" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -39666,7 +39664,7 @@
       <c r="BE650" s="1"/>
       <c r="BF650" s="1"/>
     </row>
-    <row r="651" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -39726,7 +39724,7 @@
       <c r="BE651" s="1"/>
       <c r="BF651" s="1"/>
     </row>
-    <row r="652" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -39786,7 +39784,7 @@
       <c r="BE652" s="1"/>
       <c r="BF652" s="1"/>
     </row>
-    <row r="653" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -39846,7 +39844,7 @@
       <c r="BE653" s="1"/>
       <c r="BF653" s="1"/>
     </row>
-    <row r="654" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -39906,7 +39904,7 @@
       <c r="BE654" s="1"/>
       <c r="BF654" s="1"/>
     </row>
-    <row r="655" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -39966,7 +39964,7 @@
       <c r="BE655" s="1"/>
       <c r="BF655" s="1"/>
     </row>
-    <row r="656" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -40026,7 +40024,7 @@
       <c r="BE656" s="1"/>
       <c r="BF656" s="1"/>
     </row>
-    <row r="657" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -40086,7 +40084,7 @@
       <c r="BE657" s="1"/>
       <c r="BF657" s="1"/>
     </row>
-    <row r="658" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -40146,7 +40144,7 @@
       <c r="BE658" s="1"/>
       <c r="BF658" s="1"/>
     </row>
-    <row r="659" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -40206,7 +40204,7 @@
       <c r="BE659" s="1"/>
       <c r="BF659" s="1"/>
     </row>
-    <row r="660" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -40266,7 +40264,7 @@
       <c r="BE660" s="1"/>
       <c r="BF660" s="1"/>
     </row>
-    <row r="661" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -40326,7 +40324,7 @@
       <c r="BE661" s="1"/>
       <c r="BF661" s="1"/>
     </row>
-    <row r="662" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -40386,7 +40384,7 @@
       <c r="BE662" s="1"/>
       <c r="BF662" s="1"/>
     </row>
-    <row r="663" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -40446,7 +40444,7 @@
       <c r="BE663" s="1"/>
       <c r="BF663" s="1"/>
     </row>
-    <row r="664" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -40506,7 +40504,7 @@
       <c r="BE664" s="1"/>
       <c r="BF664" s="1"/>
     </row>
-    <row r="665" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -40566,7 +40564,7 @@
       <c r="BE665" s="1"/>
       <c r="BF665" s="1"/>
     </row>
-    <row r="666" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -40626,7 +40624,7 @@
       <c r="BE666" s="1"/>
       <c r="BF666" s="1"/>
     </row>
-    <row r="667" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -40686,7 +40684,7 @@
       <c r="BE667" s="1"/>
       <c r="BF667" s="1"/>
     </row>
-    <row r="668" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -40746,7 +40744,7 @@
       <c r="BE668" s="1"/>
       <c r="BF668" s="1"/>
     </row>
-    <row r="669" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -40806,7 +40804,7 @@
       <c r="BE669" s="1"/>
       <c r="BF669" s="1"/>
     </row>
-    <row r="670" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -40866,7 +40864,7 @@
       <c r="BE670" s="1"/>
       <c r="BF670" s="1"/>
     </row>
-    <row r="671" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -40926,7 +40924,7 @@
       <c r="BE671" s="1"/>
       <c r="BF671" s="1"/>
     </row>
-    <row r="672" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -40986,7 +40984,7 @@
       <c r="BE672" s="1"/>
       <c r="BF672" s="1"/>
     </row>
-    <row r="673" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -41046,7 +41044,7 @@
       <c r="BE673" s="1"/>
       <c r="BF673" s="1"/>
     </row>
-    <row r="674" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -41106,7 +41104,7 @@
       <c r="BE674" s="1"/>
       <c r="BF674" s="1"/>
     </row>
-    <row r="675" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -41166,7 +41164,7 @@
       <c r="BE675" s="1"/>
       <c r="BF675" s="1"/>
     </row>
-    <row r="676" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -41226,7 +41224,7 @@
       <c r="BE676" s="1"/>
       <c r="BF676" s="1"/>
     </row>
-    <row r="677" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -41286,7 +41284,7 @@
       <c r="BE677" s="1"/>
       <c r="BF677" s="1"/>
     </row>
-    <row r="678" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -41346,7 +41344,7 @@
       <c r="BE678" s="1"/>
       <c r="BF678" s="1"/>
     </row>
-    <row r="679" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -41406,7 +41404,7 @@
       <c r="BE679" s="1"/>
       <c r="BF679" s="1"/>
     </row>
-    <row r="680" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -41466,7 +41464,7 @@
       <c r="BE680" s="1"/>
       <c r="BF680" s="1"/>
     </row>
-    <row r="681" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -41526,7 +41524,7 @@
       <c r="BE681" s="1"/>
       <c r="BF681" s="1"/>
     </row>
-    <row r="682" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -41586,7 +41584,7 @@
       <c r="BE682" s="1"/>
       <c r="BF682" s="1"/>
     </row>
-    <row r="683" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -41646,7 +41644,7 @@
       <c r="BE683" s="1"/>
       <c r="BF683" s="1"/>
     </row>
-    <row r="684" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -41706,7 +41704,7 @@
       <c r="BE684" s="1"/>
       <c r="BF684" s="1"/>
     </row>
-    <row r="685" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -41766,7 +41764,7 @@
       <c r="BE685" s="1"/>
       <c r="BF685" s="1"/>
     </row>
-    <row r="686" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -41826,7 +41824,7 @@
       <c r="BE686" s="1"/>
       <c r="BF686" s="1"/>
     </row>
-    <row r="687" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -41886,7 +41884,7 @@
       <c r="BE687" s="1"/>
       <c r="BF687" s="1"/>
     </row>
-    <row r="688" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -41946,7 +41944,7 @@
       <c r="BE688" s="1"/>
       <c r="BF688" s="1"/>
     </row>
-    <row r="689" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -42006,7 +42004,7 @@
       <c r="BE689" s="1"/>
       <c r="BF689" s="1"/>
     </row>
-    <row r="690" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -42066,7 +42064,7 @@
       <c r="BE690" s="1"/>
       <c r="BF690" s="1"/>
     </row>
-    <row r="691" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -42126,7 +42124,7 @@
       <c r="BE691" s="1"/>
       <c r="BF691" s="1"/>
     </row>
-    <row r="692" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -42186,7 +42184,7 @@
       <c r="BE692" s="1"/>
       <c r="BF692" s="1"/>
     </row>
-    <row r="693" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -42246,7 +42244,7 @@
       <c r="BE693" s="1"/>
       <c r="BF693" s="1"/>
     </row>
-    <row r="694" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -42306,7 +42304,7 @@
       <c r="BE694" s="1"/>
       <c r="BF694" s="1"/>
     </row>
-    <row r="695" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -42366,7 +42364,7 @@
       <c r="BE695" s="1"/>
       <c r="BF695" s="1"/>
     </row>
-    <row r="696" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -42426,7 +42424,7 @@
       <c r="BE696" s="1"/>
       <c r="BF696" s="1"/>
     </row>
-    <row r="697" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -42486,7 +42484,7 @@
       <c r="BE697" s="1"/>
       <c r="BF697" s="1"/>
     </row>
-    <row r="698" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -42546,7 +42544,7 @@
       <c r="BE698" s="1"/>
       <c r="BF698" s="1"/>
     </row>
-    <row r="699" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -42606,7 +42604,7 @@
       <c r="BE699" s="1"/>
       <c r="BF699" s="1"/>
     </row>
-    <row r="700" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -42666,7 +42664,7 @@
       <c r="BE700" s="1"/>
       <c r="BF700" s="1"/>
     </row>
-    <row r="701" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -42726,7 +42724,7 @@
       <c r="BE701" s="1"/>
       <c r="BF701" s="1"/>
     </row>
-    <row r="702" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -42786,7 +42784,7 @@
       <c r="BE702" s="1"/>
       <c r="BF702" s="1"/>
     </row>
-    <row r="703" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -42846,7 +42844,7 @@
       <c r="BE703" s="1"/>
       <c r="BF703" s="1"/>
     </row>
-    <row r="704" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -42906,7 +42904,7 @@
       <c r="BE704" s="1"/>
       <c r="BF704" s="1"/>
     </row>
-    <row r="705" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -42966,7 +42964,7 @@
       <c r="BE705" s="1"/>
       <c r="BF705" s="1"/>
     </row>
-    <row r="706" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -43026,7 +43024,7 @@
       <c r="BE706" s="1"/>
       <c r="BF706" s="1"/>
     </row>
-    <row r="707" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -43086,7 +43084,7 @@
       <c r="BE707" s="1"/>
       <c r="BF707" s="1"/>
     </row>
-    <row r="708" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -43146,7 +43144,7 @@
       <c r="BE708" s="1"/>
       <c r="BF708" s="1"/>
     </row>
-    <row r="709" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -43206,7 +43204,7 @@
       <c r="BE709" s="1"/>
       <c r="BF709" s="1"/>
     </row>
-    <row r="710" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -43266,7 +43264,7 @@
       <c r="BE710" s="1"/>
       <c r="BF710" s="1"/>
     </row>
-    <row r="711" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -43326,7 +43324,7 @@
       <c r="BE711" s="1"/>
       <c r="BF711" s="1"/>
     </row>
-    <row r="712" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -43386,7 +43384,7 @@
       <c r="BE712" s="1"/>
       <c r="BF712" s="1"/>
     </row>
-    <row r="713" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -43446,7 +43444,7 @@
       <c r="BE713" s="1"/>
       <c r="BF713" s="1"/>
     </row>
-    <row r="714" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -43506,7 +43504,7 @@
       <c r="BE714" s="1"/>
       <c r="BF714" s="1"/>
     </row>
-    <row r="715" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -43566,7 +43564,7 @@
       <c r="BE715" s="1"/>
       <c r="BF715" s="1"/>
     </row>
-    <row r="716" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -43626,7 +43624,7 @@
       <c r="BE716" s="1"/>
       <c r="BF716" s="1"/>
     </row>
-    <row r="717" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -43686,7 +43684,7 @@
       <c r="BE717" s="1"/>
       <c r="BF717" s="1"/>
     </row>
-    <row r="718" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -43746,7 +43744,7 @@
       <c r="BE718" s="1"/>
       <c r="BF718" s="1"/>
     </row>
-    <row r="719" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -43806,7 +43804,7 @@
       <c r="BE719" s="1"/>
       <c r="BF719" s="1"/>
     </row>
-    <row r="720" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -43866,7 +43864,7 @@
       <c r="BE720" s="1"/>
       <c r="BF720" s="1"/>
     </row>
-    <row r="721" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -43926,7 +43924,7 @@
       <c r="BE721" s="1"/>
       <c r="BF721" s="1"/>
     </row>
-    <row r="722" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -43986,7 +43984,7 @@
       <c r="BE722" s="1"/>
       <c r="BF722" s="1"/>
     </row>
-    <row r="723" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -44046,7 +44044,7 @@
       <c r="BE723" s="1"/>
       <c r="BF723" s="1"/>
     </row>
-    <row r="724" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -44106,7 +44104,7 @@
       <c r="BE724" s="1"/>
       <c r="BF724" s="1"/>
     </row>
-    <row r="725" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -44166,7 +44164,7 @@
       <c r="BE725" s="1"/>
       <c r="BF725" s="1"/>
     </row>
-    <row r="726" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -44226,7 +44224,7 @@
       <c r="BE726" s="1"/>
       <c r="BF726" s="1"/>
     </row>
-    <row r="727" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -44286,7 +44284,7 @@
       <c r="BE727" s="1"/>
       <c r="BF727" s="1"/>
     </row>
-    <row r="728" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -44346,7 +44344,7 @@
       <c r="BE728" s="1"/>
       <c r="BF728" s="1"/>
     </row>
-    <row r="729" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -44406,7 +44404,7 @@
       <c r="BE729" s="1"/>
       <c r="BF729" s="1"/>
     </row>
-    <row r="730" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -44466,7 +44464,7 @@
       <c r="BE730" s="1"/>
       <c r="BF730" s="1"/>
     </row>
-    <row r="731" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -44526,7 +44524,7 @@
       <c r="BE731" s="1"/>
       <c r="BF731" s="1"/>
     </row>
-    <row r="732" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -44586,7 +44584,7 @@
       <c r="BE732" s="1"/>
       <c r="BF732" s="1"/>
     </row>
-    <row r="733" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -44646,7 +44644,7 @@
       <c r="BE733" s="1"/>
       <c r="BF733" s="1"/>
     </row>
-    <row r="734" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -44706,7 +44704,7 @@
       <c r="BE734" s="1"/>
       <c r="BF734" s="1"/>
     </row>
-    <row r="735" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -44766,7 +44764,7 @@
       <c r="BE735" s="1"/>
       <c r="BF735" s="1"/>
     </row>
-    <row r="736" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -44826,7 +44824,7 @@
       <c r="BE736" s="1"/>
       <c r="BF736" s="1"/>
     </row>
-    <row r="737" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -44886,7 +44884,7 @@
       <c r="BE737" s="1"/>
       <c r="BF737" s="1"/>
     </row>
-    <row r="738" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -44946,7 +44944,7 @@
       <c r="BE738" s="1"/>
       <c r="BF738" s="1"/>
     </row>
-    <row r="739" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -45006,7 +45004,7 @@
       <c r="BE739" s="1"/>
       <c r="BF739" s="1"/>
     </row>
-    <row r="740" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -45066,7 +45064,7 @@
       <c r="BE740" s="1"/>
       <c r="BF740" s="1"/>
     </row>
-    <row r="741" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -45126,7 +45124,7 @@
       <c r="BE741" s="1"/>
       <c r="BF741" s="1"/>
     </row>
-    <row r="742" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -45186,7 +45184,7 @@
       <c r="BE742" s="1"/>
       <c r="BF742" s="1"/>
     </row>
-    <row r="743" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -45246,7 +45244,7 @@
       <c r="BE743" s="1"/>
       <c r="BF743" s="1"/>
     </row>
-    <row r="744" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -45306,7 +45304,7 @@
       <c r="BE744" s="1"/>
       <c r="BF744" s="1"/>
     </row>
-    <row r="745" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -45366,7 +45364,7 @@
       <c r="BE745" s="1"/>
       <c r="BF745" s="1"/>
     </row>
-    <row r="746" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -45426,7 +45424,7 @@
       <c r="BE746" s="1"/>
       <c r="BF746" s="1"/>
     </row>
-    <row r="747" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -45486,7 +45484,7 @@
       <c r="BE747" s="1"/>
       <c r="BF747" s="1"/>
     </row>
-    <row r="748" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -45546,7 +45544,7 @@
       <c r="BE748" s="1"/>
       <c r="BF748" s="1"/>
     </row>
-    <row r="749" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -45606,7 +45604,7 @@
       <c r="BE749" s="1"/>
       <c r="BF749" s="1"/>
     </row>
-    <row r="750" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -45666,7 +45664,7 @@
       <c r="BE750" s="1"/>
       <c r="BF750" s="1"/>
     </row>
-    <row r="751" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -45726,7 +45724,7 @@
       <c r="BE751" s="1"/>
       <c r="BF751" s="1"/>
     </row>
-    <row r="752" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -45786,7 +45784,7 @@
       <c r="BE752" s="1"/>
       <c r="BF752" s="1"/>
     </row>
-    <row r="753" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -45846,7 +45844,7 @@
       <c r="BE753" s="1"/>
       <c r="BF753" s="1"/>
     </row>
-    <row r="754" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -45906,7 +45904,7 @@
       <c r="BE754" s="1"/>
       <c r="BF754" s="1"/>
     </row>
-    <row r="755" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -45966,7 +45964,7 @@
       <c r="BE755" s="1"/>
       <c r="BF755" s="1"/>
     </row>
-    <row r="756" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -46026,7 +46024,7 @@
       <c r="BE756" s="1"/>
       <c r="BF756" s="1"/>
     </row>
-    <row r="757" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -46086,7 +46084,7 @@
       <c r="BE757" s="1"/>
       <c r="BF757" s="1"/>
     </row>
-    <row r="758" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -46146,7 +46144,7 @@
       <c r="BE758" s="1"/>
       <c r="BF758" s="1"/>
     </row>
-    <row r="759" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -46206,7 +46204,7 @@
       <c r="BE759" s="1"/>
       <c r="BF759" s="1"/>
     </row>
-    <row r="760" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -46266,7 +46264,7 @@
       <c r="BE760" s="1"/>
       <c r="BF760" s="1"/>
     </row>
-    <row r="761" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -46326,7 +46324,7 @@
       <c r="BE761" s="1"/>
       <c r="BF761" s="1"/>
     </row>
-    <row r="762" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -46386,7 +46384,7 @@
       <c r="BE762" s="1"/>
       <c r="BF762" s="1"/>
     </row>
-    <row r="763" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -46446,7 +46444,7 @@
       <c r="BE763" s="1"/>
       <c r="BF763" s="1"/>
     </row>
-    <row r="764" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -46506,7 +46504,7 @@
       <c r="BE764" s="1"/>
       <c r="BF764" s="1"/>
     </row>
-    <row r="765" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -46566,7 +46564,7 @@
       <c r="BE765" s="1"/>
       <c r="BF765" s="1"/>
     </row>
-    <row r="766" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -46626,7 +46624,7 @@
       <c r="BE766" s="1"/>
       <c r="BF766" s="1"/>
     </row>
-    <row r="767" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -46686,7 +46684,7 @@
       <c r="BE767" s="1"/>
       <c r="BF767" s="1"/>
     </row>
-    <row r="768" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -46746,7 +46744,7 @@
       <c r="BE768" s="1"/>
       <c r="BF768" s="1"/>
     </row>
-    <row r="769" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -46806,7 +46804,7 @@
       <c r="BE769" s="1"/>
       <c r="BF769" s="1"/>
     </row>
-    <row r="770" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -46866,7 +46864,7 @@
       <c r="BE770" s="1"/>
       <c r="BF770" s="1"/>
     </row>
-    <row r="771" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -46926,7 +46924,7 @@
       <c r="BE771" s="1"/>
       <c r="BF771" s="1"/>
     </row>
-    <row r="772" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -46986,7 +46984,7 @@
       <c r="BE772" s="1"/>
       <c r="BF772" s="1"/>
     </row>
-    <row r="773" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -47046,7 +47044,7 @@
       <c r="BE773" s="1"/>
       <c r="BF773" s="1"/>
     </row>
-    <row r="774" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -47106,7 +47104,7 @@
       <c r="BE774" s="1"/>
       <c r="BF774" s="1"/>
     </row>
-    <row r="775" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -47166,7 +47164,7 @@
       <c r="BE775" s="1"/>
       <c r="BF775" s="1"/>
     </row>
-    <row r="776" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -47226,7 +47224,7 @@
       <c r="BE776" s="1"/>
       <c r="BF776" s="1"/>
     </row>
-    <row r="777" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -47286,7 +47284,7 @@
       <c r="BE777" s="1"/>
       <c r="BF777" s="1"/>
     </row>
-    <row r="778" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -47346,7 +47344,7 @@
       <c r="BE778" s="1"/>
       <c r="BF778" s="1"/>
     </row>
-    <row r="779" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -47406,7 +47404,7 @@
       <c r="BE779" s="1"/>
       <c r="BF779" s="1"/>
     </row>
-    <row r="780" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -47466,7 +47464,7 @@
       <c r="BE780" s="1"/>
       <c r="BF780" s="1"/>
     </row>
-    <row r="781" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -47526,7 +47524,7 @@
       <c r="BE781" s="1"/>
       <c r="BF781" s="1"/>
     </row>
-    <row r="782" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -47586,7 +47584,7 @@
       <c r="BE782" s="1"/>
       <c r="BF782" s="1"/>
     </row>
-    <row r="783" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -47646,7 +47644,7 @@
       <c r="BE783" s="1"/>
       <c r="BF783" s="1"/>
     </row>
-    <row r="784" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -47706,7 +47704,7 @@
       <c r="BE784" s="1"/>
       <c r="BF784" s="1"/>
     </row>
-    <row r="785" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -47766,7 +47764,7 @@
       <c r="BE785" s="1"/>
       <c r="BF785" s="1"/>
     </row>
-    <row r="786" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -47826,7 +47824,7 @@
       <c r="BE786" s="1"/>
       <c r="BF786" s="1"/>
     </row>
-    <row r="787" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -47886,7 +47884,7 @@
       <c r="BE787" s="1"/>
       <c r="BF787" s="1"/>
     </row>
-    <row r="788" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -47946,7 +47944,7 @@
       <c r="BE788" s="1"/>
       <c r="BF788" s="1"/>
     </row>
-    <row r="789" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -48006,7 +48004,7 @@
       <c r="BE789" s="1"/>
       <c r="BF789" s="1"/>
     </row>
-    <row r="790" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -48066,7 +48064,7 @@
       <c r="BE790" s="1"/>
       <c r="BF790" s="1"/>
     </row>
-    <row r="791" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -48126,7 +48124,7 @@
       <c r="BE791" s="1"/>
       <c r="BF791" s="1"/>
     </row>
-    <row r="792" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -48186,7 +48184,7 @@
       <c r="BE792" s="1"/>
       <c r="BF792" s="1"/>
     </row>
-    <row r="793" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -48246,7 +48244,7 @@
       <c r="BE793" s="1"/>
       <c r="BF793" s="1"/>
     </row>
-    <row r="794" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -48306,7 +48304,7 @@
       <c r="BE794" s="1"/>
       <c r="BF794" s="1"/>
     </row>
-    <row r="795" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -48366,7 +48364,7 @@
       <c r="BE795" s="1"/>
       <c r="BF795" s="1"/>
     </row>
-    <row r="796" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -48426,7 +48424,7 @@
       <c r="BE796" s="1"/>
       <c r="BF796" s="1"/>
     </row>
-    <row r="797" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -48486,7 +48484,7 @@
       <c r="BE797" s="1"/>
       <c r="BF797" s="1"/>
     </row>
-    <row r="798" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -48546,7 +48544,7 @@
       <c r="BE798" s="1"/>
       <c r="BF798" s="1"/>
     </row>
-    <row r="799" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -48606,7 +48604,7 @@
       <c r="BE799" s="1"/>
       <c r="BF799" s="1"/>
     </row>
-    <row r="800" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -48666,7 +48664,7 @@
       <c r="BE800" s="1"/>
       <c r="BF800" s="1"/>
     </row>
-    <row r="801" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -48726,7 +48724,7 @@
       <c r="BE801" s="1"/>
       <c r="BF801" s="1"/>
     </row>
-    <row r="802" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -48786,7 +48784,7 @@
       <c r="BE802" s="1"/>
       <c r="BF802" s="1"/>
     </row>
-    <row r="803" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -48846,7 +48844,7 @@
       <c r="BE803" s="1"/>
       <c r="BF803" s="1"/>
     </row>
-    <row r="804" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -48906,7 +48904,7 @@
       <c r="BE804" s="1"/>
       <c r="BF804" s="1"/>
     </row>
-    <row r="805" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -48966,7 +48964,7 @@
       <c r="BE805" s="1"/>
       <c r="BF805" s="1"/>
     </row>
-    <row r="806" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -49026,7 +49024,7 @@
       <c r="BE806" s="1"/>
       <c r="BF806" s="1"/>
     </row>
-    <row r="807" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -49086,7 +49084,7 @@
       <c r="BE807" s="1"/>
       <c r="BF807" s="1"/>
     </row>
-    <row r="808" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -49146,7 +49144,7 @@
       <c r="BE808" s="1"/>
       <c r="BF808" s="1"/>
     </row>
-    <row r="809" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -49206,7 +49204,7 @@
       <c r="BE809" s="1"/>
       <c r="BF809" s="1"/>
     </row>
-    <row r="810" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -49266,7 +49264,7 @@
       <c r="BE810" s="1"/>
       <c r="BF810" s="1"/>
     </row>
-    <row r="811" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -49326,7 +49324,7 @@
       <c r="BE811" s="1"/>
       <c r="BF811" s="1"/>
     </row>
-    <row r="812" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -49386,7 +49384,7 @@
       <c r="BE812" s="1"/>
       <c r="BF812" s="1"/>
     </row>
-    <row r="813" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -49446,7 +49444,7 @@
       <c r="BE813" s="1"/>
       <c r="BF813" s="1"/>
     </row>
-    <row r="814" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -49506,7 +49504,7 @@
       <c r="BE814" s="1"/>
       <c r="BF814" s="1"/>
     </row>
-    <row r="815" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -49566,7 +49564,7 @@
       <c r="BE815" s="1"/>
       <c r="BF815" s="1"/>
     </row>
-    <row r="816" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -49626,7 +49624,7 @@
       <c r="BE816" s="1"/>
       <c r="BF816" s="1"/>
     </row>
-    <row r="817" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -49686,7 +49684,7 @@
       <c r="BE817" s="1"/>
       <c r="BF817" s="1"/>
     </row>
-    <row r="818" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -49746,7 +49744,7 @@
       <c r="BE818" s="1"/>
       <c r="BF818" s="1"/>
     </row>
-    <row r="819" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -49806,7 +49804,7 @@
       <c r="BE819" s="1"/>
       <c r="BF819" s="1"/>
     </row>
-    <row r="820" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -49866,7 +49864,7 @@
       <c r="BE820" s="1"/>
       <c r="BF820" s="1"/>
     </row>
-    <row r="821" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -49926,7 +49924,7 @@
       <c r="BE821" s="1"/>
       <c r="BF821" s="1"/>
     </row>
-    <row r="822" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -49986,7 +49984,7 @@
       <c r="BE822" s="1"/>
       <c r="BF822" s="1"/>
     </row>
-    <row r="823" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -50046,7 +50044,7 @@
       <c r="BE823" s="1"/>
       <c r="BF823" s="1"/>
     </row>
-    <row r="824" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -50106,7 +50104,7 @@
       <c r="BE824" s="1"/>
       <c r="BF824" s="1"/>
     </row>
-    <row r="825" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -50166,7 +50164,7 @@
       <c r="BE825" s="1"/>
       <c r="BF825" s="1"/>
     </row>
-    <row r="826" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -50226,7 +50224,7 @@
       <c r="BE826" s="1"/>
       <c r="BF826" s="1"/>
     </row>
-    <row r="827" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -50286,7 +50284,7 @@
       <c r="BE827" s="1"/>
       <c r="BF827" s="1"/>
     </row>
-    <row r="828" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -50346,7 +50344,7 @@
       <c r="BE828" s="1"/>
       <c r="BF828" s="1"/>
     </row>
-    <row r="829" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -50406,7 +50404,7 @@
       <c r="BE829" s="1"/>
       <c r="BF829" s="1"/>
     </row>
-    <row r="830" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -50466,7 +50464,7 @@
       <c r="BE830" s="1"/>
       <c r="BF830" s="1"/>
     </row>
-    <row r="831" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -50526,7 +50524,7 @@
       <c r="BE831" s="1"/>
       <c r="BF831" s="1"/>
     </row>
-    <row r="832" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -50586,7 +50584,7 @@
       <c r="BE832" s="1"/>
       <c r="BF832" s="1"/>
     </row>
-    <row r="833" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -50646,7 +50644,7 @@
       <c r="BE833" s="1"/>
       <c r="BF833" s="1"/>
     </row>
-    <row r="834" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -50706,7 +50704,7 @@
       <c r="BE834" s="1"/>
       <c r="BF834" s="1"/>
     </row>
-    <row r="835" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -50766,7 +50764,7 @@
       <c r="BE835" s="1"/>
       <c r="BF835" s="1"/>
     </row>
-    <row r="836" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -50826,7 +50824,7 @@
       <c r="BE836" s="1"/>
       <c r="BF836" s="1"/>
     </row>
-    <row r="837" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -50886,7 +50884,7 @@
       <c r="BE837" s="1"/>
       <c r="BF837" s="1"/>
     </row>
-    <row r="838" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -50946,7 +50944,7 @@
       <c r="BE838" s="1"/>
       <c r="BF838" s="1"/>
     </row>
-    <row r="839" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -51006,7 +51004,7 @@
       <c r="BE839" s="1"/>
       <c r="BF839" s="1"/>
     </row>
-    <row r="840" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -51066,7 +51064,7 @@
       <c r="BE840" s="1"/>
       <c r="BF840" s="1"/>
     </row>
-    <row r="841" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -51126,7 +51124,7 @@
       <c r="BE841" s="1"/>
       <c r="BF841" s="1"/>
     </row>
-    <row r="842" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -51186,7 +51184,7 @@
       <c r="BE842" s="1"/>
       <c r="BF842" s="1"/>
     </row>
-    <row r="843" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -51246,7 +51244,7 @@
       <c r="BE843" s="1"/>
       <c r="BF843" s="1"/>
     </row>
-    <row r="844" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -51306,7 +51304,7 @@
       <c r="BE844" s="1"/>
       <c r="BF844" s="1"/>
     </row>
-    <row r="845" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -51366,7 +51364,7 @@
       <c r="BE845" s="1"/>
       <c r="BF845" s="1"/>
     </row>
-    <row r="846" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -51426,7 +51424,7 @@
       <c r="BE846" s="1"/>
       <c r="BF846" s="1"/>
     </row>
-    <row r="847" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -51486,7 +51484,7 @@
       <c r="BE847" s="1"/>
       <c r="BF847" s="1"/>
     </row>
-    <row r="848" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -51546,7 +51544,7 @@
       <c r="BE848" s="1"/>
       <c r="BF848" s="1"/>
     </row>
-    <row r="849" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -51606,7 +51604,7 @@
       <c r="BE849" s="1"/>
       <c r="BF849" s="1"/>
     </row>
-    <row r="850" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -51666,7 +51664,7 @@
       <c r="BE850" s="1"/>
       <c r="BF850" s="1"/>
     </row>
-    <row r="851" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -51726,7 +51724,7 @@
       <c r="BE851" s="1"/>
       <c r="BF851" s="1"/>
     </row>
-    <row r="852" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -51786,7 +51784,7 @@
       <c r="BE852" s="1"/>
       <c r="BF852" s="1"/>
     </row>
-    <row r="853" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -51846,7 +51844,7 @@
       <c r="BE853" s="1"/>
       <c r="BF853" s="1"/>
     </row>
-    <row r="854" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -51906,7 +51904,7 @@
       <c r="BE854" s="1"/>
       <c r="BF854" s="1"/>
     </row>
-    <row r="855" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -51966,7 +51964,7 @@
       <c r="BE855" s="1"/>
       <c r="BF855" s="1"/>
     </row>
-    <row r="856" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -52026,7 +52024,7 @@
       <c r="BE856" s="1"/>
       <c r="BF856" s="1"/>
     </row>
-    <row r="857" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -52086,7 +52084,7 @@
       <c r="BE857" s="1"/>
       <c r="BF857" s="1"/>
     </row>
-    <row r="858" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -52146,7 +52144,7 @@
       <c r="BE858" s="1"/>
       <c r="BF858" s="1"/>
     </row>
-    <row r="859" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -52206,7 +52204,7 @@
       <c r="BE859" s="1"/>
       <c r="BF859" s="1"/>
     </row>
-    <row r="860" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -52266,7 +52264,7 @@
       <c r="BE860" s="1"/>
       <c r="BF860" s="1"/>
     </row>
-    <row r="861" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -52326,7 +52324,7 @@
       <c r="BE861" s="1"/>
       <c r="BF861" s="1"/>
     </row>
-    <row r="862" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -52386,7 +52384,7 @@
       <c r="BE862" s="1"/>
       <c r="BF862" s="1"/>
     </row>
-    <row r="863" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -52446,7 +52444,7 @@
       <c r="BE863" s="1"/>
       <c r="BF863" s="1"/>
     </row>
-    <row r="864" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -52506,7 +52504,7 @@
       <c r="BE864" s="1"/>
       <c r="BF864" s="1"/>
     </row>
-    <row r="865" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -52566,7 +52564,7 @@
       <c r="BE865" s="1"/>
       <c r="BF865" s="1"/>
     </row>
-    <row r="866" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -52626,7 +52624,7 @@
       <c r="BE866" s="1"/>
       <c r="BF866" s="1"/>
     </row>
-    <row r="867" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -52686,7 +52684,7 @@
       <c r="BE867" s="1"/>
       <c r="BF867" s="1"/>
     </row>
-    <row r="868" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -52746,7 +52744,7 @@
       <c r="BE868" s="1"/>
       <c r="BF868" s="1"/>
     </row>
-    <row r="869" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -52806,7 +52804,7 @@
       <c r="BE869" s="1"/>
       <c r="BF869" s="1"/>
     </row>
-    <row r="870" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -52866,7 +52864,7 @@
       <c r="BE870" s="1"/>
       <c r="BF870" s="1"/>
     </row>
-    <row r="871" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -52926,7 +52924,7 @@
       <c r="BE871" s="1"/>
       <c r="BF871" s="1"/>
     </row>
-    <row r="872" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -52986,7 +52984,7 @@
       <c r="BE872" s="1"/>
       <c r="BF872" s="1"/>
     </row>
-    <row r="873" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -53046,7 +53044,7 @@
       <c r="BE873" s="1"/>
       <c r="BF873" s="1"/>
     </row>
-    <row r="874" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -53106,7 +53104,7 @@
       <c r="BE874" s="1"/>
       <c r="BF874" s="1"/>
     </row>
-    <row r="875" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -53166,7 +53164,7 @@
       <c r="BE875" s="1"/>
       <c r="BF875" s="1"/>
     </row>
-    <row r="876" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -53226,7 +53224,7 @@
       <c r="BE876" s="1"/>
       <c r="BF876" s="1"/>
     </row>
-    <row r="877" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -53286,7 +53284,7 @@
       <c r="BE877" s="1"/>
       <c r="BF877" s="1"/>
     </row>
-    <row r="878" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -53346,7 +53344,7 @@
       <c r="BE878" s="1"/>
       <c r="BF878" s="1"/>
     </row>
-    <row r="879" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -53406,7 +53404,7 @@
       <c r="BE879" s="1"/>
       <c r="BF879" s="1"/>
     </row>
-    <row r="880" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -53466,7 +53464,7 @@
       <c r="BE880" s="1"/>
       <c r="BF880" s="1"/>
     </row>
-    <row r="881" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -53526,7 +53524,7 @@
       <c r="BE881" s="1"/>
       <c r="BF881" s="1"/>
     </row>
-    <row r="882" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -53586,7 +53584,7 @@
       <c r="BE882" s="1"/>
       <c r="BF882" s="1"/>
     </row>
-    <row r="883" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -53646,7 +53644,7 @@
       <c r="BE883" s="1"/>
       <c r="BF883" s="1"/>
     </row>
-    <row r="884" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -53706,7 +53704,7 @@
       <c r="BE884" s="1"/>
       <c r="BF884" s="1"/>
     </row>
-    <row r="885" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -53766,7 +53764,7 @@
       <c r="BE885" s="1"/>
       <c r="BF885" s="1"/>
     </row>
-    <row r="886" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -53826,7 +53824,7 @@
       <c r="BE886" s="1"/>
       <c r="BF886" s="1"/>
     </row>
-    <row r="887" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -53886,7 +53884,7 @@
       <c r="BE887" s="1"/>
       <c r="BF887" s="1"/>
     </row>
-    <row r="888" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -53946,7 +53944,7 @@
       <c r="BE888" s="1"/>
       <c r="BF888" s="1"/>
     </row>
-    <row r="889" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -54006,7 +54004,7 @@
       <c r="BE889" s="1"/>
       <c r="BF889" s="1"/>
     </row>
-    <row r="890" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -54066,7 +54064,7 @@
       <c r="BE890" s="1"/>
       <c r="BF890" s="1"/>
     </row>
-    <row r="891" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -54126,7 +54124,7 @@
       <c r="BE891" s="1"/>
       <c r="BF891" s="1"/>
     </row>
-    <row r="892" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -54186,7 +54184,7 @@
       <c r="BE892" s="1"/>
       <c r="BF892" s="1"/>
     </row>
-    <row r="893" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -54246,7 +54244,7 @@
       <c r="BE893" s="1"/>
       <c r="BF893" s="1"/>
     </row>
-    <row r="894" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -54306,7 +54304,7 @@
       <c r="BE894" s="1"/>
       <c r="BF894" s="1"/>
     </row>
-    <row r="895" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -54366,7 +54364,7 @@
       <c r="BE895" s="1"/>
       <c r="BF895" s="1"/>
     </row>
-    <row r="896" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -54426,7 +54424,7 @@
       <c r="BE896" s="1"/>
       <c r="BF896" s="1"/>
     </row>
-    <row r="897" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -54486,7 +54484,7 @@
       <c r="BE897" s="1"/>
       <c r="BF897" s="1"/>
     </row>
-    <row r="898" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -54546,7 +54544,7 @@
       <c r="BE898" s="1"/>
       <c r="BF898" s="1"/>
     </row>
-    <row r="899" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -54606,7 +54604,7 @@
       <c r="BE899" s="1"/>
       <c r="BF899" s="1"/>
     </row>
-    <row r="900" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -54666,7 +54664,7 @@
       <c r="BE900" s="1"/>
       <c r="BF900" s="1"/>
     </row>
-    <row r="901" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -54726,7 +54724,7 @@
       <c r="BE901" s="1"/>
       <c r="BF901" s="1"/>
     </row>
-    <row r="902" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -54786,7 +54784,7 @@
       <c r="BE902" s="1"/>
       <c r="BF902" s="1"/>
     </row>
-    <row r="903" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -54846,7 +54844,7 @@
       <c r="BE903" s="1"/>
       <c r="BF903" s="1"/>
     </row>
-    <row r="904" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -54906,7 +54904,7 @@
       <c r="BE904" s="1"/>
       <c r="BF904" s="1"/>
     </row>
-    <row r="905" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -54966,7 +54964,7 @@
       <c r="BE905" s="1"/>
       <c r="BF905" s="1"/>
     </row>
-    <row r="906" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -55026,7 +55024,7 @@
       <c r="BE906" s="1"/>
       <c r="BF906" s="1"/>
     </row>
-    <row r="907" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -55086,7 +55084,7 @@
       <c r="BE907" s="1"/>
       <c r="BF907" s="1"/>
     </row>
-    <row r="908" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -55146,7 +55144,7 @@
       <c r="BE908" s="1"/>
       <c r="BF908" s="1"/>
     </row>
-    <row r="909" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -55206,7 +55204,7 @@
       <c r="BE909" s="1"/>
       <c r="BF909" s="1"/>
     </row>
-    <row r="910" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -55266,7 +55264,7 @@
       <c r="BE910" s="1"/>
       <c r="BF910" s="1"/>
     </row>
-    <row r="911" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -55326,7 +55324,7 @@
       <c r="BE911" s="1"/>
       <c r="BF911" s="1"/>
     </row>
-    <row r="912" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -55386,7 +55384,7 @@
       <c r="BE912" s="1"/>
       <c r="BF912" s="1"/>
     </row>
-    <row r="913" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -55446,7 +55444,7 @@
       <c r="BE913" s="1"/>
       <c r="BF913" s="1"/>
     </row>
-    <row r="914" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -55506,7 +55504,7 @@
       <c r="BE914" s="1"/>
       <c r="BF914" s="1"/>
     </row>
-    <row r="915" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -55566,7 +55564,7 @@
       <c r="BE915" s="1"/>
       <c r="BF915" s="1"/>
     </row>
-    <row r="916" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -55626,7 +55624,7 @@
       <c r="BE916" s="1"/>
       <c r="BF916" s="1"/>
     </row>
-    <row r="917" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -55686,7 +55684,7 @@
       <c r="BE917" s="1"/>
       <c r="BF917" s="1"/>
     </row>
-    <row r="918" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -55746,7 +55744,7 @@
       <c r="BE918" s="1"/>
       <c r="BF918" s="1"/>
     </row>
-    <row r="919" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -55806,7 +55804,7 @@
       <c r="BE919" s="1"/>
       <c r="BF919" s="1"/>
     </row>
-    <row r="920" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -55866,7 +55864,7 @@
       <c r="BE920" s="1"/>
       <c r="BF920" s="1"/>
     </row>
-    <row r="921" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -55926,7 +55924,7 @@
       <c r="BE921" s="1"/>
       <c r="BF921" s="1"/>
     </row>
-    <row r="922" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -55986,7 +55984,7 @@
       <c r="BE922" s="1"/>
       <c r="BF922" s="1"/>
     </row>
-    <row r="923" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -56046,7 +56044,7 @@
       <c r="BE923" s="1"/>
       <c r="BF923" s="1"/>
     </row>
-    <row r="924" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -56106,7 +56104,7 @@
       <c r="BE924" s="1"/>
       <c r="BF924" s="1"/>
     </row>
-    <row r="925" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -56166,7 +56164,7 @@
       <c r="BE925" s="1"/>
       <c r="BF925" s="1"/>
     </row>
-    <row r="926" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -56226,7 +56224,7 @@
       <c r="BE926" s="1"/>
       <c r="BF926" s="1"/>
     </row>
-    <row r="927" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -56286,7 +56284,7 @@
       <c r="BE927" s="1"/>
       <c r="BF927" s="1"/>
     </row>
-    <row r="928" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -56346,7 +56344,7 @@
       <c r="BE928" s="1"/>
       <c r="BF928" s="1"/>
     </row>
-    <row r="929" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -56406,7 +56404,7 @@
       <c r="BE929" s="1"/>
       <c r="BF929" s="1"/>
     </row>
-    <row r="930" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -56466,7 +56464,7 @@
       <c r="BE930" s="1"/>
       <c r="BF930" s="1"/>
     </row>
-    <row r="931" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -56526,7 +56524,7 @@
       <c r="BE931" s="1"/>
       <c r="BF931" s="1"/>
     </row>
-    <row r="932" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -56586,7 +56584,7 @@
       <c r="BE932" s="1"/>
       <c r="BF932" s="1"/>
     </row>
-    <row r="933" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -56646,7 +56644,7 @@
       <c r="BE933" s="1"/>
       <c r="BF933" s="1"/>
     </row>
-    <row r="934" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -56706,7 +56704,7 @@
       <c r="BE934" s="1"/>
       <c r="BF934" s="1"/>
     </row>
-    <row r="935" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -56766,7 +56764,7 @@
       <c r="BE935" s="1"/>
       <c r="BF935" s="1"/>
     </row>
-    <row r="936" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -56826,7 +56824,7 @@
       <c r="BE936" s="1"/>
       <c r="BF936" s="1"/>
     </row>
-    <row r="937" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -56886,7 +56884,7 @@
       <c r="BE937" s="1"/>
       <c r="BF937" s="1"/>
     </row>
-    <row r="938" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -56946,7 +56944,7 @@
       <c r="BE938" s="1"/>
       <c r="BF938" s="1"/>
     </row>
-    <row r="939" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -57006,7 +57004,7 @@
       <c r="BE939" s="1"/>
       <c r="BF939" s="1"/>
     </row>
-    <row r="940" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -57066,7 +57064,7 @@
       <c r="BE940" s="1"/>
       <c r="BF940" s="1"/>
     </row>
-    <row r="941" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -57126,7 +57124,7 @@
       <c r="BE941" s="1"/>
       <c r="BF941" s="1"/>
     </row>
-    <row r="942" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -57186,7 +57184,7 @@
       <c r="BE942" s="1"/>
       <c r="BF942" s="1"/>
     </row>
-    <row r="943" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -57246,7 +57244,7 @@
       <c r="BE943" s="1"/>
       <c r="BF943" s="1"/>
     </row>
-    <row r="944" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -57306,7 +57304,7 @@
       <c r="BE944" s="1"/>
       <c r="BF944" s="1"/>
     </row>
-    <row r="945" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -57366,7 +57364,7 @@
       <c r="BE945" s="1"/>
       <c r="BF945" s="1"/>
     </row>
-    <row r="946" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -57426,7 +57424,7 @@
       <c r="BE946" s="1"/>
       <c r="BF946" s="1"/>
     </row>
-    <row r="947" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -57486,7 +57484,7 @@
       <c r="BE947" s="1"/>
       <c r="BF947" s="1"/>
     </row>
-    <row r="948" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -57546,7 +57544,7 @@
       <c r="BE948" s="1"/>
       <c r="BF948" s="1"/>
     </row>
-    <row r="949" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -57606,7 +57604,7 @@
       <c r="BE949" s="1"/>
       <c r="BF949" s="1"/>
     </row>
-    <row r="950" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -57666,7 +57664,7 @@
       <c r="BE950" s="1"/>
       <c r="BF950" s="1"/>
     </row>
-    <row r="951" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -57726,7 +57724,7 @@
       <c r="BE951" s="1"/>
       <c r="BF951" s="1"/>
     </row>
-    <row r="952" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -57786,7 +57784,7 @@
       <c r="BE952" s="1"/>
       <c r="BF952" s="1"/>
     </row>
-    <row r="953" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -57846,7 +57844,7 @@
       <c r="BE953" s="1"/>
       <c r="BF953" s="1"/>
     </row>
-    <row r="954" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -57906,7 +57904,7 @@
       <c r="BE954" s="1"/>
       <c r="BF954" s="1"/>
     </row>
-    <row r="955" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -57966,7 +57964,7 @@
       <c r="BE955" s="1"/>
       <c r="BF955" s="1"/>
     </row>
-    <row r="956" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -58026,7 +58024,7 @@
       <c r="BE956" s="1"/>
       <c r="BF956" s="1"/>
     </row>
-    <row r="957" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -58086,7 +58084,7 @@
       <c r="BE957" s="1"/>
       <c r="BF957" s="1"/>
     </row>
-    <row r="958" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -58146,7 +58144,7 @@
       <c r="BE958" s="1"/>
       <c r="BF958" s="1"/>
     </row>
-    <row r="959" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -58206,7 +58204,7 @@
       <c r="BE959" s="1"/>
       <c r="BF959" s="1"/>
     </row>
-    <row r="960" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -58266,7 +58264,7 @@
       <c r="BE960" s="1"/>
       <c r="BF960" s="1"/>
     </row>
-    <row r="961" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -58326,7 +58324,7 @@
       <c r="BE961" s="1"/>
       <c r="BF961" s="1"/>
     </row>
-    <row r="962" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -58386,7 +58384,7 @@
       <c r="BE962" s="1"/>
       <c r="BF962" s="1"/>
     </row>
-    <row r="963" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -58446,7 +58444,7 @@
       <c r="BE963" s="1"/>
       <c r="BF963" s="1"/>
     </row>
-    <row r="964" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -58506,7 +58504,7 @@
       <c r="BE964" s="1"/>
       <c r="BF964" s="1"/>
     </row>
-    <row r="965" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -58566,7 +58564,7 @@
       <c r="BE965" s="1"/>
       <c r="BF965" s="1"/>
     </row>
-    <row r="966" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -58626,7 +58624,7 @@
       <c r="BE966" s="1"/>
       <c r="BF966" s="1"/>
     </row>
-    <row r="967" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -58686,7 +58684,7 @@
       <c r="BE967" s="1"/>
       <c r="BF967" s="1"/>
     </row>
-    <row r="968" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -58746,7 +58744,7 @@
       <c r="BE968" s="1"/>
       <c r="BF968" s="1"/>
     </row>
-    <row r="969" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -58806,7 +58804,7 @@
       <c r="BE969" s="1"/>
       <c r="BF969" s="1"/>
     </row>
-    <row r="970" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -58866,7 +58864,7 @@
       <c r="BE970" s="1"/>
       <c r="BF970" s="1"/>
     </row>
-    <row r="971" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -58926,7 +58924,7 @@
       <c r="BE971" s="1"/>
       <c r="BF971" s="1"/>
     </row>
-    <row r="972" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -58986,7 +58984,7 @@
       <c r="BE972" s="1"/>
       <c r="BF972" s="1"/>
     </row>
-    <row r="973" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -59046,7 +59044,7 @@
       <c r="BE973" s="1"/>
       <c r="BF973" s="1"/>
     </row>
-    <row r="974" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -59106,7 +59104,7 @@
       <c r="BE974" s="1"/>
       <c r="BF974" s="1"/>
     </row>
-    <row r="975" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -59166,7 +59164,7 @@
       <c r="BE975" s="1"/>
       <c r="BF975" s="1"/>
     </row>
-    <row r="976" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -59226,7 +59224,7 @@
       <c r="BE976" s="1"/>
       <c r="BF976" s="1"/>
     </row>
-    <row r="977" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -59286,7 +59284,7 @@
       <c r="BE977" s="1"/>
       <c r="BF977" s="1"/>
     </row>
-    <row r="978" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -59346,7 +59344,7 @@
       <c r="BE978" s="1"/>
       <c r="BF978" s="1"/>
     </row>
-    <row r="979" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -59406,7 +59404,7 @@
       <c r="BE979" s="1"/>
       <c r="BF979" s="1"/>
     </row>
-    <row r="980" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -59466,7 +59464,7 @@
       <c r="BE980" s="1"/>
       <c r="BF980" s="1"/>
     </row>
-    <row r="981" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -59526,7 +59524,7 @@
       <c r="BE981" s="1"/>
       <c r="BF981" s="1"/>
     </row>
-    <row r="982" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -59586,7 +59584,7 @@
       <c r="BE982" s="1"/>
       <c r="BF982" s="1"/>
     </row>
-    <row r="983" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -59646,7 +59644,7 @@
       <c r="BE983" s="1"/>
       <c r="BF983" s="1"/>
     </row>
-    <row r="984" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -59706,7 +59704,7 @@
       <c r="BE984" s="1"/>
       <c r="BF984" s="1"/>
     </row>
-    <row r="985" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -59766,7 +59764,7 @@
       <c r="BE985" s="1"/>
       <c r="BF985" s="1"/>
     </row>
-    <row r="986" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -59826,7 +59824,7 @@
       <c r="BE986" s="1"/>
       <c r="BF986" s="1"/>
     </row>
-    <row r="987" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -59886,7 +59884,7 @@
       <c r="BE987" s="1"/>
       <c r="BF987" s="1"/>
     </row>
-    <row r="988" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -59946,7 +59944,7 @@
       <c r="BE988" s="1"/>
       <c r="BF988" s="1"/>
     </row>
-    <row r="989" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -60006,7 +60004,7 @@
       <c r="BE989" s="1"/>
       <c r="BF989" s="1"/>
     </row>
-    <row r="990" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -60066,7 +60064,7 @@
       <c r="BE990" s="1"/>
       <c r="BF990" s="1"/>
     </row>
-    <row r="991" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -60126,7 +60124,7 @@
       <c r="BE991" s="1"/>
       <c r="BF991" s="1"/>
     </row>
-    <row r="992" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -60186,7 +60184,7 @@
       <c r="BE992" s="1"/>
       <c r="BF992" s="1"/>
     </row>
-    <row r="993" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -60246,7 +60244,7 @@
       <c r="BE993" s="1"/>
       <c r="BF993" s="1"/>
     </row>
-    <row r="994" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -60306,7 +60304,7 @@
       <c r="BE994" s="1"/>
       <c r="BF994" s="1"/>
     </row>
-    <row r="995" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -60366,7 +60364,7 @@
       <c r="BE995" s="1"/>
       <c r="BF995" s="1"/>
     </row>
-    <row r="996" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -60426,7 +60424,7 @@
       <c r="BE996" s="1"/>
       <c r="BF996" s="1"/>
     </row>
-    <row r="997" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -60486,7 +60484,7 @@
       <c r="BE997" s="1"/>
       <c r="BF997" s="1"/>
     </row>
-    <row r="998" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -60546,7 +60544,7 @@
       <c r="BE998" s="1"/>
       <c r="BF998" s="1"/>
     </row>
-    <row r="999" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -60606,7 +60604,7 @@
       <c r="BE999" s="1"/>
       <c r="BF999" s="1"/>
     </row>
-    <row r="1000" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
